--- a/故障样本.xlsx
+++ b/故障样本.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyixiang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E0680-F746-46F6-B6CD-5B3978A4D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="25">
   <si>
     <t>采集日期</t>
   </si>
@@ -46,7 +40,18 @@
     <t>总烃</t>
   </si>
   <si>
-    <t>总可燃气体</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总可燃气体</t>
+    </r>
+  </si>
+  <si>
+    <t>油温</t>
   </si>
   <si>
     <t>状态</t>
@@ -58,110 +63,54 @@
     <t>绝缘老化</t>
   </si>
   <si>
+    <t>甲烷，乙烷，丙烷等气体增加，可燃烃类和可燃气体增加</t>
+  </si>
+  <si>
+    <t>总可燃气体</t>
+  </si>
+  <si>
     <t>绕组故障</t>
+  </si>
+  <si>
+    <t>仅氢气增加，可燃气体增加</t>
   </si>
   <si>
     <t>绝缘击穿</t>
   </si>
   <si>
+    <t>氢气和乙炔增加，总烃和可燃气体增加</t>
+  </si>
+  <si>
     <t>过载故障</t>
+  </si>
+  <si>
+    <t>氢气和一氧化碳增加，烃类增加，可燃气体增加，油温升高</t>
   </si>
   <si>
     <t>短路故障</t>
   </si>
   <si>
+    <t>氢气，一氧化碳和烃类骤增，油温升高</t>
+  </si>
+  <si>
     <t>冷却故障</t>
   </si>
   <si>
-    <t>甲烷，乙烷，丙烷等气体增加，可燃烃类和可燃气体增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅氢气增加，可燃气体增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢气和乙炔增加，总烃和可燃气体增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总可燃气体</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油温</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总烃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙烷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙炔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙烯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲烷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一氧化碳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢气</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘老化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢气和一氧化碳增加，烃类增加，可燃气体增加，油温升高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢气，一氧化碳和烃类骤增，油温升高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>氢气和一氧化碳增加，油温升高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +121,21 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -182,28 +144,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +307,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -329,12 +600,32 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="55"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="55"/>
       </right>
       <top style="medium">
         <color indexed="55"/>
       </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="22"/>
       </bottom>
@@ -352,13 +643,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="55"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="22"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -367,13 +677,216 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="22"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -381,72 +894,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -704,64 +1261,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188:J192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="12" max="12" width="56.21875" customWidth="1"/>
+    <col min="12" max="12" width="56.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B2" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C2" s="4">
         <v>7.2</v>
@@ -770,7 +1327,7 @@
         <v>6.2</v>
       </c>
       <c r="E2" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -784,16 +1341,16 @@
       <c r="I2" s="4">
         <v>28.1</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>60.4</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B3" s="6">
         <v>8.6</v>
@@ -819,16 +1376,16 @@
       <c r="I3" s="6">
         <v>25.9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>64.5</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B4" s="6">
         <v>8.1</v>
@@ -849,21 +1406,21 @@
         <v>3.6</v>
       </c>
       <c r="H4" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I4" s="6">
         <v>26</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>63.4</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B5" s="6">
         <v>8</v>
@@ -889,19 +1446,19 @@
       <c r="I5" s="6">
         <v>25.4</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>62.3</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B6" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C6" s="6">
         <v>7.3</v>
@@ -924,22 +1481,22 @@
       <c r="I6" s="6">
         <v>25.7</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>64.3</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B7" s="6">
         <v>7.9</v>
       </c>
       <c r="C7" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D7" s="6">
         <v>5.6</v>
@@ -954,21 +1511,21 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I7" s="6">
         <v>26.3</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>62.1</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:11">
       <c r="A8" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B8" s="6">
         <v>7.8</v>
@@ -986,24 +1543,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H8" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I8" s="6">
         <v>31.7</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>61.2</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B9" s="6">
         <v>7.8</v>
@@ -1029,16 +1586,16 @@
       <c r="I9" s="6">
         <v>27.9</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>59.2</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:11">
       <c r="A10" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B10" s="6">
         <v>7.9</v>
@@ -1059,21 +1616,21 @@
         <v>8.9</v>
       </c>
       <c r="H10" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>60.1</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:11">
       <c r="A11" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B11" s="6">
         <v>7.8</v>
@@ -1099,16 +1656,16 @@
       <c r="I11" s="6">
         <v>25.2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>62.4</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:11">
       <c r="A12" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B12" s="6">
         <v>7.7</v>
@@ -1129,21 +1686,21 @@
         <v>3.3</v>
       </c>
       <c r="H12" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I12" s="6">
         <v>25.1</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>61.2</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:11">
       <c r="A13" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B13" s="6">
         <v>7.7</v>
@@ -1155,7 +1712,7 @@
         <v>5.4</v>
       </c>
       <c r="E13" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1169,16 +1726,16 @@
       <c r="I13" s="6">
         <v>25.6</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>63.1</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:11">
       <c r="A14" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B14" s="6">
         <v>7.6</v>
@@ -1199,21 +1756,21 @@
         <v>3.4</v>
       </c>
       <c r="H14" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I14" s="6">
         <v>25.7</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>62.1</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:11">
       <c r="A15" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B15" s="6">
         <v>7.6</v>
@@ -1239,16 +1796,16 @@
       <c r="I15" s="6">
         <v>24.9</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>63.2</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:11">
       <c r="A16" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B16" s="6">
         <v>7.6</v>
@@ -1274,16 +1831,16 @@
       <c r="I16" s="6">
         <v>24.7</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>61.2</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:11">
       <c r="A17" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B17" s="6">
         <v>7.7</v>
@@ -1309,16 +1866,16 @@
       <c r="I17" s="6">
         <v>24.6</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>62.8</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:11">
       <c r="A18" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B18" s="6">
         <v>7.6</v>
@@ -1344,16 +1901,16 @@
       <c r="I18" s="6">
         <v>24.9</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>58.7</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:11">
       <c r="A19" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B19" s="6">
         <v>7.4</v>
@@ -1362,7 +1919,7 @@
         <v>7.4</v>
       </c>
       <c r="D19" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E19" s="6">
         <v>0.9</v>
@@ -1374,21 +1931,21 @@
         <v>3.3</v>
       </c>
       <c r="H19" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I19" s="6">
         <v>24.2</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>59.8</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:11">
       <c r="A20" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B20" s="6">
         <v>7.5</v>
@@ -1414,16 +1971,16 @@
       <c r="I20" s="6">
         <v>25.2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>59.9</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:11">
       <c r="A21" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B21" s="6">
         <v>7.3</v>
@@ -1444,21 +2001,21 @@
         <v>3.2</v>
       </c>
       <c r="H21" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I21" s="6">
         <v>24.2</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>61.4</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:11">
       <c r="A22" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B22" s="6">
         <v>7.5</v>
@@ -1479,21 +2036,21 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I22" s="6">
         <v>25.3</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>62.4</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:11">
       <c r="A23" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B23" s="6">
         <v>7.3</v>
@@ -1519,16 +2076,16 @@
       <c r="I23" s="6">
         <v>24.1</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>63.5</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:11">
       <c r="A24" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B24" s="6">
         <v>7.5</v>
@@ -1549,21 +2106,21 @@
         <v>3.4</v>
       </c>
       <c r="H24" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I24" s="6">
         <v>23</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>61.2</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:12">
       <c r="A25" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B25" s="6">
         <v>7.4</v>
@@ -1575,13 +2132,13 @@
         <v>10.3</v>
       </c>
       <c r="E25" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H25" s="6">
         <v>50.3</v>
@@ -1593,15 +2150,15 @@
         <v>62.4</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:11">
       <c r="A26" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B26" s="6">
         <v>7.4</v>
@@ -1622,7 +2179,7 @@
         <v>12.6</v>
       </c>
       <c r="H26" s="6">
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="I26" s="6">
         <v>85.6</v>
@@ -1630,13 +2187,13 @@
       <c r="J26" s="15">
         <v>61.2</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:11">
       <c r="A27" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B27" s="6">
         <v>7.5</v>
@@ -1657,7 +2214,7 @@
         <v>17.8</v>
       </c>
       <c r="H27" s="6">
-        <v>153.19999999999999</v>
+        <v>153.2</v>
       </c>
       <c r="I27" s="6">
         <v>169.3</v>
@@ -1666,12 +2223,12 @@
         <v>63.4</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B28" s="6">
         <v>7.6</v>
@@ -1680,7 +2237,7 @@
         <v>7.4</v>
       </c>
       <c r="D28" s="6">
-        <v>75.2</v>
+        <v>80.2</v>
       </c>
       <c r="E28" s="6">
         <v>1.3</v>
@@ -1701,12 +2258,12 @@
         <v>60.2</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B29" s="6">
         <v>7.4</v>
@@ -1715,16 +2272,16 @@
         <v>7.4</v>
       </c>
       <c r="D29" s="6">
-        <v>69.2</v>
+        <v>102.2</v>
       </c>
       <c r="E29" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="H29" s="6">
         <v>190.5</v>
@@ -1736,50 +2293,51 @@
         <v>63.7</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25" spans="1:11">
+      <c r="A37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="8" t="s">
+      <c r="I37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:11">
       <c r="A38" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B38" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C38" s="4">
         <v>7.2</v>
@@ -1788,7 +2346,7 @@
         <v>6.2</v>
       </c>
       <c r="E38" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -1802,16 +2360,16 @@
       <c r="I38" s="4">
         <v>28.1</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>60.4</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:11">
       <c r="A39" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B39" s="6">
         <v>8.6</v>
@@ -1837,16 +2395,16 @@
       <c r="I39" s="6">
         <v>25.9</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>64.5</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:11">
       <c r="A40" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B40" s="6">
         <v>8.1</v>
@@ -1867,21 +2425,21 @@
         <v>3.6</v>
       </c>
       <c r="H40" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I40" s="6">
         <v>26</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>63.4</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:11">
       <c r="A41" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B41" s="6">
         <v>8</v>
@@ -1907,19 +2465,19 @@
       <c r="I41" s="6">
         <v>25.4</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>62.3</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:11">
       <c r="A42" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B42" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C42" s="6">
         <v>7.3</v>
@@ -1942,22 +2500,22 @@
       <c r="I42" s="6">
         <v>25.7</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>64.3</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:11">
       <c r="A43" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B43" s="6">
         <v>7.9</v>
       </c>
       <c r="C43" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D43" s="6">
         <v>5.6</v>
@@ -1972,21 +2530,21 @@
         <v>3.7</v>
       </c>
       <c r="H43" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I43" s="6">
         <v>26.3</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>62.1</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:11">
       <c r="A44" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B44" s="6">
         <v>7.8</v>
@@ -2004,24 +2562,24 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H44" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I44" s="6">
         <v>31.7</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>61.2</v>
       </c>
-      <c r="K44" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:11">
       <c r="A45" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B45" s="6">
         <v>7.8</v>
@@ -2047,16 +2605,16 @@
       <c r="I45" s="6">
         <v>27.9</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>59.2</v>
       </c>
-      <c r="K45" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:11">
       <c r="A46" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B46" s="6">
         <v>7.9</v>
@@ -2077,21 +2635,21 @@
         <v>8.9</v>
       </c>
       <c r="H46" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I46" s="6">
         <v>32</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="13">
         <v>60.1</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:11">
       <c r="A47" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B47" s="6">
         <v>7.8</v>
@@ -2117,16 +2675,16 @@
       <c r="I47" s="6">
         <v>25.2</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>62.4</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:11">
       <c r="A48" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B48" s="6">
         <v>7.7</v>
@@ -2147,21 +2705,21 @@
         <v>3.3</v>
       </c>
       <c r="H48" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I48" s="6">
         <v>25.1</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <v>61.2</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K48" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:11">
       <c r="A49" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B49" s="6">
         <v>7.7</v>
@@ -2173,7 +2731,7 @@
         <v>5.4</v>
       </c>
       <c r="E49" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -2187,16 +2745,16 @@
       <c r="I49" s="6">
         <v>25.6</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="13">
         <v>63.1</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:11">
       <c r="A50" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B50" s="6">
         <v>7.6</v>
@@ -2217,21 +2775,21 @@
         <v>3.4</v>
       </c>
       <c r="H50" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I50" s="6">
         <v>25.7</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="13">
         <v>62.1</v>
       </c>
-      <c r="K50" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:11">
       <c r="A51" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B51" s="6">
         <v>7.6</v>
@@ -2257,16 +2815,16 @@
       <c r="I51" s="6">
         <v>24.9</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="13">
         <v>63.2</v>
       </c>
-      <c r="K51" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:11">
       <c r="A52" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B52" s="6">
         <v>7.6</v>
@@ -2292,16 +2850,16 @@
       <c r="I52" s="6">
         <v>24.7</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="13">
         <v>61.2</v>
       </c>
-      <c r="K52" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K52" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:11">
       <c r="A53" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B53" s="6">
         <v>7.7</v>
@@ -2327,16 +2885,16 @@
       <c r="I53" s="6">
         <v>24.6</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <v>62.8</v>
       </c>
-      <c r="K53" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K53" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:11">
       <c r="A54" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B54" s="6">
         <v>7.6</v>
@@ -2362,16 +2920,16 @@
       <c r="I54" s="6">
         <v>24.9</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <v>58.7</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K54" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:11">
       <c r="A55" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B55" s="6">
         <v>7.4</v>
@@ -2380,7 +2938,7 @@
         <v>7.4</v>
       </c>
       <c r="D55" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E55" s="6">
         <v>0.9</v>
@@ -2392,21 +2950,21 @@
         <v>3.3</v>
       </c>
       <c r="H55" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I55" s="6">
         <v>24.2</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <v>59.8</v>
       </c>
-      <c r="K55" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K55" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:11">
       <c r="A56" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B56" s="6">
         <v>7.5</v>
@@ -2432,16 +2990,16 @@
       <c r="I56" s="6">
         <v>25.2</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <v>59.9</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K56" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:11">
       <c r="A57" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B57" s="6">
         <v>7.3</v>
@@ -2462,21 +3020,21 @@
         <v>3.2</v>
       </c>
       <c r="H57" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I57" s="6">
         <v>24.2</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>61.4</v>
       </c>
-      <c r="K57" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K57" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:11">
       <c r="A58" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B58" s="6">
         <v>7.5</v>
@@ -2497,21 +3055,21 @@
         <v>3.5</v>
       </c>
       <c r="H58" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I58" s="6">
         <v>25.3</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="13">
         <v>62.4</v>
       </c>
-      <c r="K58" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K58" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:11">
       <c r="A59" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B59" s="6">
         <v>7.3</v>
@@ -2537,16 +3095,16 @@
       <c r="I59" s="6">
         <v>24.1</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>63.5</v>
       </c>
-      <c r="K59" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K59" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:11">
       <c r="A60" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B60" s="6">
         <v>7.5</v>
@@ -2567,21 +3125,21 @@
         <v>3.4</v>
       </c>
       <c r="H60" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I60" s="6">
         <v>23</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>61.2</v>
       </c>
-      <c r="K60" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K60" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:12">
       <c r="A61" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B61" s="6">
         <v>12.5</v>
@@ -2593,7 +3151,7 @@
         <v>5.3</v>
       </c>
       <c r="E61" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -2602,7 +3160,7 @@
         <v>3.5</v>
       </c>
       <c r="H61" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I61" s="6">
         <v>29.3</v>
@@ -2610,16 +3168,16 @@
       <c r="J61" s="15">
         <v>62.4</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K61" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:11">
       <c r="A62" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B62" s="6">
         <v>31.5</v>
@@ -2640,7 +3198,7 @@
         <v>3.5</v>
       </c>
       <c r="H62" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I62" s="6">
         <v>50.3</v>
@@ -2648,13 +3206,13 @@
       <c r="J62" s="15">
         <v>61.2</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K62" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:11">
       <c r="A63" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B63" s="6">
         <v>82.1</v>
@@ -2683,13 +3241,13 @@
       <c r="J63" s="15">
         <v>63.4</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K63" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:11">
       <c r="A64" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B64" s="6">
         <v>98.6</v>
@@ -2713,18 +3271,18 @@
         <v>9.9</v>
       </c>
       <c r="I64" s="6">
-        <v>129.30000000000001</v>
+        <v>129.3</v>
       </c>
       <c r="J64" s="15">
         <v>60.2</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:11">
       <c r="A65" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B65" s="6">
         <v>105.3</v>
@@ -2736,7 +3294,7 @@
         <v>5.3</v>
       </c>
       <c r="E65" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
@@ -2753,51 +3311,52 @@
       <c r="J65" s="15">
         <v>63.7</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="K65" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25"/>
+    <row r="70" ht="14.25" spans="1:11">
+      <c r="A70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="8" t="s">
+      <c r="I70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:11">
       <c r="A71" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B71" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C71" s="4">
         <v>7.2</v>
@@ -2806,7 +3365,7 @@
         <v>6.2</v>
       </c>
       <c r="E71" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -2820,16 +3379,16 @@
       <c r="I71" s="4">
         <v>28.1</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="11">
         <v>60.4</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:11">
       <c r="A72" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B72" s="6">
         <v>8.6</v>
@@ -2855,16 +3414,16 @@
       <c r="I72" s="6">
         <v>25.9</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <v>64.5</v>
       </c>
-      <c r="K72" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:11">
       <c r="A73" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B73" s="6">
         <v>8.1</v>
@@ -2885,21 +3444,21 @@
         <v>3.6</v>
       </c>
       <c r="H73" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I73" s="6">
         <v>26</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="13">
         <v>63.4</v>
       </c>
-      <c r="K73" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:11">
       <c r="A74" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B74" s="6">
         <v>8</v>
@@ -2925,19 +3484,19 @@
       <c r="I74" s="6">
         <v>25.4</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="13">
         <v>62.3</v>
       </c>
-      <c r="K74" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:11">
       <c r="A75" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B75" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C75" s="6">
         <v>7.3</v>
@@ -2960,22 +3519,22 @@
       <c r="I75" s="6">
         <v>25.7</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <v>64.3</v>
       </c>
-      <c r="K75" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:11">
       <c r="A76" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B76" s="6">
         <v>7.9</v>
       </c>
       <c r="C76" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D76" s="6">
         <v>5.6</v>
@@ -2990,21 +3549,21 @@
         <v>3.7</v>
       </c>
       <c r="H76" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I76" s="6">
         <v>26.3</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="13">
         <v>62.1</v>
       </c>
-      <c r="K76" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:11">
       <c r="A77" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B77" s="6">
         <v>7.8</v>
@@ -3022,24 +3581,24 @@
         <v>0</v>
       </c>
       <c r="G77" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H77" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I77" s="6">
         <v>31.7</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="13">
         <v>61.2</v>
       </c>
-      <c r="K77" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:11">
       <c r="A78" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B78" s="6">
         <v>7.8</v>
@@ -3065,16 +3624,16 @@
       <c r="I78" s="6">
         <v>27.9</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="13">
         <v>59.2</v>
       </c>
-      <c r="K78" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:11">
       <c r="A79" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B79" s="6">
         <v>7.9</v>
@@ -3095,21 +3654,21 @@
         <v>8.9</v>
       </c>
       <c r="H79" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I79" s="6">
         <v>32</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="13">
         <v>60.1</v>
       </c>
-      <c r="K79" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="1:11">
       <c r="A80" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B80" s="6">
         <v>7.8</v>
@@ -3135,16 +3694,16 @@
       <c r="I80" s="6">
         <v>25.2</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="13">
         <v>62.4</v>
       </c>
-      <c r="K80" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K80" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="1:11">
       <c r="A81" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B81" s="6">
         <v>7.7</v>
@@ -3165,21 +3724,21 @@
         <v>3.3</v>
       </c>
       <c r="H81" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I81" s="6">
         <v>25.1</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="13">
         <v>61.2</v>
       </c>
-      <c r="K81" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K81" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:11">
       <c r="A82" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B82" s="6">
         <v>7.7</v>
@@ -3191,7 +3750,7 @@
         <v>5.4</v>
       </c>
       <c r="E82" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F82" s="6">
         <v>0</v>
@@ -3205,16 +3764,16 @@
       <c r="I82" s="6">
         <v>25.6</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="13">
         <v>63.1</v>
       </c>
-      <c r="K82" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K82" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:11">
       <c r="A83" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B83" s="6">
         <v>7.6</v>
@@ -3235,21 +3794,21 @@
         <v>3.4</v>
       </c>
       <c r="H83" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I83" s="6">
         <v>25.7</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="13">
         <v>62.1</v>
       </c>
-      <c r="K83" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K83" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:11">
       <c r="A84" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B84" s="6">
         <v>7.6</v>
@@ -3275,16 +3834,16 @@
       <c r="I84" s="6">
         <v>24.9</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="13">
         <v>63.2</v>
       </c>
-      <c r="K84" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K84" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:11">
       <c r="A85" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B85" s="6">
         <v>7.6</v>
@@ -3310,16 +3869,16 @@
       <c r="I85" s="6">
         <v>24.7</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="13">
         <v>61.2</v>
       </c>
-      <c r="K85" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K85" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:11">
       <c r="A86" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B86" s="6">
         <v>7.7</v>
@@ -3345,16 +3904,16 @@
       <c r="I86" s="6">
         <v>24.6</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="13">
         <v>62.8</v>
       </c>
-      <c r="K86" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K86" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:11">
       <c r="A87" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B87" s="6">
         <v>7.6</v>
@@ -3380,16 +3939,16 @@
       <c r="I87" s="6">
         <v>24.9</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J87" s="13">
         <v>58.7</v>
       </c>
-      <c r="K87" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K87" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:11">
       <c r="A88" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B88" s="6">
         <v>7.4</v>
@@ -3398,7 +3957,7 @@
         <v>7.4</v>
       </c>
       <c r="D88" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E88" s="6">
         <v>0.9</v>
@@ -3410,21 +3969,21 @@
         <v>3.3</v>
       </c>
       <c r="H88" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I88" s="6">
         <v>24.2</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="13">
         <v>59.8</v>
       </c>
-      <c r="K88" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K88" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:11">
       <c r="A89" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B89" s="6">
         <v>7.5</v>
@@ -3450,16 +4009,16 @@
       <c r="I89" s="6">
         <v>25.2</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="13">
         <v>59.9</v>
       </c>
-      <c r="K89" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K89" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:11">
       <c r="A90" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B90" s="6">
         <v>7.3</v>
@@ -3480,21 +4039,21 @@
         <v>3.2</v>
       </c>
       <c r="H90" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I90" s="6">
         <v>24.2</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="13">
         <v>61.4</v>
       </c>
-      <c r="K90" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K90" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:11">
       <c r="A91" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B91" s="6">
         <v>7.5</v>
@@ -3515,21 +4074,21 @@
         <v>3.5</v>
       </c>
       <c r="H91" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I91" s="6">
         <v>25.3</v>
       </c>
-      <c r="J91" s="14">
+      <c r="J91" s="13">
         <v>62.4</v>
       </c>
-      <c r="K91" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K91" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:11">
       <c r="A92" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B92" s="6">
         <v>7.3</v>
@@ -3555,16 +4114,16 @@
       <c r="I92" s="6">
         <v>24.1</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="13">
         <v>63.5</v>
       </c>
-      <c r="K92" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K92" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:11">
       <c r="A93" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B93" s="6">
         <v>7.5</v>
@@ -3585,21 +4144,21 @@
         <v>3.4</v>
       </c>
       <c r="H93" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I93" s="6">
         <v>23</v>
       </c>
-      <c r="J93" s="14">
+      <c r="J93" s="13">
         <v>61.2</v>
       </c>
-      <c r="K93" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K93" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="1:12">
       <c r="A94" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B94" s="6">
         <v>12.5</v>
@@ -3611,10 +4170,10 @@
         <v>5.3</v>
       </c>
       <c r="E94" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F94" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G94" s="6">
         <v>3.5</v>
@@ -3628,16 +4187,16 @@
       <c r="J94" s="15">
         <v>62.4</v>
       </c>
-      <c r="K94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K94" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:11">
       <c r="A95" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B95" s="6">
         <v>31.5</v>
@@ -3666,13 +4225,13 @@
       <c r="J95" s="15">
         <v>61.2</v>
       </c>
-      <c r="K95" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K95" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:11">
       <c r="A96" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B96" s="6">
         <v>82.1</v>
@@ -3696,18 +4255,18 @@
         <v>39.6</v>
       </c>
       <c r="I96" s="6">
-        <v>129.30000000000001</v>
+        <v>129.3</v>
       </c>
       <c r="J96" s="15">
         <v>63.4</v>
       </c>
-      <c r="K96" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="1:11">
       <c r="A97" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B97" s="6">
         <v>98.6</v>
@@ -3731,18 +4290,18 @@
         <v>53.4</v>
       </c>
       <c r="I97" s="6">
-        <v>149.30000000000001</v>
+        <v>149.3</v>
       </c>
       <c r="J97" s="15">
         <v>60.2</v>
       </c>
-      <c r="K97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:11">
       <c r="A98" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B98" s="6">
         <v>105.3</v>
@@ -3754,7 +4313,7 @@
         <v>5.3</v>
       </c>
       <c r="E98" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F98" s="6">
         <v>45.2</v>
@@ -3771,51 +4330,52 @@
       <c r="J98" s="15">
         <v>63.7</v>
       </c>
-      <c r="K98" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="K98" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25"/>
+    <row r="102" ht="14.25" spans="1:11">
+      <c r="A102" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" s="8" t="s">
+      <c r="I102" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:11">
       <c r="A103" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B103" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C103" s="4">
         <v>7.2</v>
@@ -3824,7 +4384,7 @@
         <v>6.2</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -3838,16 +4398,16 @@
       <c r="I103" s="4">
         <v>28.1</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="11">
         <v>60.4</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:11">
       <c r="A104" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B104" s="6">
         <v>8.6</v>
@@ -3873,16 +4433,16 @@
       <c r="I104" s="6">
         <v>25.9</v>
       </c>
-      <c r="J104" s="14">
+      <c r="J104" s="13">
         <v>64.5</v>
       </c>
-      <c r="K104" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:11">
       <c r="A105" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B105" s="6">
         <v>8.1</v>
@@ -3903,21 +4463,21 @@
         <v>3.6</v>
       </c>
       <c r="H105" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I105" s="6">
         <v>26</v>
       </c>
-      <c r="J105" s="14">
+      <c r="J105" s="13">
         <v>63.4</v>
       </c>
-      <c r="K105" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:11">
       <c r="A106" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B106" s="6">
         <v>8</v>
@@ -3943,19 +4503,19 @@
       <c r="I106" s="6">
         <v>25.4</v>
       </c>
-      <c r="J106" s="14">
+      <c r="J106" s="13">
         <v>62.3</v>
       </c>
-      <c r="K106" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:11">
       <c r="A107" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B107" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C107" s="6">
         <v>7.3</v>
@@ -3978,22 +4538,22 @@
       <c r="I107" s="6">
         <v>25.7</v>
       </c>
-      <c r="J107" s="14">
+      <c r="J107" s="13">
         <v>64.3</v>
       </c>
-      <c r="K107" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="1:11">
       <c r="A108" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B108" s="6">
         <v>7.9</v>
       </c>
       <c r="C108" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D108" s="6">
         <v>5.6</v>
@@ -4008,21 +4568,21 @@
         <v>3.7</v>
       </c>
       <c r="H108" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I108" s="6">
         <v>26.3</v>
       </c>
-      <c r="J108" s="14">
+      <c r="J108" s="13">
         <v>62.1</v>
       </c>
-      <c r="K108" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" spans="1:11">
       <c r="A109" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B109" s="6">
         <v>7.8</v>
@@ -4040,24 +4600,24 @@
         <v>0</v>
       </c>
       <c r="G109" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H109" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I109" s="6">
         <v>31.7</v>
       </c>
-      <c r="J109" s="14">
+      <c r="J109" s="13">
         <v>61.2</v>
       </c>
-      <c r="K109" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:11">
       <c r="A110" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B110" s="6">
         <v>7.8</v>
@@ -4083,16 +4643,16 @@
       <c r="I110" s="6">
         <v>27.9</v>
       </c>
-      <c r="J110" s="14">
+      <c r="J110" s="13">
         <v>59.2</v>
       </c>
-      <c r="K110" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="1:11">
       <c r="A111" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B111" s="6">
         <v>7.9</v>
@@ -4113,21 +4673,21 @@
         <v>8.9</v>
       </c>
       <c r="H111" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I111" s="6">
         <v>32</v>
       </c>
-      <c r="J111" s="14">
+      <c r="J111" s="13">
         <v>60.1</v>
       </c>
-      <c r="K111" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:11">
       <c r="A112" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B112" s="6">
         <v>7.8</v>
@@ -4153,16 +4713,16 @@
       <c r="I112" s="6">
         <v>25.2</v>
       </c>
-      <c r="J112" s="14">
+      <c r="J112" s="13">
         <v>62.4</v>
       </c>
-      <c r="K112" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K112" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:11">
       <c r="A113" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B113" s="6">
         <v>7.7</v>
@@ -4183,21 +4743,21 @@
         <v>3.3</v>
       </c>
       <c r="H113" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I113" s="6">
         <v>25.1</v>
       </c>
-      <c r="J113" s="14">
+      <c r="J113" s="13">
         <v>61.2</v>
       </c>
-      <c r="K113" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K113" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:11">
       <c r="A114" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B114" s="6">
         <v>7.7</v>
@@ -4209,7 +4769,7 @@
         <v>5.4</v>
       </c>
       <c r="E114" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -4223,16 +4783,16 @@
       <c r="I114" s="6">
         <v>25.6</v>
       </c>
-      <c r="J114" s="14">
+      <c r="J114" s="13">
         <v>63.1</v>
       </c>
-      <c r="K114" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K114" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" spans="1:11">
       <c r="A115" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B115" s="6">
         <v>7.6</v>
@@ -4253,21 +4813,21 @@
         <v>3.4</v>
       </c>
       <c r="H115" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I115" s="6">
         <v>25.7</v>
       </c>
-      <c r="J115" s="14">
+      <c r="J115" s="13">
         <v>62.1</v>
       </c>
-      <c r="K115" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K115" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="1:11">
       <c r="A116" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B116" s="6">
         <v>7.6</v>
@@ -4293,16 +4853,16 @@
       <c r="I116" s="6">
         <v>24.9</v>
       </c>
-      <c r="J116" s="14">
+      <c r="J116" s="13">
         <v>63.2</v>
       </c>
-      <c r="K116" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K116" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:11">
       <c r="A117" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B117" s="6">
         <v>7.6</v>
@@ -4328,16 +4888,16 @@
       <c r="I117" s="6">
         <v>24.7</v>
       </c>
-      <c r="J117" s="14">
+      <c r="J117" s="13">
         <v>61.2</v>
       </c>
-      <c r="K117" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K117" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" spans="1:11">
       <c r="A118" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B118" s="6">
         <v>7.7</v>
@@ -4363,16 +4923,16 @@
       <c r="I118" s="6">
         <v>24.6</v>
       </c>
-      <c r="J118" s="14">
+      <c r="J118" s="13">
         <v>62.8</v>
       </c>
-      <c r="K118" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K118" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" spans="1:11">
       <c r="A119" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B119" s="6">
         <v>7.6</v>
@@ -4398,16 +4958,16 @@
       <c r="I119" s="6">
         <v>24.9</v>
       </c>
-      <c r="J119" s="14">
+      <c r="J119" s="13">
         <v>58.7</v>
       </c>
-      <c r="K119" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K119" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="1:11">
       <c r="A120" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B120" s="6">
         <v>7.4</v>
@@ -4416,7 +4976,7 @@
         <v>7.4</v>
       </c>
       <c r="D120" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E120" s="6">
         <v>0.9</v>
@@ -4428,21 +4988,21 @@
         <v>3.3</v>
       </c>
       <c r="H120" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I120" s="6">
         <v>24.2</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="13">
         <v>59.8</v>
       </c>
-      <c r="K120" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K120" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:11">
       <c r="A121" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B121" s="6">
         <v>7.5</v>
@@ -4468,16 +5028,16 @@
       <c r="I121" s="6">
         <v>25.2</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="13">
         <v>59.9</v>
       </c>
-      <c r="K121" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K121" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:11">
       <c r="A122" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B122" s="6">
         <v>7.3</v>
@@ -4498,21 +5058,21 @@
         <v>3.2</v>
       </c>
       <c r="H122" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I122" s="6">
         <v>24.2</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="13">
         <v>61.4</v>
       </c>
-      <c r="K122" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K122" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:11">
       <c r="A123" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B123" s="6">
         <v>7.5</v>
@@ -4533,21 +5093,21 @@
         <v>3.5</v>
       </c>
       <c r="H123" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I123" s="6">
         <v>25.3</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J123" s="13">
         <v>62.4</v>
       </c>
-      <c r="K123" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K123" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="1:11">
       <c r="A124" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B124" s="6">
         <v>7.3</v>
@@ -4573,16 +5133,16 @@
       <c r="I124" s="6">
         <v>24.1</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="13">
         <v>63.5</v>
       </c>
-      <c r="K124" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K124" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="1:11">
       <c r="A125" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B125" s="6">
         <v>7.5</v>
@@ -4603,21 +5163,21 @@
         <v>3.4</v>
       </c>
       <c r="H125" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I125" s="6">
         <v>23</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="13">
         <v>61.2</v>
       </c>
-      <c r="K125" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K125" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="1:12">
       <c r="A126" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B126" s="6">
         <v>12.5</v>
@@ -4629,13 +5189,13 @@
         <v>10.3</v>
       </c>
       <c r="E126" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="F126" s="6">
         <v>0.6</v>
       </c>
       <c r="G126" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H126" s="6">
         <v>62.9</v>
@@ -4647,15 +5207,15 @@
         <v>72.5</v>
       </c>
       <c r="K126" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L126" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="1:11">
       <c r="A127" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B127" s="6">
         <v>31.5</v>
@@ -4670,7 +5230,7 @@
         <v>16.2</v>
       </c>
       <c r="F127" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G127" s="6">
         <v>12.6</v>
@@ -4679,18 +5239,18 @@
         <v>106.3</v>
       </c>
       <c r="I127" s="6">
-        <v>163.19999999999999</v>
+        <v>163.2</v>
       </c>
       <c r="J127" s="15">
         <v>86.7</v>
       </c>
       <c r="K127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="1:11">
       <c r="A128" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B128" s="6">
         <v>82.1</v>
@@ -4720,12 +5280,12 @@
         <v>89.4</v>
       </c>
       <c r="K128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="1:11">
       <c r="A129" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B129" s="6">
         <v>98.6</v>
@@ -4755,12 +5315,12 @@
         <v>91.3</v>
       </c>
       <c r="K129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="1:11">
       <c r="A130" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B130" s="6">
         <v>105.3</v>
@@ -4778,7 +5338,7 @@
         <v>13.2</v>
       </c>
       <c r="G130" s="6">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="H130" s="6">
         <v>496.3</v>
@@ -4790,50 +5350,51 @@
         <v>96.7</v>
       </c>
       <c r="K130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25"/>
+    <row r="133" ht="14.25" spans="1:11">
+      <c r="A133" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J133" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K133" s="8" t="s">
+      <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:11">
       <c r="A134" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B134" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C134" s="4">
         <v>7.2</v>
@@ -4842,7 +5403,7 @@
         <v>6.2</v>
       </c>
       <c r="E134" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F134" s="4">
         <v>0</v>
@@ -4856,16 +5417,16 @@
       <c r="I134" s="4">
         <v>28.1</v>
       </c>
-      <c r="J134" s="13">
+      <c r="J134" s="11">
         <v>60.4</v>
       </c>
-      <c r="K134" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="1:11">
       <c r="A135" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B135" s="6">
         <v>8.6</v>
@@ -4891,16 +5452,16 @@
       <c r="I135" s="6">
         <v>25.9</v>
       </c>
-      <c r="J135" s="14">
+      <c r="J135" s="13">
         <v>64.5</v>
       </c>
-      <c r="K135" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" spans="1:11">
       <c r="A136" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B136" s="6">
         <v>8.1</v>
@@ -4921,21 +5482,21 @@
         <v>3.6</v>
       </c>
       <c r="H136" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I136" s="6">
         <v>26</v>
       </c>
-      <c r="J136" s="14">
+      <c r="J136" s="13">
         <v>63.4</v>
       </c>
-      <c r="K136" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="1:11">
       <c r="A137" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B137" s="6">
         <v>8</v>
@@ -4961,19 +5522,19 @@
       <c r="I137" s="6">
         <v>25.4</v>
       </c>
-      <c r="J137" s="14">
+      <c r="J137" s="13">
         <v>62.3</v>
       </c>
-      <c r="K137" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:11">
       <c r="A138" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B138" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C138" s="6">
         <v>7.3</v>
@@ -4996,22 +5557,22 @@
       <c r="I138" s="6">
         <v>25.7</v>
       </c>
-      <c r="J138" s="14">
+      <c r="J138" s="13">
         <v>64.3</v>
       </c>
-      <c r="K138" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="1:11">
       <c r="A139" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B139" s="6">
         <v>7.9</v>
       </c>
       <c r="C139" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D139" s="6">
         <v>5.6</v>
@@ -5026,21 +5587,21 @@
         <v>3.7</v>
       </c>
       <c r="H139" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I139" s="6">
         <v>26.3</v>
       </c>
-      <c r="J139" s="14">
+      <c r="J139" s="13">
         <v>62.1</v>
       </c>
-      <c r="K139" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:11">
       <c r="A140" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B140" s="6">
         <v>7.8</v>
@@ -5058,24 +5619,24 @@
         <v>0</v>
       </c>
       <c r="G140" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H140" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I140" s="6">
         <v>31.7</v>
       </c>
-      <c r="J140" s="14">
+      <c r="J140" s="13">
         <v>61.2</v>
       </c>
-      <c r="K140" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="1:11">
       <c r="A141" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B141" s="6">
         <v>7.8</v>
@@ -5101,16 +5662,16 @@
       <c r="I141" s="6">
         <v>27.9</v>
       </c>
-      <c r="J141" s="14">
+      <c r="J141" s="13">
         <v>59.2</v>
       </c>
-      <c r="K141" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="1:11">
       <c r="A142" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B142" s="6">
         <v>7.9</v>
@@ -5131,21 +5692,21 @@
         <v>8.9</v>
       </c>
       <c r="H142" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I142" s="6">
         <v>32</v>
       </c>
-      <c r="J142" s="14">
+      <c r="J142" s="13">
         <v>60.1</v>
       </c>
-      <c r="K142" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="1:11">
       <c r="A143" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B143" s="6">
         <v>7.8</v>
@@ -5171,16 +5732,16 @@
       <c r="I143" s="6">
         <v>25.2</v>
       </c>
-      <c r="J143" s="14">
+      <c r="J143" s="13">
         <v>62.4</v>
       </c>
-      <c r="K143" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="1:11">
       <c r="A144" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B144" s="6">
         <v>7.7</v>
@@ -5201,21 +5762,21 @@
         <v>3.3</v>
       </c>
       <c r="H144" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I144" s="6">
         <v>25.1</v>
       </c>
-      <c r="J144" s="14">
+      <c r="J144" s="13">
         <v>61.2</v>
       </c>
-      <c r="K144" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K144" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" spans="1:11">
       <c r="A145" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B145" s="6">
         <v>7.7</v>
@@ -5227,7 +5788,7 @@
         <v>5.4</v>
       </c>
       <c r="E145" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F145" s="6">
         <v>0</v>
@@ -5241,16 +5802,16 @@
       <c r="I145" s="6">
         <v>25.6</v>
       </c>
-      <c r="J145" s="14">
+      <c r="J145" s="13">
         <v>63.1</v>
       </c>
-      <c r="K145" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K145" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="1:11">
       <c r="A146" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B146" s="6">
         <v>7.6</v>
@@ -5271,21 +5832,21 @@
         <v>3.4</v>
       </c>
       <c r="H146" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I146" s="6">
         <v>25.7</v>
       </c>
-      <c r="J146" s="14">
+      <c r="J146" s="13">
         <v>62.1</v>
       </c>
-      <c r="K146" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K146" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" spans="1:11">
       <c r="A147" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B147" s="6">
         <v>7.6</v>
@@ -5311,16 +5872,16 @@
       <c r="I147" s="6">
         <v>24.9</v>
       </c>
-      <c r="J147" s="14">
+      <c r="J147" s="13">
         <v>63.2</v>
       </c>
-      <c r="K147" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K147" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" spans="1:11">
       <c r="A148" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B148" s="6">
         <v>7.6</v>
@@ -5346,16 +5907,16 @@
       <c r="I148" s="6">
         <v>24.7</v>
       </c>
-      <c r="J148" s="14">
+      <c r="J148" s="13">
         <v>61.2</v>
       </c>
-      <c r="K148" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K148" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" spans="1:11">
       <c r="A149" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B149" s="6">
         <v>7.7</v>
@@ -5381,16 +5942,16 @@
       <c r="I149" s="6">
         <v>24.6</v>
       </c>
-      <c r="J149" s="14">
+      <c r="J149" s="13">
         <v>62.8</v>
       </c>
-      <c r="K149" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K149" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" spans="1:11">
       <c r="A150" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B150" s="6">
         <v>7.6</v>
@@ -5416,16 +5977,16 @@
       <c r="I150" s="6">
         <v>24.9</v>
       </c>
-      <c r="J150" s="14">
+      <c r="J150" s="13">
         <v>58.7</v>
       </c>
-      <c r="K150" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K150" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" spans="1:11">
       <c r="A151" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B151" s="6">
         <v>7.4</v>
@@ -5434,7 +5995,7 @@
         <v>7.4</v>
       </c>
       <c r="D151" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E151" s="6">
         <v>0.9</v>
@@ -5446,21 +6007,21 @@
         <v>3.3</v>
       </c>
       <c r="H151" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I151" s="6">
         <v>24.2</v>
       </c>
-      <c r="J151" s="14">
+      <c r="J151" s="13">
         <v>59.8</v>
       </c>
-      <c r="K151" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K151" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" spans="1:11">
       <c r="A152" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B152" s="6">
         <v>7.5</v>
@@ -5486,16 +6047,16 @@
       <c r="I152" s="6">
         <v>25.2</v>
       </c>
-      <c r="J152" s="14">
+      <c r="J152" s="13">
         <v>59.9</v>
       </c>
-      <c r="K152" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K152" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" spans="1:11">
       <c r="A153" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B153" s="6">
         <v>7.3</v>
@@ -5516,21 +6077,21 @@
         <v>3.2</v>
       </c>
       <c r="H153" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I153" s="6">
         <v>24.2</v>
       </c>
-      <c r="J153" s="14">
+      <c r="J153" s="13">
         <v>61.4</v>
       </c>
-      <c r="K153" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K153" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" spans="1:11">
       <c r="A154" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B154" s="6">
         <v>7.5</v>
@@ -5551,21 +6112,21 @@
         <v>3.5</v>
       </c>
       <c r="H154" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I154" s="6">
         <v>25.3</v>
       </c>
-      <c r="J154" s="14">
+      <c r="J154" s="13">
         <v>62.4</v>
       </c>
-      <c r="K154" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K154" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" spans="1:11">
       <c r="A155" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B155" s="6">
         <v>7.3</v>
@@ -5591,16 +6152,16 @@
       <c r="I155" s="6">
         <v>24.1</v>
       </c>
-      <c r="J155" s="14">
+      <c r="J155" s="13">
         <v>63.5</v>
       </c>
-      <c r="K155" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K155" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" spans="1:11">
       <c r="A156" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B156" s="6">
         <v>7.5</v>
@@ -5621,21 +6182,21 @@
         <v>3.4</v>
       </c>
       <c r="H156" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I156" s="6">
         <v>23</v>
       </c>
-      <c r="J156" s="14">
+      <c r="J156" s="13">
         <v>61.2</v>
       </c>
-      <c r="K156" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K156" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" spans="1:12">
       <c r="A157" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B157" s="6">
         <v>25.3</v>
@@ -5665,18 +6226,18 @@
         <v>72.5</v>
       </c>
       <c r="K157" t="s">
-        <v>15</v>
-      </c>
-      <c r="L157" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L157" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" spans="1:11">
       <c r="A158" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B158" s="6">
-        <v>75.599999999999994</v>
+        <v>75.6</v>
       </c>
       <c r="C158" s="6">
         <v>79.3</v>
@@ -5694,21 +6255,21 @@
         <v>40.5</v>
       </c>
       <c r="H158" s="6">
-        <v>135.19999999999999</v>
+        <v>135.2</v>
       </c>
       <c r="I158" s="6">
-        <v>566.29999999999995</v>
+        <v>566.3</v>
       </c>
       <c r="J158" s="15">
         <v>86.7</v>
       </c>
       <c r="K158" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" spans="1:11">
       <c r="A159" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B159" s="6">
         <v>195.3</v>
@@ -5729,7 +6290,7 @@
         <v>113.6</v>
       </c>
       <c r="H159" s="6">
-        <v>512.29999999999995</v>
+        <v>512.3</v>
       </c>
       <c r="I159" s="6">
         <v>842.3</v>
@@ -5738,12 +6299,12 @@
         <v>89.4</v>
       </c>
       <c r="K159" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" spans="1:11">
       <c r="A160" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B160" s="6">
         <v>256.3</v>
@@ -5773,12 +6334,12 @@
         <v>91.3</v>
       </c>
       <c r="K160" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" spans="1:11">
       <c r="A161" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B161" s="6">
         <v>452.3</v>
@@ -5787,16 +6348,16 @@
         <v>482.3</v>
       </c>
       <c r="D161" s="6">
-        <v>542.29999999999995</v>
+        <v>542.3</v>
       </c>
       <c r="E161" s="6">
         <v>284.3</v>
       </c>
       <c r="F161" s="6">
-        <v>155.69999999999999</v>
+        <v>155.7</v>
       </c>
       <c r="G161" s="6">
-        <v>315.60000000000002</v>
+        <v>315.6</v>
       </c>
       <c r="H161" s="6">
         <v>1243.2</v>
@@ -5808,50 +6369,51 @@
         <v>96.7</v>
       </c>
       <c r="K161" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25"/>
+    <row r="164" ht="14.25" spans="1:11">
+      <c r="A164" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F164" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="2" t="s">
+      <c r="H164" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J164" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K164" s="8" t="s">
+      <c r="I164" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" spans="1:11">
       <c r="A165" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B165" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C165" s="4">
         <v>7.2</v>
@@ -5860,7 +6422,7 @@
         <v>6.2</v>
       </c>
       <c r="E165" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F165" s="4">
         <v>0</v>
@@ -5874,16 +6436,16 @@
       <c r="I165" s="4">
         <v>28.1</v>
       </c>
-      <c r="J165" s="13">
+      <c r="J165" s="11">
         <v>60.4</v>
       </c>
-      <c r="K165" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K165" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" spans="1:11">
       <c r="A166" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B166" s="6">
         <v>8.6</v>
@@ -5909,16 +6471,16 @@
       <c r="I166" s="6">
         <v>25.9</v>
       </c>
-      <c r="J166" s="14">
+      <c r="J166" s="13">
         <v>64.5</v>
       </c>
-      <c r="K166" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K166" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" spans="1:11">
       <c r="A167" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B167" s="6">
         <v>8.1</v>
@@ -5939,21 +6501,21 @@
         <v>3.6</v>
       </c>
       <c r="H167" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I167" s="6">
         <v>26</v>
       </c>
-      <c r="J167" s="14">
+      <c r="J167" s="13">
         <v>63.4</v>
       </c>
-      <c r="K167" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K167" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" spans="1:11">
       <c r="A168" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B168" s="6">
         <v>8</v>
@@ -5979,19 +6541,19 @@
       <c r="I168" s="6">
         <v>25.4</v>
       </c>
-      <c r="J168" s="14">
+      <c r="J168" s="13">
         <v>62.3</v>
       </c>
-      <c r="K168" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K168" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" spans="1:11">
       <c r="A169" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B169" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C169" s="6">
         <v>7.3</v>
@@ -6014,22 +6576,22 @@
       <c r="I169" s="6">
         <v>25.7</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J169" s="13">
         <v>64.3</v>
       </c>
-      <c r="K169" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K169" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" spans="1:11">
       <c r="A170" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B170" s="6">
         <v>7.9</v>
       </c>
       <c r="C170" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D170" s="6">
         <v>5.6</v>
@@ -6044,21 +6606,21 @@
         <v>3.7</v>
       </c>
       <c r="H170" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I170" s="6">
         <v>26.3</v>
       </c>
-      <c r="J170" s="14">
+      <c r="J170" s="13">
         <v>62.1</v>
       </c>
-      <c r="K170" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K170" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" spans="1:11">
       <c r="A171" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B171" s="6">
         <v>7.8</v>
@@ -6076,24 +6638,24 @@
         <v>0</v>
       </c>
       <c r="G171" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H171" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I171" s="6">
         <v>31.7</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="13">
         <v>61.2</v>
       </c>
-      <c r="K171" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K171" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:11">
       <c r="A172" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B172" s="6">
         <v>7.8</v>
@@ -6119,16 +6681,16 @@
       <c r="I172" s="6">
         <v>27.9</v>
       </c>
-      <c r="J172" s="14">
+      <c r="J172" s="13">
         <v>59.2</v>
       </c>
-      <c r="K172" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K172" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" spans="1:11">
       <c r="A173" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B173" s="6">
         <v>7.9</v>
@@ -6149,21 +6711,21 @@
         <v>8.9</v>
       </c>
       <c r="H173" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I173" s="6">
         <v>32</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="13">
         <v>60.1</v>
       </c>
-      <c r="K173" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K173" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" spans="1:11">
       <c r="A174" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B174" s="6">
         <v>7.8</v>
@@ -6189,16 +6751,16 @@
       <c r="I174" s="6">
         <v>25.2</v>
       </c>
-      <c r="J174" s="14">
+      <c r="J174" s="13">
         <v>62.4</v>
       </c>
-      <c r="K174" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K174" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" spans="1:11">
       <c r="A175" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B175" s="6">
         <v>7.7</v>
@@ -6219,21 +6781,21 @@
         <v>3.3</v>
       </c>
       <c r="H175" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I175" s="6">
         <v>25.1</v>
       </c>
-      <c r="J175" s="14">
+      <c r="J175" s="13">
         <v>61.2</v>
       </c>
-      <c r="K175" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K175" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" spans="1:11">
       <c r="A176" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B176" s="6">
         <v>7.7</v>
@@ -6245,7 +6807,7 @@
         <v>5.4</v>
       </c>
       <c r="E176" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F176" s="6">
         <v>0</v>
@@ -6259,16 +6821,16 @@
       <c r="I176" s="6">
         <v>25.6</v>
       </c>
-      <c r="J176" s="14">
+      <c r="J176" s="13">
         <v>63.1</v>
       </c>
-      <c r="K176" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K176" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" spans="1:11">
       <c r="A177" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B177" s="6">
         <v>7.6</v>
@@ -6289,21 +6851,21 @@
         <v>3.4</v>
       </c>
       <c r="H177" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I177" s="6">
         <v>25.7</v>
       </c>
-      <c r="J177" s="14">
+      <c r="J177" s="13">
         <v>62.1</v>
       </c>
-      <c r="K177" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K177" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" spans="1:11">
       <c r="A178" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B178" s="6">
         <v>7.6</v>
@@ -6329,16 +6891,16 @@
       <c r="I178" s="6">
         <v>24.9</v>
       </c>
-      <c r="J178" s="14">
+      <c r="J178" s="13">
         <v>63.2</v>
       </c>
-      <c r="K178" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K178" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" spans="1:11">
       <c r="A179" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B179" s="6">
         <v>7.6</v>
@@ -6364,16 +6926,16 @@
       <c r="I179" s="6">
         <v>24.7</v>
       </c>
-      <c r="J179" s="14">
+      <c r="J179" s="13">
         <v>61.2</v>
       </c>
-      <c r="K179" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K179" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" spans="1:11">
       <c r="A180" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B180" s="6">
         <v>7.7</v>
@@ -6399,16 +6961,16 @@
       <c r="I180" s="6">
         <v>24.6</v>
       </c>
-      <c r="J180" s="14">
+      <c r="J180" s="13">
         <v>62.8</v>
       </c>
-      <c r="K180" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K180" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" spans="1:11">
       <c r="A181" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B181" s="6">
         <v>7.6</v>
@@ -6434,16 +6996,16 @@
       <c r="I181" s="6">
         <v>24.9</v>
       </c>
-      <c r="J181" s="14">
+      <c r="J181" s="13">
         <v>58.7</v>
       </c>
-      <c r="K181" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K181" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" spans="1:11">
       <c r="A182" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B182" s="6">
         <v>7.4</v>
@@ -6452,7 +7014,7 @@
         <v>7.4</v>
       </c>
       <c r="D182" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E182" s="6">
         <v>0.9</v>
@@ -6464,21 +7026,21 @@
         <v>3.3</v>
       </c>
       <c r="H182" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I182" s="6">
         <v>24.2</v>
       </c>
-      <c r="J182" s="14">
+      <c r="J182" s="13">
         <v>59.8</v>
       </c>
-      <c r="K182" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K182" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" spans="1:11">
       <c r="A183" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B183" s="6">
         <v>7.5</v>
@@ -6504,16 +7066,16 @@
       <c r="I183" s="6">
         <v>25.2</v>
       </c>
-      <c r="J183" s="14">
+      <c r="J183" s="13">
         <v>59.9</v>
       </c>
-      <c r="K183" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K183" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" spans="1:11">
       <c r="A184" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B184" s="6">
         <v>7.3</v>
@@ -6534,21 +7096,21 @@
         <v>3.2</v>
       </c>
       <c r="H184" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I184" s="6">
         <v>24.2</v>
       </c>
-      <c r="J184" s="14">
+      <c r="J184" s="13">
         <v>61.4</v>
       </c>
-      <c r="K184" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K184" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" spans="1:11">
       <c r="A185" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B185" s="6">
         <v>7.5</v>
@@ -6569,21 +7131,21 @@
         <v>3.5</v>
       </c>
       <c r="H185" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I185" s="6">
         <v>25.3</v>
       </c>
-      <c r="J185" s="14">
+      <c r="J185" s="13">
         <v>62.4</v>
       </c>
-      <c r="K185" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K185" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" spans="1:11">
       <c r="A186" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B186" s="6">
         <v>7.3</v>
@@ -6609,16 +7171,16 @@
       <c r="I186" s="6">
         <v>24.1</v>
       </c>
-      <c r="J186" s="14">
+      <c r="J186" s="13">
         <v>63.5</v>
       </c>
-      <c r="K186" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K186" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" spans="1:11">
       <c r="A187" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B187" s="6">
         <v>7.5</v>
@@ -6639,21 +7201,21 @@
         <v>3.4</v>
       </c>
       <c r="H187" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I187" s="6">
         <v>23</v>
       </c>
-      <c r="J187" s="14">
+      <c r="J187" s="13">
         <v>61.2</v>
       </c>
-      <c r="K187" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K187" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" spans="1:12">
       <c r="A188" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B188" s="6">
         <v>8.4</v>
@@ -6665,7 +7227,7 @@
         <v>5.3</v>
       </c>
       <c r="E188" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F188" s="6">
         <v>0</v>
@@ -6674,7 +7236,7 @@
         <v>3.5</v>
       </c>
       <c r="H188" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I188" s="6">
         <v>31.5</v>
@@ -6683,15 +7245,15 @@
         <v>72.5</v>
       </c>
       <c r="K188" t="s">
-        <v>16</v>
-      </c>
-      <c r="L188" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L188" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" spans="1:11">
       <c r="A189" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B189" s="6">
         <v>12.4</v>
@@ -6712,7 +7274,7 @@
         <v>3.5</v>
       </c>
       <c r="H189" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I189" s="6">
         <v>49.5</v>
@@ -6721,12 +7283,12 @@
         <v>86.7</v>
       </c>
       <c r="K189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" spans="1:11">
       <c r="A190" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B190" s="6">
         <v>21.5</v>
@@ -6750,18 +7312,18 @@
         <v>9.6</v>
       </c>
       <c r="I190" s="6">
-        <v>146.30000000000001</v>
+        <v>146.3</v>
       </c>
       <c r="J190" s="15">
         <v>89.4</v>
       </c>
       <c r="K190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" spans="1:11">
       <c r="A191" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B191" s="6">
         <v>38.6</v>
@@ -6791,12 +7353,12 @@
         <v>91.3</v>
       </c>
       <c r="K191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" spans="1:11">
       <c r="A192" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B192" s="6">
         <v>68.2</v>
@@ -6808,7 +7370,7 @@
         <v>5.3</v>
       </c>
       <c r="E192" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
@@ -6826,50 +7388,51 @@
         <v>96.7</v>
       </c>
       <c r="K192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25"/>
+    <row r="195" ht="14.25" spans="1:11">
+      <c r="A195" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="F195" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G195" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H195" s="2" t="s">
+      <c r="H195" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J195" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K195" s="8" t="s">
+      <c r="I195" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K195" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" spans="1:11">
       <c r="A196" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B196" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C196" s="4">
         <v>7.2</v>
@@ -6878,7 +7441,7 @@
         <v>6.2</v>
       </c>
       <c r="E196" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F196" s="4">
         <v>0</v>
@@ -6892,16 +7455,16 @@
       <c r="I196" s="4">
         <v>28.1</v>
       </c>
-      <c r="J196" s="13">
+      <c r="J196" s="11">
         <v>60.4</v>
       </c>
-      <c r="K196" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K196" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" spans="1:11">
       <c r="A197" s="5">
-        <v>44715.356354166666</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B197" s="6">
         <v>8.6</v>
@@ -6927,16 +7490,16 @@
       <c r="I197" s="6">
         <v>25.9</v>
       </c>
-      <c r="J197" s="14">
+      <c r="J197" s="13">
         <v>64.5</v>
       </c>
-      <c r="K197" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K197" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" spans="1:11">
       <c r="A198" s="5">
-        <v>44716.358113425929</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B198" s="6">
         <v>8.1</v>
@@ -6957,21 +7520,21 @@
         <v>3.6</v>
       </c>
       <c r="H198" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I198" s="6">
         <v>26</v>
       </c>
-      <c r="J198" s="14">
+      <c r="J198" s="13">
         <v>63.4</v>
       </c>
-      <c r="K198" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K198" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" spans="1:11">
       <c r="A199" s="5">
-        <v>44717.358414351853</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B199" s="6">
         <v>8</v>
@@ -6997,19 +7560,19 @@
       <c r="I199" s="6">
         <v>25.4</v>
       </c>
-      <c r="J199" s="14">
+      <c r="J199" s="13">
         <v>62.3</v>
       </c>
-      <c r="K199" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K199" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" spans="1:11">
       <c r="A200" s="5">
-        <v>44718.358506944445</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B200" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C200" s="6">
         <v>7.3</v>
@@ -7032,22 +7595,22 @@
       <c r="I200" s="6">
         <v>25.7</v>
       </c>
-      <c r="J200" s="14">
+      <c r="J200" s="13">
         <v>64.3</v>
       </c>
-      <c r="K200" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K200" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" spans="1:11">
       <c r="A201" s="5">
-        <v>44719.358668981484</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B201" s="6">
         <v>7.9</v>
       </c>
       <c r="C201" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D201" s="6">
         <v>5.6</v>
@@ -7062,21 +7625,21 @@
         <v>3.7</v>
       </c>
       <c r="H201" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I201" s="6">
         <v>26.3</v>
       </c>
-      <c r="J201" s="14">
+      <c r="J201" s="13">
         <v>62.1</v>
       </c>
-      <c r="K201" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K201" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" spans="1:11">
       <c r="A202" s="5">
-        <v>44720.35796296296</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B202" s="6">
         <v>7.8</v>
@@ -7094,24 +7657,24 @@
         <v>0</v>
       </c>
       <c r="G202" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H202" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I202" s="6">
         <v>31.7</v>
       </c>
-      <c r="J202" s="14">
+      <c r="J202" s="13">
         <v>61.2</v>
       </c>
-      <c r="K202" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K202" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25" spans="1:11">
       <c r="A203" s="5">
-        <v>44721.357453703706</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B203" s="6">
         <v>7.8</v>
@@ -7137,16 +7700,16 @@
       <c r="I203" s="6">
         <v>27.9</v>
       </c>
-      <c r="J203" s="14">
+      <c r="J203" s="13">
         <v>59.2</v>
       </c>
-      <c r="K203" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K203" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" spans="1:11">
       <c r="A204" s="5">
-        <v>44722.357881944445</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B204" s="6">
         <v>7.9</v>
@@ -7167,21 +7730,21 @@
         <v>8.9</v>
       </c>
       <c r="H204" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I204" s="6">
         <v>32</v>
       </c>
-      <c r="J204" s="14">
+      <c r="J204" s="13">
         <v>60.1</v>
       </c>
-      <c r="K204" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K204" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" spans="1:11">
       <c r="A205" s="5">
-        <v>44723.31627314815</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B205" s="6">
         <v>7.8</v>
@@ -7207,16 +7770,16 @@
       <c r="I205" s="6">
         <v>25.2</v>
       </c>
-      <c r="J205" s="14">
+      <c r="J205" s="13">
         <v>62.4</v>
       </c>
-      <c r="K205" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K205" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" spans="1:11">
       <c r="A206" s="5">
-        <v>44724.316481481481</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B206" s="6">
         <v>7.7</v>
@@ -7237,21 +7800,21 @@
         <v>3.3</v>
       </c>
       <c r="H206" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I206" s="6">
         <v>25.1</v>
       </c>
-      <c r="J206" s="14">
+      <c r="J206" s="13">
         <v>61.2</v>
       </c>
-      <c r="K206" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K206" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" spans="1:11">
       <c r="A207" s="5">
-        <v>44725.316238425927</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B207" s="6">
         <v>7.7</v>
@@ -7263,7 +7826,7 @@
         <v>5.4</v>
       </c>
       <c r="E207" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F207" s="6">
         <v>0</v>
@@ -7277,16 +7840,16 @@
       <c r="I207" s="6">
         <v>25.6</v>
       </c>
-      <c r="J207" s="14">
+      <c r="J207" s="13">
         <v>63.1</v>
       </c>
-      <c r="K207" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K207" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" spans="1:11">
       <c r="A208" s="5">
-        <v>44726.317523148151</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B208" s="6">
         <v>7.6</v>
@@ -7307,21 +7870,21 @@
         <v>3.4</v>
       </c>
       <c r="H208" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I208" s="6">
         <v>25.7</v>
       </c>
-      <c r="J208" s="14">
+      <c r="J208" s="13">
         <v>62.1</v>
       </c>
-      <c r="K208" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K208" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" spans="1:11">
       <c r="A209" s="5">
-        <v>44727.314282407409</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B209" s="6">
         <v>7.6</v>
@@ -7347,16 +7910,16 @@
       <c r="I209" s="6">
         <v>24.9</v>
       </c>
-      <c r="J209" s="14">
+      <c r="J209" s="13">
         <v>63.2</v>
       </c>
-      <c r="K209" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K209" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" spans="1:11">
       <c r="A210" s="5">
-        <v>44728.316527777781</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B210" s="6">
         <v>7.6</v>
@@ -7382,16 +7945,16 @@
       <c r="I210" s="6">
         <v>24.7</v>
       </c>
-      <c r="J210" s="14">
+      <c r="J210" s="13">
         <v>61.2</v>
       </c>
-      <c r="K210" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K210" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" spans="1:11">
       <c r="A211" s="5">
-        <v>44729.315520833334</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B211" s="6">
         <v>7.7</v>
@@ -7417,16 +7980,16 @@
       <c r="I211" s="6">
         <v>24.6</v>
       </c>
-      <c r="J211" s="14">
+      <c r="J211" s="13">
         <v>62.8</v>
       </c>
-      <c r="K211" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K211" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25" spans="1:11">
       <c r="A212" s="5">
-        <v>44730.317164351851</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B212" s="6">
         <v>7.6</v>
@@ -7452,16 +8015,16 @@
       <c r="I212" s="6">
         <v>24.9</v>
       </c>
-      <c r="J212" s="14">
+      <c r="J212" s="13">
         <v>58.7</v>
       </c>
-      <c r="K212" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K212" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" spans="1:11">
       <c r="A213" s="5">
-        <v>44731.316828703704</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B213" s="6">
         <v>7.4</v>
@@ -7470,7 +8033,7 @@
         <v>7.4</v>
       </c>
       <c r="D213" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E213" s="6">
         <v>0.9</v>
@@ -7482,21 +8045,21 @@
         <v>3.3</v>
       </c>
       <c r="H213" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I213" s="6">
         <v>24.2</v>
       </c>
-      <c r="J213" s="14">
+      <c r="J213" s="13">
         <v>59.8</v>
       </c>
-      <c r="K213" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K213" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25" spans="1:11">
       <c r="A214" s="5">
-        <v>44732.31627314815</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B214" s="6">
         <v>7.5</v>
@@ -7522,16 +8085,16 @@
       <c r="I214" s="6">
         <v>25.2</v>
       </c>
-      <c r="J214" s="14">
+      <c r="J214" s="13">
         <v>59.9</v>
       </c>
-      <c r="K214" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K214" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" spans="1:11">
       <c r="A215" s="5">
-        <v>44733.315972222219</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B215" s="6">
         <v>7.3</v>
@@ -7552,21 +8115,21 @@
         <v>3.2</v>
       </c>
       <c r="H215" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I215" s="6">
         <v>24.2</v>
       </c>
-      <c r="J215" s="14">
+      <c r="J215" s="13">
         <v>61.4</v>
       </c>
-      <c r="K215" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K215" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" spans="1:11">
       <c r="A216" s="5">
-        <v>44734.316064814811</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B216" s="6">
         <v>7.5</v>
@@ -7587,21 +8150,21 @@
         <v>3.5</v>
       </c>
       <c r="H216" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I216" s="6">
         <v>25.3</v>
       </c>
-      <c r="J216" s="14">
+      <c r="J216" s="13">
         <v>62.4</v>
       </c>
-      <c r="K216" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" spans="1:11">
       <c r="A217" s="5">
-        <v>44735.316550925927</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B217" s="6">
         <v>7.3</v>
@@ -7627,16 +8190,16 @@
       <c r="I217" s="6">
         <v>24.1</v>
       </c>
-      <c r="J217" s="14">
+      <c r="J217" s="13">
         <v>63.5</v>
       </c>
-      <c r="K217" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" spans="1:11">
       <c r="A218" s="5">
-        <v>44736.317118055558</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B218" s="6">
         <v>7.5</v>
@@ -7657,21 +8220,21 @@
         <v>3.4</v>
       </c>
       <c r="H218" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I218" s="6">
         <v>23</v>
       </c>
-      <c r="J218" s="14">
+      <c r="J218" s="13">
         <v>61.2</v>
       </c>
-      <c r="K218" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K218" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25" spans="1:10">
       <c r="A219" s="5">
-        <v>44737.035416666666</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B219" s="6">
         <v>7.4</v>
@@ -7683,7 +8246,7 @@
         <v>5.3</v>
       </c>
       <c r="E219" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F219" s="6">
         <v>0</v>
@@ -7692,7 +8255,7 @@
         <v>3.5</v>
       </c>
       <c r="H219" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I219" s="6">
         <v>23.2</v>
@@ -7701,9 +8264,9 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" ht="14.25" spans="1:10">
       <c r="A220" s="5">
-        <v>44738.035208333335</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B220" s="6">
         <v>7.4</v>
@@ -7724,7 +8287,7 @@
         <v>3.5</v>
       </c>
       <c r="H220" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I220" s="6">
         <v>22.5</v>
@@ -7733,9 +8296,9 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" ht="14.25" spans="1:10">
       <c r="A221" s="5">
-        <v>44739.035081018519</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B221" s="6">
         <v>7.5</v>
@@ -7765,9 +8328,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" ht="14.25" spans="1:10">
       <c r="A222" s="5">
-        <v>44740.825601851851</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B222" s="6">
         <v>7.6</v>
@@ -7797,9 +8360,9 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" ht="14.25" spans="1:10">
       <c r="A223" s="7">
-        <v>44742.279363425929</v>
+        <v>44742.2793634259</v>
       </c>
       <c r="B223" s="6">
         <v>7.4</v>
@@ -7811,7 +8374,7 @@
         <v>5.3</v>
       </c>
       <c r="E223" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F223" s="6">
         <v>0</v>
@@ -7830,8 +8393,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/故障样本.xlsx
+++ b/故障样本.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyixiang\Desktop\data_enhance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DF5DE-6F3C-4BB6-80FF-05938D0354E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,15 +108,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +130,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -144,151 +146,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,194 +171,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -642,251 +320,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,28 +330,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -936,7 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -949,61 +385,17 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1261,24 +653,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="56.2166666666667" customWidth="1"/>
+    <col min="12" max="12" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,12 +705,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B2" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C2" s="4">
         <v>7.2</v>
@@ -1327,7 +719,7 @@
         <v>6.2</v>
       </c>
       <c r="E2" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1348,9 +740,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B3" s="6">
         <v>8.6</v>
@@ -1383,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -1406,7 +798,7 @@
         <v>3.6</v>
       </c>
       <c r="H4" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I4" s="6">
         <v>26</v>
@@ -1418,9 +810,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B5" s="6">
         <v>8</v>
@@ -1453,12 +845,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B6" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C6" s="6">
         <v>7.3</v>
@@ -1488,15 +880,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B7" s="6">
         <v>7.9</v>
       </c>
       <c r="C7" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D7" s="6">
         <v>5.6</v>
@@ -1511,7 +903,7 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I7" s="6">
         <v>26.3</v>
@@ -1523,9 +915,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B8" s="6">
         <v>7.8</v>
@@ -1543,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H8" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I8" s="6">
         <v>31.7</v>
@@ -1558,9 +950,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B9" s="6">
         <v>7.8</v>
@@ -1593,9 +985,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B10" s="6">
         <v>7.9</v>
@@ -1616,7 +1008,7 @@
         <v>8.9</v>
       </c>
       <c r="H10" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I10" s="6">
         <v>32</v>
@@ -1628,9 +1020,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B11" s="6">
         <v>7.8</v>
@@ -1663,9 +1055,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B12" s="6">
         <v>7.7</v>
@@ -1686,7 +1078,7 @@
         <v>3.3</v>
       </c>
       <c r="H12" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I12" s="6">
         <v>25.1</v>
@@ -1698,9 +1090,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B13" s="6">
         <v>7.7</v>
@@ -1712,7 +1104,7 @@
         <v>5.4</v>
       </c>
       <c r="E13" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1733,9 +1125,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B14" s="6">
         <v>7.6</v>
@@ -1756,7 +1148,7 @@
         <v>3.4</v>
       </c>
       <c r="H14" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I14" s="6">
         <v>25.7</v>
@@ -1768,9 +1160,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B15" s="6">
         <v>7.6</v>
@@ -1803,9 +1195,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B16" s="6">
         <v>7.6</v>
@@ -1838,9 +1230,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B17" s="6">
         <v>7.7</v>
@@ -1873,9 +1265,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:11">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B18" s="6">
         <v>7.6</v>
@@ -1908,9 +1300,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:11">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B19" s="6">
         <v>7.4</v>
@@ -1919,7 +1311,7 @@
         <v>7.4</v>
       </c>
       <c r="D19" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E19" s="6">
         <v>0.9</v>
@@ -1931,7 +1323,7 @@
         <v>3.3</v>
       </c>
       <c r="H19" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I19" s="6">
         <v>24.2</v>
@@ -1943,9 +1335,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:11">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B20" s="6">
         <v>7.5</v>
@@ -1978,9 +1370,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:11">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B21" s="6">
         <v>7.3</v>
@@ -2001,7 +1393,7 @@
         <v>3.2</v>
       </c>
       <c r="H21" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I21" s="6">
         <v>24.2</v>
@@ -2013,9 +1405,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:11">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B22" s="6">
         <v>7.5</v>
@@ -2036,7 +1428,7 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I22" s="6">
         <v>25.3</v>
@@ -2048,9 +1440,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:11">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B23" s="6">
         <v>7.3</v>
@@ -2083,9 +1475,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:11">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B24" s="6">
         <v>7.5</v>
@@ -2106,7 +1498,7 @@
         <v>3.4</v>
       </c>
       <c r="H24" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I24" s="6">
         <v>23</v>
@@ -2118,9 +1510,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B25" s="6">
         <v>7.4</v>
@@ -2132,13 +1524,13 @@
         <v>10.3</v>
       </c>
       <c r="E25" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H25" s="6">
         <v>50.3</v>
@@ -2156,9 +1548,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:11">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B26" s="6">
         <v>7.4</v>
@@ -2179,7 +1571,7 @@
         <v>12.6</v>
       </c>
       <c r="H26" s="6">
-        <v>80.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="I26" s="6">
         <v>85.6</v>
@@ -2191,9 +1583,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:11">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B27" s="6">
         <v>7.5</v>
@@ -2214,7 +1606,7 @@
         <v>17.8</v>
       </c>
       <c r="H27" s="6">
-        <v>153.2</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="I27" s="6">
         <v>169.3</v>
@@ -2226,9 +1618,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B28" s="6">
         <v>7.6</v>
@@ -2261,7 +1653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -2275,13 +1667,13 @@
         <v>102.2</v>
       </c>
       <c r="E29" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H29" s="6">
         <v>190.5</v>
@@ -2296,8 +1688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="14.25"/>
-    <row r="37" ht="14.25" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
@@ -2332,12 +1723,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B38" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C38" s="4">
         <v>7.2</v>
@@ -2346,7 +1737,7 @@
         <v>6.2</v>
       </c>
       <c r="E38" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -2367,9 +1758,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B39" s="6">
         <v>8.6</v>
@@ -2402,7 +1793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -2425,7 +1816,7 @@
         <v>3.6</v>
       </c>
       <c r="H40" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I40" s="6">
         <v>26</v>
@@ -2437,9 +1828,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B41" s="6">
         <v>8</v>
@@ -2472,12 +1863,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B42" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C42" s="6">
         <v>7.3</v>
@@ -2507,15 +1898,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B43" s="6">
         <v>7.9</v>
       </c>
       <c r="C43" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D43" s="6">
         <v>5.6</v>
@@ -2530,7 +1921,7 @@
         <v>3.7</v>
       </c>
       <c r="H43" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I43" s="6">
         <v>26.3</v>
@@ -2542,9 +1933,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B44" s="6">
         <v>7.8</v>
@@ -2562,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H44" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I44" s="6">
         <v>31.7</v>
@@ -2577,9 +1968,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B45" s="6">
         <v>7.8</v>
@@ -2612,9 +2003,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B46" s="6">
         <v>7.9</v>
@@ -2635,7 +2026,7 @@
         <v>8.9</v>
       </c>
       <c r="H46" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I46" s="6">
         <v>32</v>
@@ -2647,9 +2038,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B47" s="6">
         <v>7.8</v>
@@ -2682,9 +2073,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B48" s="6">
         <v>7.7</v>
@@ -2705,7 +2096,7 @@
         <v>3.3</v>
       </c>
       <c r="H48" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I48" s="6">
         <v>25.1</v>
@@ -2717,9 +2108,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:11">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B49" s="6">
         <v>7.7</v>
@@ -2731,7 +2122,7 @@
         <v>5.4</v>
       </c>
       <c r="E49" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -2752,9 +2143,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:11">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B50" s="6">
         <v>7.6</v>
@@ -2775,7 +2166,7 @@
         <v>3.4</v>
       </c>
       <c r="H50" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I50" s="6">
         <v>25.7</v>
@@ -2787,9 +2178,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:11">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B51" s="6">
         <v>7.6</v>
@@ -2822,9 +2213,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:11">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B52" s="6">
         <v>7.6</v>
@@ -2857,9 +2248,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:11">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B53" s="6">
         <v>7.7</v>
@@ -2892,9 +2283,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:11">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B54" s="6">
         <v>7.6</v>
@@ -2927,9 +2318,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:11">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B55" s="6">
         <v>7.4</v>
@@ -2938,7 +2329,7 @@
         <v>7.4</v>
       </c>
       <c r="D55" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E55" s="6">
         <v>0.9</v>
@@ -2950,7 +2341,7 @@
         <v>3.3</v>
       </c>
       <c r="H55" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I55" s="6">
         <v>24.2</v>
@@ -2962,9 +2353,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:11">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B56" s="6">
         <v>7.5</v>
@@ -2997,9 +2388,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:11">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B57" s="6">
         <v>7.3</v>
@@ -3020,7 +2411,7 @@
         <v>3.2</v>
       </c>
       <c r="H57" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I57" s="6">
         <v>24.2</v>
@@ -3032,9 +2423,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:11">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B58" s="6">
         <v>7.5</v>
@@ -3055,7 +2446,7 @@
         <v>3.5</v>
       </c>
       <c r="H58" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I58" s="6">
         <v>25.3</v>
@@ -3067,9 +2458,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:11">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B59" s="6">
         <v>7.3</v>
@@ -3102,9 +2493,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:11">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B60" s="6">
         <v>7.5</v>
@@ -3125,7 +2516,7 @@
         <v>3.4</v>
       </c>
       <c r="H60" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I60" s="6">
         <v>23</v>
@@ -3137,9 +2528,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B61" s="6">
         <v>12.5</v>
@@ -3151,7 +2542,7 @@
         <v>5.3</v>
       </c>
       <c r="E61" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -3160,7 +2551,7 @@
         <v>3.5</v>
       </c>
       <c r="H61" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I61" s="6">
         <v>29.3</v>
@@ -3175,9 +2566,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:11">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B62" s="6">
         <v>31.5</v>
@@ -3198,7 +2589,7 @@
         <v>3.5</v>
       </c>
       <c r="H62" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I62" s="6">
         <v>50.3</v>
@@ -3210,9 +2601,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:11">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B63" s="6">
         <v>82.1</v>
@@ -3245,9 +2636,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:11">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B64" s="6">
         <v>98.6</v>
@@ -3271,7 +2662,7 @@
         <v>9.9</v>
       </c>
       <c r="I64" s="6">
-        <v>129.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="J64" s="15">
         <v>60.2</v>
@@ -3280,7 +2671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -3294,7 +2685,7 @@
         <v>5.3</v>
       </c>
       <c r="E65" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
@@ -3315,8 +2706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" ht="14.25"/>
-    <row r="70" ht="14.25" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>0</v>
       </c>
@@ -3351,12 +2741,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B71" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C71" s="4">
         <v>7.2</v>
@@ -3365,7 +2755,7 @@
         <v>6.2</v>
       </c>
       <c r="E71" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -3386,9 +2776,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B72" s="6">
         <v>8.6</v>
@@ -3421,7 +2811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -3444,7 +2834,7 @@
         <v>3.6</v>
       </c>
       <c r="H73" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I73" s="6">
         <v>26</v>
@@ -3456,9 +2846,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B74" s="6">
         <v>8</v>
@@ -3491,12 +2881,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B75" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C75" s="6">
         <v>7.3</v>
@@ -3526,15 +2916,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B76" s="6">
         <v>7.9</v>
       </c>
       <c r="C76" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D76" s="6">
         <v>5.6</v>
@@ -3549,7 +2939,7 @@
         <v>3.7</v>
       </c>
       <c r="H76" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I76" s="6">
         <v>26.3</v>
@@ -3561,9 +2951,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B77" s="6">
         <v>7.8</v>
@@ -3581,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H77" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I77" s="6">
         <v>31.7</v>
@@ -3596,9 +2986,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B78" s="6">
         <v>7.8</v>
@@ -3631,9 +3021,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B79" s="6">
         <v>7.9</v>
@@ -3654,7 +3044,7 @@
         <v>8.9</v>
       </c>
       <c r="H79" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I79" s="6">
         <v>32</v>
@@ -3666,9 +3056,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B80" s="6">
         <v>7.8</v>
@@ -3701,9 +3091,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:11">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B81" s="6">
         <v>7.7</v>
@@ -3724,7 +3114,7 @@
         <v>3.3</v>
       </c>
       <c r="H81" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I81" s="6">
         <v>25.1</v>
@@ -3736,9 +3126,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:11">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B82" s="6">
         <v>7.7</v>
@@ -3750,7 +3140,7 @@
         <v>5.4</v>
       </c>
       <c r="E82" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F82" s="6">
         <v>0</v>
@@ -3771,9 +3161,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:11">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B83" s="6">
         <v>7.6</v>
@@ -3794,7 +3184,7 @@
         <v>3.4</v>
       </c>
       <c r="H83" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I83" s="6">
         <v>25.7</v>
@@ -3806,9 +3196,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:11">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B84" s="6">
         <v>7.6</v>
@@ -3841,9 +3231,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:11">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B85" s="6">
         <v>7.6</v>
@@ -3876,9 +3266,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:11">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B86" s="6">
         <v>7.7</v>
@@ -3911,9 +3301,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:11">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B87" s="6">
         <v>7.6</v>
@@ -3946,9 +3336,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:11">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B88" s="6">
         <v>7.4</v>
@@ -3957,7 +3347,7 @@
         <v>7.4</v>
       </c>
       <c r="D88" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E88" s="6">
         <v>0.9</v>
@@ -3969,7 +3359,7 @@
         <v>3.3</v>
       </c>
       <c r="H88" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I88" s="6">
         <v>24.2</v>
@@ -3981,9 +3371,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:11">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B89" s="6">
         <v>7.5</v>
@@ -4016,9 +3406,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:11">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B90" s="6">
         <v>7.3</v>
@@ -4039,7 +3429,7 @@
         <v>3.2</v>
       </c>
       <c r="H90" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I90" s="6">
         <v>24.2</v>
@@ -4051,9 +3441,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:11">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B91" s="6">
         <v>7.5</v>
@@ -4074,7 +3464,7 @@
         <v>3.5</v>
       </c>
       <c r="H91" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I91" s="6">
         <v>25.3</v>
@@ -4086,9 +3476,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:11">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B92" s="6">
         <v>7.3</v>
@@ -4121,9 +3511,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:11">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B93" s="6">
         <v>7.5</v>
@@ -4144,7 +3534,7 @@
         <v>3.4</v>
       </c>
       <c r="H93" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I93" s="6">
         <v>23</v>
@@ -4156,9 +3546,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B94" s="6">
         <v>12.5</v>
@@ -4170,10 +3560,10 @@
         <v>5.3</v>
       </c>
       <c r="E94" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F94" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G94" s="6">
         <v>3.5</v>
@@ -4194,9 +3584,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:11">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B95" s="6">
         <v>31.5</v>
@@ -4229,9 +3619,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:11">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B96" s="6">
         <v>82.1</v>
@@ -4255,7 +3645,7 @@
         <v>39.6</v>
       </c>
       <c r="I96" s="6">
-        <v>129.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="J96" s="15">
         <v>63.4</v>
@@ -4264,9 +3654,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B97" s="6">
         <v>98.6</v>
@@ -4290,7 +3680,7 @@
         <v>53.4</v>
       </c>
       <c r="I97" s="6">
-        <v>149.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="J97" s="15">
         <v>60.2</v>
@@ -4299,7 +3689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -4313,7 +3703,7 @@
         <v>5.3</v>
       </c>
       <c r="E98" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F98" s="6">
         <v>45.2</v>
@@ -4334,8 +3724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" ht="14.25"/>
-    <row r="102" ht="14.25" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>0</v>
       </c>
@@ -4370,12 +3759,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B103" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C103" s="4">
         <v>7.2</v>
@@ -4384,7 +3773,7 @@
         <v>6.2</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -4405,9 +3794,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B104" s="6">
         <v>8.6</v>
@@ -4440,7 +3829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -4463,7 +3852,7 @@
         <v>3.6</v>
       </c>
       <c r="H105" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I105" s="6">
         <v>26</v>
@@ -4475,9 +3864,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B106" s="6">
         <v>8</v>
@@ -4510,12 +3899,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B107" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C107" s="6">
         <v>7.3</v>
@@ -4545,15 +3934,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B108" s="6">
         <v>7.9</v>
       </c>
       <c r="C108" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D108" s="6">
         <v>5.6</v>
@@ -4568,7 +3957,7 @@
         <v>3.7</v>
       </c>
       <c r="H108" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I108" s="6">
         <v>26.3</v>
@@ -4580,9 +3969,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B109" s="6">
         <v>7.8</v>
@@ -4600,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H109" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I109" s="6">
         <v>31.7</v>
@@ -4615,9 +4004,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B110" s="6">
         <v>7.8</v>
@@ -4650,9 +4039,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B111" s="6">
         <v>7.9</v>
@@ -4673,7 +4062,7 @@
         <v>8.9</v>
       </c>
       <c r="H111" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I111" s="6">
         <v>32</v>
@@ -4685,9 +4074,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B112" s="6">
         <v>7.8</v>
@@ -4720,9 +4109,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:11">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B113" s="6">
         <v>7.7</v>
@@ -4743,7 +4132,7 @@
         <v>3.3</v>
       </c>
       <c r="H113" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I113" s="6">
         <v>25.1</v>
@@ -4755,9 +4144,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:11">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B114" s="6">
         <v>7.7</v>
@@ -4769,7 +4158,7 @@
         <v>5.4</v>
       </c>
       <c r="E114" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -4790,9 +4179,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:11">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B115" s="6">
         <v>7.6</v>
@@ -4813,7 +4202,7 @@
         <v>3.4</v>
       </c>
       <c r="H115" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I115" s="6">
         <v>25.7</v>
@@ -4825,9 +4214,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:11">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B116" s="6">
         <v>7.6</v>
@@ -4860,9 +4249,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:11">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B117" s="6">
         <v>7.6</v>
@@ -4895,9 +4284,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:11">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B118" s="6">
         <v>7.7</v>
@@ -4930,9 +4319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:11">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B119" s="6">
         <v>7.6</v>
@@ -4965,9 +4354,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:11">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B120" s="6">
         <v>7.4</v>
@@ -4976,7 +4365,7 @@
         <v>7.4</v>
       </c>
       <c r="D120" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E120" s="6">
         <v>0.9</v>
@@ -4988,7 +4377,7 @@
         <v>3.3</v>
       </c>
       <c r="H120" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I120" s="6">
         <v>24.2</v>
@@ -5000,9 +4389,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:11">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B121" s="6">
         <v>7.5</v>
@@ -5035,9 +4424,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:11">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B122" s="6">
         <v>7.3</v>
@@ -5058,7 +4447,7 @@
         <v>3.2</v>
       </c>
       <c r="H122" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I122" s="6">
         <v>24.2</v>
@@ -5070,9 +4459,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:11">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B123" s="6">
         <v>7.5</v>
@@ -5093,7 +4482,7 @@
         <v>3.5</v>
       </c>
       <c r="H123" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I123" s="6">
         <v>25.3</v>
@@ -5105,9 +4494,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:11">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B124" s="6">
         <v>7.3</v>
@@ -5140,9 +4529,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:11">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B125" s="6">
         <v>7.5</v>
@@ -5163,7 +4552,7 @@
         <v>3.4</v>
       </c>
       <c r="H125" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I125" s="6">
         <v>23</v>
@@ -5175,9 +4564,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B126" s="6">
         <v>12.5</v>
@@ -5189,13 +4578,13 @@
         <v>10.3</v>
       </c>
       <c r="E126" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F126" s="6">
         <v>0.6</v>
       </c>
       <c r="G126" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H126" s="6">
         <v>62.9</v>
@@ -5213,9 +4602,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:11">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B127" s="6">
         <v>31.5</v>
@@ -5230,7 +4619,7 @@
         <v>16.2</v>
       </c>
       <c r="F127" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G127" s="6">
         <v>12.6</v>
@@ -5239,7 +4628,7 @@
         <v>106.3</v>
       </c>
       <c r="I127" s="6">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="J127" s="15">
         <v>86.7</v>
@@ -5248,9 +4637,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:11">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B128" s="6">
         <v>82.1</v>
@@ -5283,9 +4672,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B129" s="6">
         <v>98.6</v>
@@ -5318,7 +4707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -5326,7 +4715,7 @@
         <v>105.3</v>
       </c>
       <c r="C130" s="6">
-        <v>98.3</v>
+        <v>110.3</v>
       </c>
       <c r="D130" s="6">
         <v>69.2</v>
@@ -5338,7 +4727,7 @@
         <v>13.2</v>
       </c>
       <c r="G130" s="6">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H130" s="6">
         <v>496.3</v>
@@ -5353,8 +4742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" ht="14.25"/>
-    <row r="133" ht="14.25" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>0</v>
       </c>
@@ -5389,12 +4777,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B134" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C134" s="4">
         <v>7.2</v>
@@ -5403,7 +4791,7 @@
         <v>6.2</v>
       </c>
       <c r="E134" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F134" s="4">
         <v>0</v>
@@ -5424,9 +4812,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B135" s="6">
         <v>8.6</v>
@@ -5459,7 +4847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -5482,7 +4870,7 @@
         <v>3.6</v>
       </c>
       <c r="H136" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I136" s="6">
         <v>26</v>
@@ -5494,9 +4882,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B137" s="6">
         <v>8</v>
@@ -5529,12 +4917,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B138" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C138" s="6">
         <v>7.3</v>
@@ -5564,15 +4952,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B139" s="6">
         <v>7.9</v>
       </c>
       <c r="C139" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D139" s="6">
         <v>5.6</v>
@@ -5587,7 +4975,7 @@
         <v>3.7</v>
       </c>
       <c r="H139" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I139" s="6">
         <v>26.3</v>
@@ -5599,9 +4987,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B140" s="6">
         <v>7.8</v>
@@ -5619,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="G140" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H140" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I140" s="6">
         <v>31.7</v>
@@ -5634,9 +5022,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B141" s="6">
         <v>7.8</v>
@@ -5669,9 +5057,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B142" s="6">
         <v>7.9</v>
@@ -5692,7 +5080,7 @@
         <v>8.9</v>
       </c>
       <c r="H142" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I142" s="6">
         <v>32</v>
@@ -5704,9 +5092,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B143" s="6">
         <v>7.8</v>
@@ -5739,9 +5127,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B144" s="6">
         <v>7.7</v>
@@ -5762,7 +5150,7 @@
         <v>3.3</v>
       </c>
       <c r="H144" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I144" s="6">
         <v>25.1</v>
@@ -5774,9 +5162,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:11">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B145" s="6">
         <v>7.7</v>
@@ -5788,7 +5176,7 @@
         <v>5.4</v>
       </c>
       <c r="E145" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F145" s="6">
         <v>0</v>
@@ -5809,9 +5197,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:11">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B146" s="6">
         <v>7.6</v>
@@ -5832,7 +5220,7 @@
         <v>3.4</v>
       </c>
       <c r="H146" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I146" s="6">
         <v>25.7</v>
@@ -5844,9 +5232,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:11">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B147" s="6">
         <v>7.6</v>
@@ -5879,9 +5267,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:11">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B148" s="6">
         <v>7.6</v>
@@ -5914,9 +5302,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:11">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B149" s="6">
         <v>7.7</v>
@@ -5949,9 +5337,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:11">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B150" s="6">
         <v>7.6</v>
@@ -5984,9 +5372,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:11">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B151" s="6">
         <v>7.4</v>
@@ -5995,7 +5383,7 @@
         <v>7.4</v>
       </c>
       <c r="D151" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E151" s="6">
         <v>0.9</v>
@@ -6007,7 +5395,7 @@
         <v>3.3</v>
       </c>
       <c r="H151" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I151" s="6">
         <v>24.2</v>
@@ -6019,9 +5407,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:11">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B152" s="6">
         <v>7.5</v>
@@ -6054,9 +5442,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:11">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B153" s="6">
         <v>7.3</v>
@@ -6077,7 +5465,7 @@
         <v>3.2</v>
       </c>
       <c r="H153" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I153" s="6">
         <v>24.2</v>
@@ -6089,9 +5477,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:11">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B154" s="6">
         <v>7.5</v>
@@ -6112,7 +5500,7 @@
         <v>3.5</v>
       </c>
       <c r="H154" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I154" s="6">
         <v>25.3</v>
@@ -6124,9 +5512,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:11">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B155" s="6">
         <v>7.3</v>
@@ -6159,9 +5547,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:11">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B156" s="6">
         <v>7.5</v>
@@ -6182,7 +5570,7 @@
         <v>3.4</v>
       </c>
       <c r="H156" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I156" s="6">
         <v>23</v>
@@ -6194,9 +5582,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B157" s="6">
         <v>25.3</v>
@@ -6232,12 +5620,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:11">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B158" s="6">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C158" s="6">
         <v>79.3</v>
@@ -6255,10 +5643,10 @@
         <v>40.5</v>
       </c>
       <c r="H158" s="6">
-        <v>135.2</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="I158" s="6">
-        <v>566.3</v>
+        <v>566.29999999999995</v>
       </c>
       <c r="J158" s="15">
         <v>86.7</v>
@@ -6267,9 +5655,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:11">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B159" s="6">
         <v>195.3</v>
@@ -6290,7 +5678,7 @@
         <v>113.6</v>
       </c>
       <c r="H159" s="6">
-        <v>512.3</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="I159" s="6">
         <v>842.3</v>
@@ -6302,9 +5690,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:11">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B160" s="6">
         <v>256.3</v>
@@ -6337,7 +5725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -6348,16 +5736,16 @@
         <v>482.3</v>
       </c>
       <c r="D161" s="6">
-        <v>542.3</v>
+        <v>542.29999999999995</v>
       </c>
       <c r="E161" s="6">
         <v>284.3</v>
       </c>
       <c r="F161" s="6">
-        <v>155.7</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="G161" s="6">
-        <v>315.6</v>
+        <v>315.60000000000002</v>
       </c>
       <c r="H161" s="6">
         <v>1243.2</v>
@@ -6372,8 +5760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" ht="14.25"/>
-    <row r="164" ht="14.25" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>0</v>
       </c>
@@ -6408,12 +5795,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B165" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C165" s="4">
         <v>7.2</v>
@@ -6422,7 +5809,7 @@
         <v>6.2</v>
       </c>
       <c r="E165" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F165" s="4">
         <v>0</v>
@@ -6443,9 +5830,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B166" s="6">
         <v>8.6</v>
@@ -6478,7 +5865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -6501,7 +5888,7 @@
         <v>3.6</v>
       </c>
       <c r="H167" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I167" s="6">
         <v>26</v>
@@ -6513,9 +5900,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B168" s="6">
         <v>8</v>
@@ -6548,12 +5935,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B169" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C169" s="6">
         <v>7.3</v>
@@ -6583,15 +5970,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B170" s="6">
         <v>7.9</v>
       </c>
       <c r="C170" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D170" s="6">
         <v>5.6</v>
@@ -6606,7 +5993,7 @@
         <v>3.7</v>
       </c>
       <c r="H170" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I170" s="6">
         <v>26.3</v>
@@ -6618,9 +6005,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B171" s="6">
         <v>7.8</v>
@@ -6638,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H171" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I171" s="6">
         <v>31.7</v>
@@ -6653,9 +6040,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B172" s="6">
         <v>7.8</v>
@@ -6688,9 +6075,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B173" s="6">
         <v>7.9</v>
@@ -6711,7 +6098,7 @@
         <v>8.9</v>
       </c>
       <c r="H173" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I173" s="6">
         <v>32</v>
@@ -6723,9 +6110,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B174" s="6">
         <v>7.8</v>
@@ -6758,9 +6145,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B175" s="6">
         <v>7.7</v>
@@ -6781,7 +6168,7 @@
         <v>3.3</v>
       </c>
       <c r="H175" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I175" s="6">
         <v>25.1</v>
@@ -6793,9 +6180,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B176" s="6">
         <v>7.7</v>
@@ -6807,7 +6194,7 @@
         <v>5.4</v>
       </c>
       <c r="E176" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F176" s="6">
         <v>0</v>
@@ -6828,9 +6215,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:11">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B177" s="6">
         <v>7.6</v>
@@ -6851,7 +6238,7 @@
         <v>3.4</v>
       </c>
       <c r="H177" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I177" s="6">
         <v>25.7</v>
@@ -6863,9 +6250,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:11">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B178" s="6">
         <v>7.6</v>
@@ -6898,9 +6285,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:11">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B179" s="6">
         <v>7.6</v>
@@ -6933,9 +6320,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:11">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B180" s="6">
         <v>7.7</v>
@@ -6968,9 +6355,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:11">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B181" s="6">
         <v>7.6</v>
@@ -7003,9 +6390,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:11">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B182" s="6">
         <v>7.4</v>
@@ -7014,7 +6401,7 @@
         <v>7.4</v>
       </c>
       <c r="D182" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E182" s="6">
         <v>0.9</v>
@@ -7026,7 +6413,7 @@
         <v>3.3</v>
       </c>
       <c r="H182" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I182" s="6">
         <v>24.2</v>
@@ -7038,9 +6425,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:11">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B183" s="6">
         <v>7.5</v>
@@ -7073,9 +6460,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:11">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B184" s="6">
         <v>7.3</v>
@@ -7096,7 +6483,7 @@
         <v>3.2</v>
       </c>
       <c r="H184" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I184" s="6">
         <v>24.2</v>
@@ -7108,9 +6495,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:11">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B185" s="6">
         <v>7.5</v>
@@ -7131,7 +6518,7 @@
         <v>3.5</v>
       </c>
       <c r="H185" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I185" s="6">
         <v>25.3</v>
@@ -7143,9 +6530,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:11">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B186" s="6">
         <v>7.3</v>
@@ -7178,9 +6565,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:11">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B187" s="6">
         <v>7.5</v>
@@ -7201,7 +6588,7 @@
         <v>3.4</v>
       </c>
       <c r="H187" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I187" s="6">
         <v>23</v>
@@ -7213,9 +6600,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B188" s="6">
         <v>8.4</v>
@@ -7227,7 +6614,7 @@
         <v>5.3</v>
       </c>
       <c r="E188" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F188" s="6">
         <v>0</v>
@@ -7236,7 +6623,7 @@
         <v>3.5</v>
       </c>
       <c r="H188" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I188" s="6">
         <v>31.5</v>
@@ -7251,9 +6638,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:11">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B189" s="6">
         <v>12.4</v>
@@ -7274,7 +6661,7 @@
         <v>3.5</v>
       </c>
       <c r="H189" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I189" s="6">
         <v>49.5</v>
@@ -7286,9 +6673,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:11">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B190" s="6">
         <v>21.5</v>
@@ -7312,7 +6699,7 @@
         <v>9.6</v>
       </c>
       <c r="I190" s="6">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="J190" s="15">
         <v>89.4</v>
@@ -7321,9 +6708,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:11">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B191" s="6">
         <v>38.6</v>
@@ -7356,7 +6743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" ht="14.25" spans="1:11">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -7364,13 +6751,13 @@
         <v>68.2</v>
       </c>
       <c r="C192" s="6">
-        <v>98.3</v>
+        <v>110.3</v>
       </c>
       <c r="D192" s="6">
         <v>5.3</v>
       </c>
       <c r="E192" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
@@ -7391,8 +6778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" ht="14.25"/>
-    <row r="195" ht="14.25" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>0</v>
       </c>
@@ -7427,12 +6813,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>44714.7349537037</v>
+        <v>44714.734953703701</v>
       </c>
       <c r="B196" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C196" s="4">
         <v>7.2</v>
@@ -7441,7 +6827,7 @@
         <v>6.2</v>
       </c>
       <c r="E196" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F196" s="4">
         <v>0</v>
@@ -7462,9 +6848,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" ht="14.25" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>44715.3563541667</v>
+        <v>44715.356354166703</v>
       </c>
       <c r="B197" s="6">
         <v>8.6</v>
@@ -7497,7 +6883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" ht="14.25" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -7520,7 +6906,7 @@
         <v>3.6</v>
       </c>
       <c r="H198" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I198" s="6">
         <v>26</v>
@@ -7532,9 +6918,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" ht="14.25" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>44717.3584143519</v>
+        <v>44717.358414351896</v>
       </c>
       <c r="B199" s="6">
         <v>8</v>
@@ -7567,12 +6953,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" ht="14.25" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>44718.3585069444</v>
+        <v>44718.358506944402</v>
       </c>
       <c r="B200" s="6">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C200" s="6">
         <v>7.3</v>
@@ -7602,15 +6988,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>44719.3586689815</v>
+        <v>44719.358668981498</v>
       </c>
       <c r="B201" s="6">
         <v>7.9</v>
       </c>
       <c r="C201" s="6">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D201" s="6">
         <v>5.6</v>
@@ -7625,7 +7011,7 @@
         <v>3.7</v>
       </c>
       <c r="H201" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I201" s="6">
         <v>26.3</v>
@@ -7637,9 +7023,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>44720.357962963</v>
+        <v>44720.357962962997</v>
       </c>
       <c r="B202" s="6">
         <v>7.8</v>
@@ -7657,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="G202" s="6">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H202" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I202" s="6">
         <v>31.7</v>
@@ -7672,9 +7058,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" ht="14.25" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>44721.3574537037</v>
+        <v>44721.357453703698</v>
       </c>
       <c r="B203" s="6">
         <v>7.8</v>
@@ -7707,9 +7093,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" ht="14.25" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>44722.3578819444</v>
+        <v>44722.357881944401</v>
       </c>
       <c r="B204" s="6">
         <v>7.9</v>
@@ -7730,7 +7116,7 @@
         <v>8.9</v>
       </c>
       <c r="H204" s="6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I204" s="6">
         <v>32</v>
@@ -7742,9 +7128,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" ht="14.25" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>44723.3162731481</v>
+        <v>44723.316273148099</v>
       </c>
       <c r="B205" s="6">
         <v>7.8</v>
@@ -7777,9 +7163,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" ht="14.25" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>44724.3164814815</v>
+        <v>44724.316481481503</v>
       </c>
       <c r="B206" s="6">
         <v>7.7</v>
@@ -7800,7 +7186,7 @@
         <v>3.3</v>
       </c>
       <c r="H206" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I206" s="6">
         <v>25.1</v>
@@ -7812,9 +7198,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" ht="14.25" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>44725.3162384259</v>
+        <v>44725.316238425898</v>
       </c>
       <c r="B207" s="6">
         <v>7.7</v>
@@ -7826,7 +7212,7 @@
         <v>5.4</v>
       </c>
       <c r="E207" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F207" s="6">
         <v>0</v>
@@ -7847,9 +7233,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" ht="14.25" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>44726.3175231482</v>
+        <v>44726.317523148202</v>
       </c>
       <c r="B208" s="6">
         <v>7.6</v>
@@ -7870,7 +7256,7 @@
         <v>3.4</v>
       </c>
       <c r="H208" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I208" s="6">
         <v>25.7</v>
@@ -7882,9 +7268,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" ht="14.25" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>44727.3142824074</v>
+        <v>44727.314282407402</v>
       </c>
       <c r="B209" s="6">
         <v>7.6</v>
@@ -7917,9 +7303,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" ht="14.25" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>44728.3165277778</v>
+        <v>44728.316527777803</v>
       </c>
       <c r="B210" s="6">
         <v>7.6</v>
@@ -7952,9 +7338,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>44729.3155208333</v>
+        <v>44729.315520833297</v>
       </c>
       <c r="B211" s="6">
         <v>7.7</v>
@@ -7987,9 +7373,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" ht="14.25" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>44730.3171643519</v>
+        <v>44730.317164351902</v>
       </c>
       <c r="B212" s="6">
         <v>7.6</v>
@@ -8022,9 +7408,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" ht="14.25" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>44731.3168287037</v>
+        <v>44731.316828703697</v>
       </c>
       <c r="B213" s="6">
         <v>7.4</v>
@@ -8033,7 +7419,7 @@
         <v>7.4</v>
       </c>
       <c r="D213" s="6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E213" s="6">
         <v>0.9</v>
@@ -8045,7 +7431,7 @@
         <v>3.3</v>
       </c>
       <c r="H213" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I213" s="6">
         <v>24.2</v>
@@ -8057,9 +7443,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" ht="14.25" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>44732.3162731481</v>
+        <v>44732.316273148099</v>
       </c>
       <c r="B214" s="6">
         <v>7.5</v>
@@ -8092,9 +7478,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" ht="14.25" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>44733.3159722222</v>
+        <v>44733.315972222197</v>
       </c>
       <c r="B215" s="6">
         <v>7.3</v>
@@ -8115,7 +7501,7 @@
         <v>3.2</v>
       </c>
       <c r="H215" s="6">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I215" s="6">
         <v>24.2</v>
@@ -8127,9 +7513,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" ht="14.25" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>44734.3160648148</v>
+        <v>44734.316064814797</v>
       </c>
       <c r="B216" s="6">
         <v>7.5</v>
@@ -8150,7 +7536,7 @@
         <v>3.5</v>
       </c>
       <c r="H216" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I216" s="6">
         <v>25.3</v>
@@ -8162,9 +7548,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" ht="14.25" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>44735.3165509259</v>
+        <v>44735.316550925898</v>
       </c>
       <c r="B217" s="6">
         <v>7.3</v>
@@ -8197,9 +7583,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" ht="14.25" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>44736.3171180556</v>
+        <v>44736.317118055602</v>
       </c>
       <c r="B218" s="6">
         <v>7.5</v>
@@ -8220,7 +7606,7 @@
         <v>3.4</v>
       </c>
       <c r="H218" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I218" s="6">
         <v>23</v>
@@ -8232,9 +7618,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" ht="14.25" spans="1:10">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>44737.0354166667</v>
+        <v>44737.035416666702</v>
       </c>
       <c r="B219" s="6">
         <v>7.4</v>
@@ -8246,7 +7632,7 @@
         <v>5.3</v>
       </c>
       <c r="E219" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F219" s="6">
         <v>0</v>
@@ -8255,7 +7641,7 @@
         <v>3.5</v>
       </c>
       <c r="H219" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I219" s="6">
         <v>23.2</v>
@@ -8264,9 +7650,9 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="220" ht="14.25" spans="1:10">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>44738.0352083333</v>
+        <v>44738.035208333298</v>
       </c>
       <c r="B220" s="6">
         <v>7.4</v>
@@ -8287,7 +7673,7 @@
         <v>3.5</v>
       </c>
       <c r="H220" s="6">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I220" s="6">
         <v>22.5</v>
@@ -8296,9 +7682,9 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="221" ht="14.25" spans="1:10">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>44739.0350810185</v>
+        <v>44739.035081018497</v>
       </c>
       <c r="B221" s="6">
         <v>7.5</v>
@@ -8328,9 +7714,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="222" ht="14.25" spans="1:10">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>44740.8256018519</v>
+        <v>44740.825601851902</v>
       </c>
       <c r="B222" s="6">
         <v>7.6</v>
@@ -8360,7 +7746,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="223" ht="14.25" spans="1:10">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -8374,7 +7760,7 @@
         <v>5.3</v>
       </c>
       <c r="E223" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F223" s="6">
         <v>0</v>
@@ -8393,8 +7779,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/故障样本.xlsx
+++ b/故障样本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyixiang\Desktop\data_enhance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DF5DE-6F3C-4BB6-80FF-05938D0354E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B684955-AF26-4724-A8EE-2B801B8320EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -330,28 +330,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>40.200000000000003</v>
+        <v>48.2</v>
       </c>
       <c r="H29" s="6">
-        <v>190.5</v>
+        <v>201.4</v>
       </c>
       <c r="I29" s="6">
         <v>236.2</v>
@@ -3712,10 +3712,10 @@
         <v>3.7</v>
       </c>
       <c r="H98" s="6">
-        <v>60.5</v>
+        <v>91.2</v>
       </c>
       <c r="I98" s="6">
-        <v>158.6</v>
+        <v>201.3</v>
       </c>
       <c r="J98" s="15">
         <v>63.7</v>
@@ -4712,28 +4712,28 @@
         <v>44742.2793634259</v>
       </c>
       <c r="B130" s="6">
-        <v>105.3</v>
+        <v>120.3</v>
       </c>
       <c r="C130" s="6">
-        <v>110.3</v>
+        <v>123.3</v>
       </c>
       <c r="D130" s="6">
-        <v>69.2</v>
+        <v>82.3</v>
       </c>
       <c r="E130" s="6">
+        <v>59.2</v>
+      </c>
+      <c r="F130" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="G130" s="6">
         <v>48.2</v>
       </c>
-      <c r="F130" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="G130" s="6">
-        <v>40.200000000000003</v>
-      </c>
       <c r="H130" s="6">
-        <v>496.3</v>
+        <v>631.20000000000005</v>
       </c>
       <c r="I130" s="6">
-        <v>723.1</v>
+        <v>921.3</v>
       </c>
       <c r="J130" s="15">
         <v>96.7</v>
@@ -6751,7 +6751,7 @@
         <v>68.2</v>
       </c>
       <c r="C192" s="6">
-        <v>110.3</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="D192" s="6">
         <v>5.3</v>

--- a/故障样本.xlsx
+++ b/故障样本.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyixiang\Desktop\data_enhance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B684955-AF26-4724-A8EE-2B801B8320EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="25">
   <si>
     <t>采集日期</t>
   </si>
@@ -93,10 +87,10 @@
     <t>氢气和一氧化碳增加，烃类增加，可燃气体增加，油温升高</t>
   </si>
   <si>
-    <t>短路故障</t>
+    <t>气体泄漏</t>
   </si>
   <si>
-    <t>氢气，一氧化碳和烃类骤增，油温升高</t>
+    <t>各种气体减少</t>
   </si>
   <si>
     <t>冷却故障</t>
@@ -108,11 +102,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +129,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -146,13 +138,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +301,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -320,38 +636,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -375,27 +933,80 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,24 +1264,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L223"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="12" max="12" width="56.21875" customWidth="1"/>
+    <col min="12" max="12" width="56.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,12 +1316,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B2" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C2" s="4">
         <v>7.2</v>
@@ -719,7 +1330,7 @@
         <v>6.2</v>
       </c>
       <c r="E2" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -740,9 +1351,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="5">
-        <v>44715.356354166703</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B3" s="6">
         <v>8.6</v>
@@ -775,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -798,7 +1409,7 @@
         <v>3.6</v>
       </c>
       <c r="H4" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I4" s="6">
         <v>26</v>
@@ -810,9 +1421,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="5">
-        <v>44717.358414351896</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B5" s="6">
         <v>8</v>
@@ -845,12 +1456,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="5">
-        <v>44718.358506944402</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B6" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C6" s="6">
         <v>7.3</v>
@@ -880,15 +1491,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="5">
-        <v>44719.358668981498</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B7" s="6">
         <v>7.9</v>
       </c>
       <c r="C7" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D7" s="6">
         <v>5.6</v>
@@ -903,7 +1514,7 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I7" s="6">
         <v>26.3</v>
@@ -915,9 +1526,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" ht="14.25" spans="1:11">
       <c r="A8" s="5">
-        <v>44720.357962962997</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B8" s="6">
         <v>7.8</v>
@@ -935,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H8" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I8" s="6">
         <v>31.7</v>
@@ -950,9 +1561,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="5">
-        <v>44721.357453703698</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B9" s="6">
         <v>7.8</v>
@@ -985,9 +1596,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="1:11">
       <c r="A10" s="5">
-        <v>44722.357881944401</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B10" s="6">
         <v>7.9</v>
@@ -1008,7 +1619,7 @@
         <v>8.9</v>
       </c>
       <c r="H10" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I10" s="6">
         <v>32</v>
@@ -1020,9 +1631,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="1:11">
       <c r="A11" s="5">
-        <v>44723.316273148099</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B11" s="6">
         <v>7.8</v>
@@ -1055,9 +1666,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="1:11">
       <c r="A12" s="5">
-        <v>44724.316481481503</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B12" s="6">
         <v>7.7</v>
@@ -1078,7 +1689,7 @@
         <v>3.3</v>
       </c>
       <c r="H12" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I12" s="6">
         <v>25.1</v>
@@ -1090,9 +1701,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" ht="14.25" spans="1:11">
       <c r="A13" s="5">
-        <v>44725.316238425898</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B13" s="6">
         <v>7.7</v>
@@ -1104,7 +1715,7 @@
         <v>5.4</v>
       </c>
       <c r="E13" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1125,9 +1736,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" ht="14.25" spans="1:11">
       <c r="A14" s="5">
-        <v>44726.317523148202</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B14" s="6">
         <v>7.6</v>
@@ -1148,7 +1759,7 @@
         <v>3.4</v>
       </c>
       <c r="H14" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I14" s="6">
         <v>25.7</v>
@@ -1160,9 +1771,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" ht="14.25" spans="1:11">
       <c r="A15" s="5">
-        <v>44727.314282407402</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B15" s="6">
         <v>7.6</v>
@@ -1195,9 +1806,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" ht="14.25" spans="1:11">
       <c r="A16" s="5">
-        <v>44728.316527777803</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B16" s="6">
         <v>7.6</v>
@@ -1230,9 +1841,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" ht="14.25" spans="1:11">
       <c r="A17" s="5">
-        <v>44729.315520833297</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B17" s="6">
         <v>7.7</v>
@@ -1265,9 +1876,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" ht="14.25" spans="1:11">
       <c r="A18" s="5">
-        <v>44730.317164351902</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B18" s="6">
         <v>7.6</v>
@@ -1300,9 +1911,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" ht="14.25" spans="1:11">
       <c r="A19" s="5">
-        <v>44731.316828703697</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B19" s="6">
         <v>7.4</v>
@@ -1311,7 +1922,7 @@
         <v>7.4</v>
       </c>
       <c r="D19" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E19" s="6">
         <v>0.9</v>
@@ -1323,7 +1934,7 @@
         <v>3.3</v>
       </c>
       <c r="H19" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I19" s="6">
         <v>24.2</v>
@@ -1335,9 +1946,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" ht="14.25" spans="1:11">
       <c r="A20" s="5">
-        <v>44732.316273148099</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B20" s="6">
         <v>7.5</v>
@@ -1370,9 +1981,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" ht="14.25" spans="1:11">
       <c r="A21" s="5">
-        <v>44733.315972222197</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B21" s="6">
         <v>7.3</v>
@@ -1393,7 +2004,7 @@
         <v>3.2</v>
       </c>
       <c r="H21" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I21" s="6">
         <v>24.2</v>
@@ -1405,9 +2016,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" ht="14.25" spans="1:11">
       <c r="A22" s="5">
-        <v>44734.316064814797</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B22" s="6">
         <v>7.5</v>
@@ -1428,7 +2039,7 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I22" s="6">
         <v>25.3</v>
@@ -1440,9 +2051,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" ht="14.25" spans="1:11">
       <c r="A23" s="5">
-        <v>44735.316550925898</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B23" s="6">
         <v>7.3</v>
@@ -1475,9 +2086,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" ht="14.25" spans="1:11">
       <c r="A24" s="5">
-        <v>44736.317118055602</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B24" s="6">
         <v>7.5</v>
@@ -1498,7 +2109,7 @@
         <v>3.4</v>
       </c>
       <c r="H24" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I24" s="6">
         <v>23</v>
@@ -1510,9 +2121,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="5">
-        <v>44737.035416666702</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B25" s="6">
         <v>7.4</v>
@@ -1524,13 +2135,13 @@
         <v>10.3</v>
       </c>
       <c r="E25" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H25" s="6">
         <v>50.3</v>
@@ -1548,9 +2159,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
-        <v>44738.035208333298</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B26" s="6">
         <v>7.4</v>
@@ -1571,7 +2182,7 @@
         <v>12.6</v>
       </c>
       <c r="H26" s="6">
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="I26" s="6">
         <v>85.6</v>
@@ -1583,9 +2194,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" ht="14.25" spans="1:11">
       <c r="A27" s="5">
-        <v>44739.035081018497</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B27" s="6">
         <v>7.5</v>
@@ -1606,7 +2217,7 @@
         <v>17.8</v>
       </c>
       <c r="H27" s="6">
-        <v>153.19999999999999</v>
+        <v>153.2</v>
       </c>
       <c r="I27" s="6">
         <v>169.3</v>
@@ -1618,9 +2229,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" ht="14.25" spans="1:11">
       <c r="A28" s="5">
-        <v>44740.825601851902</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B28" s="6">
         <v>7.6</v>
@@ -1653,7 +2264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" ht="14.25" spans="1:11">
       <c r="A29" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -1667,7 +2278,7 @@
         <v>102.2</v>
       </c>
       <c r="E29" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -1688,7 +2299,104 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" ht="14.25" spans="2:11">
+      <c r="B30">
+        <v>7.6</v>
+      </c>
+      <c r="C30">
+        <v>7.5</v>
+      </c>
+      <c r="D30">
+        <v>130.3</v>
+      </c>
+      <c r="E30">
+        <v>1.2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>71.5</v>
+      </c>
+      <c r="H30">
+        <v>273.2</v>
+      </c>
+      <c r="I30">
+        <v>345.1</v>
+      </c>
+      <c r="J30">
+        <v>61.4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="2:11">
+      <c r="B31">
+        <v>7.5</v>
+      </c>
+      <c r="C31">
+        <v>7.4</v>
+      </c>
+      <c r="D31">
+        <v>131.2</v>
+      </c>
+      <c r="E31">
+        <v>1.1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>70.4</v>
+      </c>
+      <c r="H31">
+        <v>281.4</v>
+      </c>
+      <c r="I31">
+        <v>348.2</v>
+      </c>
+      <c r="J31">
+        <v>62.5</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:11">
+      <c r="B32">
+        <v>7.6</v>
+      </c>
+      <c r="C32">
+        <v>7.6</v>
+      </c>
+      <c r="D32">
+        <v>130.5</v>
+      </c>
+      <c r="E32">
+        <v>1.3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>70.5</v>
+      </c>
+      <c r="H32">
+        <v>276.4</v>
+      </c>
+      <c r="I32">
+        <v>341.2</v>
+      </c>
+      <c r="J32">
+        <v>63.1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25" spans="1:11">
       <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
@@ -1723,12 +2431,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" ht="14.25" spans="1:11">
       <c r="A38" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B38" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C38" s="4">
         <v>7.2</v>
@@ -1737,7 +2445,7 @@
         <v>6.2</v>
       </c>
       <c r="E38" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -1758,9 +2466,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" ht="14.25" spans="1:11">
       <c r="A39" s="5">
-        <v>44715.356354166703</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B39" s="6">
         <v>8.6</v>
@@ -1793,7 +2501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" ht="14.25" spans="1:11">
       <c r="A40" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -1816,7 +2524,7 @@
         <v>3.6</v>
       </c>
       <c r="H40" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I40" s="6">
         <v>26</v>
@@ -1828,9 +2536,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" ht="14.25" spans="1:11">
       <c r="A41" s="5">
-        <v>44717.358414351896</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B41" s="6">
         <v>8</v>
@@ -1863,12 +2571,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" ht="14.25" spans="1:11">
       <c r="A42" s="5">
-        <v>44718.358506944402</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B42" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C42" s="6">
         <v>7.3</v>
@@ -1898,15 +2606,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" ht="14.25" spans="1:11">
       <c r="A43" s="5">
-        <v>44719.358668981498</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B43" s="6">
         <v>7.9</v>
       </c>
       <c r="C43" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D43" s="6">
         <v>5.6</v>
@@ -1921,7 +2629,7 @@
         <v>3.7</v>
       </c>
       <c r="H43" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I43" s="6">
         <v>26.3</v>
@@ -1933,9 +2641,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" ht="14.25" spans="1:11">
       <c r="A44" s="5">
-        <v>44720.357962962997</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B44" s="6">
         <v>7.8</v>
@@ -1953,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H44" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I44" s="6">
         <v>31.7</v>
@@ -1968,9 +2676,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" ht="14.25" spans="1:11">
       <c r="A45" s="5">
-        <v>44721.357453703698</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B45" s="6">
         <v>7.8</v>
@@ -2003,9 +2711,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" ht="14.25" spans="1:11">
       <c r="A46" s="5">
-        <v>44722.357881944401</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B46" s="6">
         <v>7.9</v>
@@ -2026,7 +2734,7 @@
         <v>8.9</v>
       </c>
       <c r="H46" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I46" s="6">
         <v>32</v>
@@ -2038,9 +2746,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" ht="14.25" spans="1:11">
       <c r="A47" s="5">
-        <v>44723.316273148099</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B47" s="6">
         <v>7.8</v>
@@ -2073,9 +2781,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" ht="14.25" spans="1:11">
       <c r="A48" s="5">
-        <v>44724.316481481503</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B48" s="6">
         <v>7.7</v>
@@ -2096,7 +2804,7 @@
         <v>3.3</v>
       </c>
       <c r="H48" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I48" s="6">
         <v>25.1</v>
@@ -2108,9 +2816,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" ht="14.25" spans="1:11">
       <c r="A49" s="5">
-        <v>44725.316238425898</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B49" s="6">
         <v>7.7</v>
@@ -2122,7 +2830,7 @@
         <v>5.4</v>
       </c>
       <c r="E49" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -2143,9 +2851,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" ht="14.25" spans="1:11">
       <c r="A50" s="5">
-        <v>44726.317523148202</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B50" s="6">
         <v>7.6</v>
@@ -2166,7 +2874,7 @@
         <v>3.4</v>
       </c>
       <c r="H50" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I50" s="6">
         <v>25.7</v>
@@ -2178,9 +2886,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" ht="14.25" spans="1:11">
       <c r="A51" s="5">
-        <v>44727.314282407402</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B51" s="6">
         <v>7.6</v>
@@ -2213,9 +2921,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" ht="14.25" spans="1:11">
       <c r="A52" s="5">
-        <v>44728.316527777803</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B52" s="6">
         <v>7.6</v>
@@ -2248,9 +2956,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" ht="14.25" spans="1:11">
       <c r="A53" s="5">
-        <v>44729.315520833297</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B53" s="6">
         <v>7.7</v>
@@ -2283,9 +2991,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" ht="14.25" spans="1:11">
       <c r="A54" s="5">
-        <v>44730.317164351902</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B54" s="6">
         <v>7.6</v>
@@ -2318,9 +3026,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" ht="14.25" spans="1:11">
       <c r="A55" s="5">
-        <v>44731.316828703697</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B55" s="6">
         <v>7.4</v>
@@ -2329,7 +3037,7 @@
         <v>7.4</v>
       </c>
       <c r="D55" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E55" s="6">
         <v>0.9</v>
@@ -2341,7 +3049,7 @@
         <v>3.3</v>
       </c>
       <c r="H55" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I55" s="6">
         <v>24.2</v>
@@ -2353,9 +3061,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" ht="14.25" spans="1:11">
       <c r="A56" s="5">
-        <v>44732.316273148099</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B56" s="6">
         <v>7.5</v>
@@ -2388,9 +3096,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" ht="14.25" spans="1:11">
       <c r="A57" s="5">
-        <v>44733.315972222197</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B57" s="6">
         <v>7.3</v>
@@ -2411,7 +3119,7 @@
         <v>3.2</v>
       </c>
       <c r="H57" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I57" s="6">
         <v>24.2</v>
@@ -2423,9 +3131,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" ht="14.25" spans="1:11">
       <c r="A58" s="5">
-        <v>44734.316064814797</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B58" s="6">
         <v>7.5</v>
@@ -2446,7 +3154,7 @@
         <v>3.5</v>
       </c>
       <c r="H58" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I58" s="6">
         <v>25.3</v>
@@ -2458,9 +3166,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" ht="14.25" spans="1:11">
       <c r="A59" s="5">
-        <v>44735.316550925898</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B59" s="6">
         <v>7.3</v>
@@ -2493,9 +3201,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" ht="14.25" spans="1:11">
       <c r="A60" s="5">
-        <v>44736.317118055602</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B60" s="6">
         <v>7.5</v>
@@ -2516,7 +3224,7 @@
         <v>3.4</v>
       </c>
       <c r="H60" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I60" s="6">
         <v>23</v>
@@ -2528,9 +3236,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="5">
-        <v>44737.035416666702</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B61" s="6">
         <v>12.5</v>
@@ -2542,7 +3250,7 @@
         <v>5.3</v>
       </c>
       <c r="E61" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -2551,7 +3259,7 @@
         <v>3.5</v>
       </c>
       <c r="H61" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I61" s="6">
         <v>29.3</v>
@@ -2566,9 +3274,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="5">
-        <v>44738.035208333298</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B62" s="6">
         <v>31.5</v>
@@ -2589,7 +3297,7 @@
         <v>3.5</v>
       </c>
       <c r="H62" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I62" s="6">
         <v>50.3</v>
@@ -2601,9 +3309,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="5">
-        <v>44739.035081018497</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B63" s="6">
         <v>82.1</v>
@@ -2636,9 +3344,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>44740.825601851902</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B64" s="6">
         <v>98.6</v>
@@ -2662,7 +3370,7 @@
         <v>9.9</v>
       </c>
       <c r="I64" s="6">
-        <v>129.30000000000001</v>
+        <v>129.3</v>
       </c>
       <c r="J64" s="15">
         <v>60.2</v>
@@ -2671,7 +3379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" ht="14.25" spans="1:11">
       <c r="A65" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -2685,7 +3393,7 @@
         <v>5.3</v>
       </c>
       <c r="E65" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
@@ -2706,7 +3414,103 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" ht="14.25" spans="2:11">
+      <c r="B66">
+        <v>124.5</v>
+      </c>
+      <c r="C66">
+        <v>7.5</v>
+      </c>
+      <c r="D66">
+        <v>5.3</v>
+      </c>
+      <c r="E66">
+        <v>1.2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>3.7</v>
+      </c>
+      <c r="H66">
+        <v>9.8</v>
+      </c>
+      <c r="I66">
+        <v>171.3</v>
+      </c>
+      <c r="J66">
+        <v>61.4</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="2:11">
+      <c r="B67">
+        <v>123.5</v>
+      </c>
+      <c r="C67">
+        <v>7.4</v>
+      </c>
+      <c r="D67" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E67">
+        <v>1.1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>3.6</v>
+      </c>
+      <c r="H67">
+        <v>9.7</v>
+      </c>
+      <c r="I67">
+        <v>169.2</v>
+      </c>
+      <c r="J67">
+        <v>62.5</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="2:11">
+      <c r="B68">
+        <v>125.1</v>
+      </c>
+      <c r="C68">
+        <v>7.6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E68">
+        <v>1.3</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>3.7</v>
+      </c>
+      <c r="H68">
+        <v>9.9</v>
+      </c>
+      <c r="I68">
+        <v>166.5</v>
+      </c>
+      <c r="J68">
+        <v>63.1</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
         <v>0</v>
       </c>
@@ -2741,12 +3545,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B71" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C71" s="4">
         <v>7.2</v>
@@ -2755,7 +3559,7 @@
         <v>6.2</v>
       </c>
       <c r="E71" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -2776,9 +3580,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>44715.356354166703</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B72" s="6">
         <v>8.6</v>
@@ -2811,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -2834,7 +3638,7 @@
         <v>3.6</v>
       </c>
       <c r="H73" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I73" s="6">
         <v>26</v>
@@ -2846,9 +3650,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="5">
-        <v>44717.358414351896</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B74" s="6">
         <v>8</v>
@@ -2881,12 +3685,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" ht="14.25" spans="1:11">
       <c r="A75" s="5">
-        <v>44718.358506944402</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B75" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C75" s="6">
         <v>7.3</v>
@@ -2916,15 +3720,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" ht="14.25" spans="1:11">
       <c r="A76" s="5">
-        <v>44719.358668981498</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B76" s="6">
         <v>7.9</v>
       </c>
       <c r="C76" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D76" s="6">
         <v>5.6</v>
@@ -2939,7 +3743,7 @@
         <v>3.7</v>
       </c>
       <c r="H76" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I76" s="6">
         <v>26.3</v>
@@ -2951,9 +3755,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" ht="14.25" spans="1:11">
       <c r="A77" s="5">
-        <v>44720.357962962997</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B77" s="6">
         <v>7.8</v>
@@ -2971,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H77" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I77" s="6">
         <v>31.7</v>
@@ -2986,9 +3790,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" ht="14.25" spans="1:11">
       <c r="A78" s="5">
-        <v>44721.357453703698</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B78" s="6">
         <v>7.8</v>
@@ -3021,9 +3825,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" ht="14.25" spans="1:11">
       <c r="A79" s="5">
-        <v>44722.357881944401</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B79" s="6">
         <v>7.9</v>
@@ -3044,7 +3848,7 @@
         <v>8.9</v>
       </c>
       <c r="H79" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I79" s="6">
         <v>32</v>
@@ -3056,9 +3860,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" ht="14.25" spans="1:11">
       <c r="A80" s="5">
-        <v>44723.316273148099</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B80" s="6">
         <v>7.8</v>
@@ -3091,9 +3895,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" ht="14.25" spans="1:11">
       <c r="A81" s="5">
-        <v>44724.316481481503</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B81" s="6">
         <v>7.7</v>
@@ -3114,7 +3918,7 @@
         <v>3.3</v>
       </c>
       <c r="H81" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I81" s="6">
         <v>25.1</v>
@@ -3126,9 +3930,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" ht="14.25" spans="1:11">
       <c r="A82" s="5">
-        <v>44725.316238425898</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B82" s="6">
         <v>7.7</v>
@@ -3140,7 +3944,7 @@
         <v>5.4</v>
       </c>
       <c r="E82" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F82" s="6">
         <v>0</v>
@@ -3161,9 +3965,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" ht="14.25" spans="1:11">
       <c r="A83" s="5">
-        <v>44726.317523148202</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B83" s="6">
         <v>7.6</v>
@@ -3184,7 +3988,7 @@
         <v>3.4</v>
       </c>
       <c r="H83" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I83" s="6">
         <v>25.7</v>
@@ -3196,9 +4000,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" ht="14.25" spans="1:11">
       <c r="A84" s="5">
-        <v>44727.314282407402</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B84" s="6">
         <v>7.6</v>
@@ -3231,9 +4035,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" ht="14.25" spans="1:11">
       <c r="A85" s="5">
-        <v>44728.316527777803</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B85" s="6">
         <v>7.6</v>
@@ -3266,9 +4070,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" ht="14.25" spans="1:11">
       <c r="A86" s="5">
-        <v>44729.315520833297</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B86" s="6">
         <v>7.7</v>
@@ -3301,9 +4105,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" ht="14.25" spans="1:11">
       <c r="A87" s="5">
-        <v>44730.317164351902</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B87" s="6">
         <v>7.6</v>
@@ -3336,9 +4140,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" ht="14.25" spans="1:11">
       <c r="A88" s="5">
-        <v>44731.316828703697</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B88" s="6">
         <v>7.4</v>
@@ -3347,7 +4151,7 @@
         <v>7.4</v>
       </c>
       <c r="D88" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E88" s="6">
         <v>0.9</v>
@@ -3359,7 +4163,7 @@
         <v>3.3</v>
       </c>
       <c r="H88" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I88" s="6">
         <v>24.2</v>
@@ -3371,9 +4175,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" ht="14.25" spans="1:11">
       <c r="A89" s="5">
-        <v>44732.316273148099</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B89" s="6">
         <v>7.5</v>
@@ -3406,9 +4210,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" ht="14.25" spans="1:11">
       <c r="A90" s="5">
-        <v>44733.315972222197</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B90" s="6">
         <v>7.3</v>
@@ -3429,7 +4233,7 @@
         <v>3.2</v>
       </c>
       <c r="H90" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I90" s="6">
         <v>24.2</v>
@@ -3441,9 +4245,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" ht="14.25" spans="1:11">
       <c r="A91" s="5">
-        <v>44734.316064814797</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B91" s="6">
         <v>7.5</v>
@@ -3464,7 +4268,7 @@
         <v>3.5</v>
       </c>
       <c r="H91" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I91" s="6">
         <v>25.3</v>
@@ -3476,9 +4280,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" ht="14.25" spans="1:11">
       <c r="A92" s="5">
-        <v>44735.316550925898</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B92" s="6">
         <v>7.3</v>
@@ -3511,9 +4315,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" ht="14.25" spans="1:11">
       <c r="A93" s="5">
-        <v>44736.317118055602</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B93" s="6">
         <v>7.5</v>
@@ -3534,7 +4338,7 @@
         <v>3.4</v>
       </c>
       <c r="H93" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I93" s="6">
         <v>23</v>
@@ -3546,9 +4350,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="5">
-        <v>44737.035416666702</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B94" s="6">
         <v>12.5</v>
@@ -3560,10 +4364,10 @@
         <v>5.3</v>
       </c>
       <c r="E94" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F94" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G94" s="6">
         <v>3.5</v>
@@ -3584,9 +4388,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="5">
-        <v>44738.035208333298</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B95" s="6">
         <v>31.5</v>
@@ -3619,9 +4423,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="5">
-        <v>44739.035081018497</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B96" s="6">
         <v>82.1</v>
@@ -3645,7 +4449,7 @@
         <v>39.6</v>
       </c>
       <c r="I96" s="6">
-        <v>129.30000000000001</v>
+        <v>129.3</v>
       </c>
       <c r="J96" s="15">
         <v>63.4</v>
@@ -3654,9 +4458,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="5">
-        <v>44740.825601851902</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B97" s="6">
         <v>98.6</v>
@@ -3680,7 +4484,7 @@
         <v>53.4</v>
       </c>
       <c r="I97" s="6">
-        <v>149.30000000000001</v>
+        <v>149.3</v>
       </c>
       <c r="J97" s="15">
         <v>60.2</v>
@@ -3689,7 +4493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" ht="14.25" spans="1:11">
       <c r="A98" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -3703,7 +4507,7 @@
         <v>5.3</v>
       </c>
       <c r="E98" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F98" s="6">
         <v>45.2</v>
@@ -3724,7 +4528,103 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11">
+      <c r="B99">
+        <v>124.5</v>
+      </c>
+      <c r="C99">
+        <v>7.5</v>
+      </c>
+      <c r="D99">
+        <v>5.3</v>
+      </c>
+      <c r="E99">
+        <v>1.2</v>
+      </c>
+      <c r="F99">
+        <v>62.3</v>
+      </c>
+      <c r="G99">
+        <v>3.7</v>
+      </c>
+      <c r="H99">
+        <v>161.3</v>
+      </c>
+      <c r="I99">
+        <v>341.2</v>
+      </c>
+      <c r="J99">
+        <v>61.4</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="2:11">
+      <c r="B100">
+        <v>123.5</v>
+      </c>
+      <c r="C100">
+        <v>7.4</v>
+      </c>
+      <c r="D100" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E100">
+        <v>1.1</v>
+      </c>
+      <c r="F100">
+        <v>61.3</v>
+      </c>
+      <c r="G100">
+        <v>3.6</v>
+      </c>
+      <c r="H100">
+        <v>174.2</v>
+      </c>
+      <c r="I100">
+        <v>348.2</v>
+      </c>
+      <c r="J100">
+        <v>62.5</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="2:11">
+      <c r="B101">
+        <v>125.1</v>
+      </c>
+      <c r="C101">
+        <v>7.6</v>
+      </c>
+      <c r="D101" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E101">
+        <v>1.3</v>
+      </c>
+      <c r="F101">
+        <v>59.1</v>
+      </c>
+      <c r="G101">
+        <v>3.7</v>
+      </c>
+      <c r="H101">
+        <v>168.3</v>
+      </c>
+      <c r="I101">
+        <v>339.2</v>
+      </c>
+      <c r="J101">
+        <v>63.1</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:11">
       <c r="A102" s="8" t="s">
         <v>0</v>
       </c>
@@ -3759,12 +4659,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="3">
-        <v>44714.734953703701</v>
+        <v>44714.7349537037</v>
       </c>
       <c r="B103" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C103" s="4">
         <v>7.2</v>
@@ -3773,7 +4673,7 @@
         <v>6.2</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -3794,9 +4694,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" ht="14.25" spans="1:11">
       <c r="A104" s="5">
-        <v>44715.356354166703</v>
+        <v>44715.3563541667</v>
       </c>
       <c r="B104" s="6">
         <v>8.6</v>
@@ -3829,7 +4729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" ht="14.25" spans="1:11">
       <c r="A105" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -3852,7 +4752,7 @@
         <v>3.6</v>
       </c>
       <c r="H105" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I105" s="6">
         <v>26</v>
@@ -3864,9 +4764,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" ht="14.25" spans="1:11">
       <c r="A106" s="5">
-        <v>44717.358414351896</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B106" s="6">
         <v>8</v>
@@ -3899,12 +4799,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" ht="14.25" spans="1:11">
       <c r="A107" s="5">
-        <v>44718.358506944402</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B107" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C107" s="6">
         <v>7.3</v>
@@ -3934,15 +4834,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" ht="14.25" spans="1:11">
       <c r="A108" s="5">
-        <v>44719.358668981498</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B108" s="6">
         <v>7.9</v>
       </c>
       <c r="C108" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D108" s="6">
         <v>5.6</v>
@@ -3957,7 +4857,7 @@
         <v>3.7</v>
       </c>
       <c r="H108" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I108" s="6">
         <v>26.3</v>
@@ -3969,9 +4869,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" ht="14.25" spans="1:11">
       <c r="A109" s="5">
-        <v>44720.357962962997</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B109" s="6">
         <v>7.8</v>
@@ -3989,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="6">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H109" s="6">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I109" s="6">
         <v>31.7</v>
@@ -4004,9 +4904,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" ht="14.25" spans="1:11">
       <c r="A110" s="5">
-        <v>44721.357453703698</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B110" s="6">
         <v>7.8</v>
@@ -4039,9 +4939,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" ht="14.25" spans="1:11">
       <c r="A111" s="5">
-        <v>44722.357881944401</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B111" s="6">
         <v>7.9</v>
@@ -4062,7 +4962,7 @@
         <v>8.9</v>
       </c>
       <c r="H111" s="6">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I111" s="6">
         <v>32</v>
@@ -4074,9 +4974,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" ht="14.25" spans="1:11">
       <c r="A112" s="5">
-        <v>44723.316273148099</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B112" s="6">
         <v>7.8</v>
@@ -4109,9 +5009,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" ht="14.25" spans="1:11">
       <c r="A113" s="5">
-        <v>44724.316481481503</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B113" s="6">
         <v>7.7</v>
@@ -4132,7 +5032,7 @@
         <v>3.3</v>
       </c>
       <c r="H113" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I113" s="6">
         <v>25.1</v>
@@ -4144,9 +5044,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" ht="14.25" spans="1:11">
       <c r="A114" s="5">
-        <v>44725.316238425898</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B114" s="6">
         <v>7.7</v>
@@ -4158,7 +5058,7 @@
         <v>5.4</v>
       </c>
       <c r="E114" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -4179,9 +5079,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" ht="14.25" spans="1:11">
       <c r="A115" s="5">
-        <v>44726.317523148202</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B115" s="6">
         <v>7.6</v>
@@ -4202,7 +5102,7 @@
         <v>3.4</v>
       </c>
       <c r="H115" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I115" s="6">
         <v>25.7</v>
@@ -4214,9 +5114,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" ht="14.25" spans="1:11">
       <c r="A116" s="5">
-        <v>44727.314282407402</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B116" s="6">
         <v>7.6</v>
@@ -4249,9 +5149,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" ht="14.25" spans="1:11">
       <c r="A117" s="5">
-        <v>44728.316527777803</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B117" s="6">
         <v>7.6</v>
@@ -4284,9 +5184,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" ht="14.25" spans="1:11">
       <c r="A118" s="5">
-        <v>44729.315520833297</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B118" s="6">
         <v>7.7</v>
@@ -4319,9 +5219,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" ht="14.25" spans="1:11">
       <c r="A119" s="5">
-        <v>44730.317164351902</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B119" s="6">
         <v>7.6</v>
@@ -4354,9 +5254,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" ht="14.25" spans="1:11">
       <c r="A120" s="5">
-        <v>44731.316828703697</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B120" s="6">
         <v>7.4</v>
@@ -4365,7 +5265,7 @@
         <v>7.4</v>
       </c>
       <c r="D120" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E120" s="6">
         <v>0.9</v>
@@ -4377,7 +5277,7 @@
         <v>3.3</v>
       </c>
       <c r="H120" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I120" s="6">
         <v>24.2</v>
@@ -4389,9 +5289,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" ht="14.25" spans="1:11">
       <c r="A121" s="5">
-        <v>44732.316273148099</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B121" s="6">
         <v>7.5</v>
@@ -4424,9 +5324,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" ht="14.25" spans="1:11">
       <c r="A122" s="5">
-        <v>44733.315972222197</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B122" s="6">
         <v>7.3</v>
@@ -4447,7 +5347,7 @@
         <v>3.2</v>
       </c>
       <c r="H122" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I122" s="6">
         <v>24.2</v>
@@ -4459,9 +5359,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" ht="14.25" spans="1:11">
       <c r="A123" s="5">
-        <v>44734.316064814797</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B123" s="6">
         <v>7.5</v>
@@ -4482,7 +5382,7 @@
         <v>3.5</v>
       </c>
       <c r="H123" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I123" s="6">
         <v>25.3</v>
@@ -4494,9 +5394,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" ht="14.25" spans="1:11">
       <c r="A124" s="5">
-        <v>44735.316550925898</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B124" s="6">
         <v>7.3</v>
@@ -4529,9 +5429,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" ht="14.25" spans="1:11">
       <c r="A125" s="5">
-        <v>44736.317118055602</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B125" s="6">
         <v>7.5</v>
@@ -4552,7 +5452,7 @@
         <v>3.4</v>
       </c>
       <c r="H125" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I125" s="6">
         <v>23</v>
@@ -4564,9 +5464,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" ht="14.25" spans="1:12">
       <c r="A126" s="5">
-        <v>44737.035416666702</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B126" s="6">
         <v>12.5</v>
@@ -4578,13 +5478,13 @@
         <v>10.3</v>
       </c>
       <c r="E126" s="6">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="F126" s="6">
         <v>0.6</v>
       </c>
       <c r="G126" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H126" s="6">
         <v>62.9</v>
@@ -4602,9 +5502,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" ht="14.25" spans="1:11">
       <c r="A127" s="5">
-        <v>44738.035208333298</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B127" s="6">
         <v>31.5</v>
@@ -4619,7 +5519,7 @@
         <v>16.2</v>
       </c>
       <c r="F127" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G127" s="6">
         <v>12.6</v>
@@ -4628,7 +5528,7 @@
         <v>106.3</v>
       </c>
       <c r="I127" s="6">
-        <v>163.19999999999999</v>
+        <v>163.2</v>
       </c>
       <c r="J127" s="15">
         <v>86.7</v>
@@ -4637,9 +5537,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>44739.035081018497</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B128" s="6">
         <v>82.1</v>
@@ -4672,9 +5572,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>44740.825601851902</v>
+        <v>44740.8256018519</v>
       </c>
       <c r="B129" s="6">
         <v>98.6</v>
@@ -4707,7 +5607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" ht="14.25" spans="1:11">
       <c r="A130" s="7">
         <v>44742.2793634259</v>
       </c>
@@ -4730,7 +5630,7 @@
         <v>48.2</v>
       </c>
       <c r="H130" s="6">
-        <v>631.20000000000005</v>
+        <v>631.2</v>
       </c>
       <c r="I130" s="6">
         <v>921.3</v>
@@ -4742,158 +5642,220 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="9" t="s">
+    <row r="131" spans="1:11">
+      <c r="A131" s="19"/>
+      <c r="B131">
+        <v>124.5</v>
+      </c>
+      <c r="C131" s="15">
+        <v>178.3</v>
+      </c>
+      <c r="D131" s="15">
+        <v>92.3</v>
+      </c>
+      <c r="E131" s="15">
+        <v>71.5</v>
+      </c>
+      <c r="F131" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="G131" s="15">
+        <v>75.1</v>
+      </c>
+      <c r="H131" s="15">
+        <v>953.2</v>
+      </c>
+      <c r="I131" s="15">
+        <v>1423.2</v>
+      </c>
+      <c r="J131">
+        <v>109.3</v>
+      </c>
+      <c r="K131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132">
+        <v>123.5</v>
+      </c>
+      <c r="C132">
+        <v>179.2</v>
+      </c>
+      <c r="D132">
+        <v>94.6</v>
+      </c>
+      <c r="E132">
+        <v>72.6</v>
+      </c>
+      <c r="F132">
+        <v>27.3</v>
+      </c>
+      <c r="G132">
+        <v>76.4</v>
+      </c>
+      <c r="H132">
+        <v>942.3</v>
+      </c>
+      <c r="I132">
+        <v>1385.2</v>
+      </c>
+      <c r="J132">
+        <v>108.6</v>
+      </c>
+      <c r="K132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="2:11">
+      <c r="B133">
+        <v>125.1</v>
+      </c>
+      <c r="C133">
+        <v>184.3</v>
+      </c>
+      <c r="D133">
+        <v>92.7</v>
+      </c>
+      <c r="E133">
+        <v>74.2</v>
+      </c>
+      <c r="F133">
+        <v>26.4</v>
+      </c>
+      <c r="G133">
+        <v>77.2</v>
+      </c>
+      <c r="H133">
+        <v>973.5</v>
+      </c>
+      <c r="I133">
+        <v>1375.1</v>
+      </c>
+      <c r="J133">
+        <v>109.3</v>
+      </c>
+      <c r="K133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:11">
+      <c r="A134" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E134" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F134" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G134" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H134" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="9" t="s">
+      <c r="I134" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K133" s="17" t="s">
+      <c r="K134" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>44714.734953703701</v>
-      </c>
-      <c r="B134" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C134" s="4">
+    <row r="135" ht="14.25" spans="1:11">
+      <c r="A135" s="3">
+        <v>44714.7349537037</v>
+      </c>
+      <c r="B135" s="4">
+        <v>9.7</v>
+      </c>
+      <c r="C135" s="4">
         <v>7.2</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D135" s="4">
         <v>6.2</v>
       </c>
-      <c r="E134" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F134" s="4">
-        <v>0</v>
-      </c>
-      <c r="G134" s="4">
+      <c r="E135" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="F135" s="4">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4">
         <v>4</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H135" s="4">
         <v>11.3</v>
       </c>
-      <c r="I134" s="4">
+      <c r="I135" s="4">
         <v>28.1</v>
       </c>
-      <c r="J134" s="11">
+      <c r="J135" s="11">
         <v>60.4</v>
       </c>
-      <c r="K134" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>44715.356354166703</v>
-      </c>
-      <c r="B135" s="6">
+      <c r="K135" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" spans="1:11">
+      <c r="A136" s="5">
+        <v>44715.3563541667</v>
+      </c>
+      <c r="B136" s="6">
         <v>8.6</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C136" s="6">
         <v>7</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D136" s="6">
         <v>5.8</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E136" s="6">
         <v>0.9</v>
       </c>
-      <c r="F135" s="6">
-        <v>0</v>
-      </c>
-      <c r="G135" s="6">
+      <c r="F136" s="6">
+        <v>0</v>
+      </c>
+      <c r="G136" s="6">
         <v>3.7</v>
       </c>
-      <c r="H135" s="6">
+      <c r="H136" s="6">
         <v>10.4</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I136" s="6">
         <v>25.9</v>
       </c>
-      <c r="J135" s="13">
+      <c r="J136" s="13">
         <v>64.5</v>
       </c>
-      <c r="K135" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+      <c r="K136" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="1:11">
+      <c r="A137" s="5">
         <v>44716.3581134259</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B137" s="6">
         <v>8.1</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C137" s="6">
         <v>7.7</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D137" s="6">
         <v>5.6</v>
-      </c>
-      <c r="E136" s="6">
-        <v>1</v>
-      </c>
-      <c r="F136" s="6">
-        <v>0</v>
-      </c>
-      <c r="G136" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H136" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I136" s="6">
-        <v>26</v>
-      </c>
-      <c r="J136" s="13">
-        <v>63.4</v>
-      </c>
-      <c r="K136" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>44717.358414351896</v>
-      </c>
-      <c r="B137" s="6">
-        <v>8</v>
-      </c>
-      <c r="C137" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D137" s="6">
-        <v>5.5</v>
       </c>
       <c r="E137" s="6">
         <v>1</v>
@@ -4902,243 +5864,243 @@
         <v>0</v>
       </c>
       <c r="G137" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H137" s="6">
+        <v>10.2</v>
+      </c>
+      <c r="I137" s="6">
+        <v>26</v>
+      </c>
+      <c r="J137" s="13">
+        <v>63.4</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:11">
+      <c r="A138" s="5">
+        <v>44717.3584143519</v>
+      </c>
+      <c r="B138" s="6">
+        <v>8</v>
+      </c>
+      <c r="C138" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D138" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0</v>
+      </c>
+      <c r="G138" s="6">
         <v>3.5</v>
       </c>
-      <c r="H137" s="6">
+      <c r="H138" s="6">
         <v>9.9</v>
       </c>
-      <c r="I137" s="6">
+      <c r="I138" s="6">
         <v>25.4</v>
       </c>
-      <c r="J137" s="13">
+      <c r="J138" s="13">
         <v>62.3</v>
       </c>
-      <c r="K137" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>44718.358506944402</v>
-      </c>
-      <c r="B138" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C138" s="6">
+      <c r="K138" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="1:11">
+      <c r="A139" s="5">
+        <v>44718.3585069444</v>
+      </c>
+      <c r="B139" s="6">
+        <v>8.3</v>
+      </c>
+      <c r="C139" s="6">
         <v>7.3</v>
-      </c>
-      <c r="D138" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E138" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F138" s="6">
-        <v>0</v>
-      </c>
-      <c r="G138" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H138" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="I138" s="6">
-        <v>25.7</v>
-      </c>
-      <c r="J138" s="13">
-        <v>64.3</v>
-      </c>
-      <c r="K138" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>44719.358668981498</v>
-      </c>
-      <c r="B139" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="C139" s="6">
-        <v>8.1999999999999993</v>
       </c>
       <c r="D139" s="6">
         <v>5.6</v>
       </c>
       <c r="E139" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F139" s="6">
+        <v>0</v>
+      </c>
+      <c r="G139" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H139" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="I139" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="J139" s="13">
+        <v>64.3</v>
+      </c>
+      <c r="K139" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:11">
+      <c r="A140" s="5">
+        <v>44719.3586689815</v>
+      </c>
+      <c r="B140" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="C140" s="6">
+        <v>8.2</v>
+      </c>
+      <c r="D140" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E140" s="6">
         <v>1</v>
       </c>
-      <c r="F139" s="6">
-        <v>0</v>
-      </c>
-      <c r="G139" s="6">
+      <c r="F140" s="6">
+        <v>0</v>
+      </c>
+      <c r="G140" s="6">
         <v>3.7</v>
       </c>
-      <c r="H139" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I139" s="6">
+      <c r="H140" s="6">
+        <v>10.2</v>
+      </c>
+      <c r="I140" s="6">
         <v>26.3</v>
       </c>
-      <c r="J139" s="13">
+      <c r="J140" s="13">
         <v>62.1</v>
       </c>
-      <c r="K139" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>44720.357962962997</v>
-      </c>
-      <c r="B140" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C140" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="D140" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E140" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="F140" s="6">
-        <v>0</v>
-      </c>
-      <c r="G140" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H140" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I140" s="6">
-        <v>31.7</v>
-      </c>
-      <c r="J140" s="13">
-        <v>61.2</v>
-      </c>
       <c r="K140" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" ht="14.25" spans="1:11">
       <c r="A141" s="5">
-        <v>44721.357453703698</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B141" s="6">
         <v>7.8</v>
       </c>
       <c r="C141" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="D141" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E141" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F141" s="6">
+        <v>0</v>
+      </c>
+      <c r="G141" s="6">
+        <v>8.8</v>
+      </c>
+      <c r="H141" s="6">
+        <v>16.4</v>
+      </c>
+      <c r="I141" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="J141" s="13">
+        <v>61.2</v>
+      </c>
+      <c r="K141" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="1:11">
+      <c r="A142" s="5">
+        <v>44721.3574537037</v>
+      </c>
+      <c r="B142" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C142" s="6">
         <v>8.1</v>
       </c>
-      <c r="D141" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E141" s="6">
+      <c r="D142" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E142" s="6">
         <v>0.9</v>
       </c>
-      <c r="F141" s="6">
-        <v>0</v>
-      </c>
-      <c r="G141" s="6">
+      <c r="F142" s="6">
+        <v>0</v>
+      </c>
+      <c r="G142" s="6">
         <v>5.8</v>
       </c>
-      <c r="H141" s="6">
+      <c r="H142" s="6">
         <v>12</v>
       </c>
-      <c r="I141" s="6">
+      <c r="I142" s="6">
         <v>27.9</v>
       </c>
-      <c r="J141" s="13">
+      <c r="J142" s="13">
         <v>59.2</v>
       </c>
-      <c r="K141" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>44722.357881944401</v>
-      </c>
-      <c r="B142" s="6">
+      <c r="K142" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="1:11">
+      <c r="A143" s="5">
+        <v>44722.3578819444</v>
+      </c>
+      <c r="B143" s="6">
         <v>7.9</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C143" s="6">
         <v>8</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D143" s="6">
         <v>5.4</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E143" s="6">
         <v>1.8</v>
       </c>
-      <c r="F142" s="6">
-        <v>0</v>
-      </c>
-      <c r="G142" s="6">
+      <c r="F143" s="6">
+        <v>0</v>
+      </c>
+      <c r="G143" s="6">
         <v>8.9</v>
       </c>
-      <c r="H142" s="6">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="I142" s="6">
+      <c r="H143" s="6">
+        <v>16.1</v>
+      </c>
+      <c r="I143" s="6">
         <v>32</v>
       </c>
-      <c r="J142" s="13">
+      <c r="J143" s="13">
         <v>60.1</v>
       </c>
-      <c r="K142" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>44723.316273148099</v>
-      </c>
-      <c r="B143" s="6">
+      <c r="K143" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="1:11">
+      <c r="A144" s="5">
+        <v>44723.3162731481</v>
+      </c>
+      <c r="B144" s="6">
         <v>7.8</v>
-      </c>
-      <c r="C143" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="D143" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E143" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F143" s="6">
-        <v>0</v>
-      </c>
-      <c r="G143" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H143" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I143" s="6">
-        <v>25.2</v>
-      </c>
-      <c r="J143" s="13">
-        <v>62.4</v>
-      </c>
-      <c r="K143" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>44724.316481481503</v>
-      </c>
-      <c r="B144" s="6">
-        <v>7.7</v>
       </c>
       <c r="C144" s="6">
         <v>7.8</v>
       </c>
       <c r="D144" s="6">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E144" s="6">
         <v>0.9</v>
@@ -5147,24 +6109,24 @@
         <v>0</v>
       </c>
       <c r="G144" s="6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H144" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="I144" s="6">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="J144" s="13">
-        <v>61.2</v>
+        <v>62.4</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" ht="14.25" spans="1:11">
       <c r="A145" s="5">
-        <v>44725.316238425898</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B145" s="6">
         <v>7.7</v>
@@ -5176,71 +6138,71 @@
         <v>5.4</v>
       </c>
       <c r="E145" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F145" s="6">
         <v>0</v>
       </c>
       <c r="G145" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H145" s="6">
+        <v>9.7</v>
+      </c>
+      <c r="I145" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="J145" s="13">
+        <v>61.2</v>
+      </c>
+      <c r="K145" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="1:11">
+      <c r="A146" s="5">
+        <v>44725.3162384259</v>
+      </c>
+      <c r="B146" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="C146" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="D146" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F146" s="6">
+        <v>0</v>
+      </c>
+      <c r="G146" s="6">
         <v>3.7</v>
       </c>
-      <c r="H145" s="6">
+      <c r="H146" s="6">
         <v>10.1</v>
       </c>
-      <c r="I145" s="6">
+      <c r="I146" s="6">
         <v>25.6</v>
       </c>
-      <c r="J145" s="13">
+      <c r="J146" s="13">
         <v>63.1</v>
       </c>
-      <c r="K145" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>44726.317523148202</v>
-      </c>
-      <c r="B146" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C146" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="D146" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E146" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F146" s="6">
-        <v>0</v>
-      </c>
-      <c r="G146" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H146" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I146" s="6">
-        <v>25.7</v>
-      </c>
-      <c r="J146" s="13">
-        <v>62.1</v>
-      </c>
       <c r="K146" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" ht="14.25" spans="1:11">
       <c r="A147" s="5">
-        <v>44727.314282407402</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B147" s="6">
         <v>7.6</v>
       </c>
       <c r="C147" s="6">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="D147" s="6">
         <v>5.5</v>
@@ -5255,33 +6217,33 @@
         <v>3.4</v>
       </c>
       <c r="H147" s="6">
-        <v>9.6</v>
+        <v>9.7</v>
       </c>
       <c r="I147" s="6">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
       <c r="J147" s="13">
-        <v>63.2</v>
+        <v>62.1</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" ht="14.25" spans="1:11">
       <c r="A148" s="5">
-        <v>44728.316527777803</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B148" s="6">
         <v>7.6</v>
       </c>
       <c r="C148" s="6">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D148" s="6">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="E148" s="6">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F148" s="6">
         <v>0</v>
@@ -5293,30 +6255,30 @@
         <v>9.6</v>
       </c>
       <c r="I148" s="6">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="J148" s="13">
-        <v>61.2</v>
+        <v>63.2</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" ht="14.25" spans="1:11">
       <c r="A149" s="5">
-        <v>44729.315520833297</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B149" s="6">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="C149" s="6">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="D149" s="6">
         <v>5.3</v>
       </c>
       <c r="E149" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F149" s="6">
         <v>0</v>
@@ -5328,24 +6290,24 @@
         <v>9.6</v>
       </c>
       <c r="I149" s="6">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="J149" s="13">
-        <v>62.8</v>
+        <v>61.2</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" ht="14.25" spans="1:11">
       <c r="A150" s="5">
-        <v>44730.317164351902</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B150" s="6">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C150" s="6">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="D150" s="6">
         <v>5.3</v>
@@ -5363,65 +6325,65 @@
         <v>9.6</v>
       </c>
       <c r="I150" s="6">
+        <v>24.6</v>
+      </c>
+      <c r="J150" s="13">
+        <v>62.8</v>
+      </c>
+      <c r="K150" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" spans="1:11">
+      <c r="A151" s="5">
+        <v>44730.3171643519</v>
+      </c>
+      <c r="B151" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="C151" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="D151" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E151" s="6">
+        <v>1</v>
+      </c>
+      <c r="F151" s="6">
+        <v>0</v>
+      </c>
+      <c r="G151" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="H151" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="I151" s="6">
         <v>24.9</v>
       </c>
-      <c r="J150" s="13">
+      <c r="J151" s="13">
         <v>58.7</v>
       </c>
-      <c r="K150" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>44731.316828703697</v>
-      </c>
-      <c r="B151" s="6">
+      <c r="K151" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" spans="1:11">
+      <c r="A152" s="5">
+        <v>44731.3168287037</v>
+      </c>
+      <c r="B152" s="6">
         <v>7.4</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C152" s="6">
         <v>7.4</v>
       </c>
-      <c r="D151" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E151" s="6">
+      <c r="D152" s="6">
+        <v>5.1</v>
+      </c>
+      <c r="E152" s="6">
         <v>0.9</v>
-      </c>
-      <c r="F151" s="6">
-        <v>0</v>
-      </c>
-      <c r="G151" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="H151" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I151" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="J151" s="13">
-        <v>59.8</v>
-      </c>
-      <c r="K151" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
-        <v>44732.316273148099</v>
-      </c>
-      <c r="B152" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C152" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D152" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E152" s="6">
-        <v>1</v>
       </c>
       <c r="F152" s="6">
         <v>0</v>
@@ -5430,103 +6392,103 @@
         <v>3.3</v>
       </c>
       <c r="H152" s="6">
+        <v>9.3</v>
+      </c>
+      <c r="I152" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="J152" s="13">
+        <v>59.8</v>
+      </c>
+      <c r="K152" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" spans="1:11">
+      <c r="A153" s="5">
+        <v>44732.3162731481</v>
+      </c>
+      <c r="B153" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C153" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D153" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E153" s="6">
+        <v>1</v>
+      </c>
+      <c r="F153" s="6">
+        <v>0</v>
+      </c>
+      <c r="G153" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H153" s="6">
         <v>9.6</v>
       </c>
-      <c r="I152" s="6">
+      <c r="I153" s="6">
         <v>25.2</v>
       </c>
-      <c r="J152" s="13">
+      <c r="J153" s="13">
         <v>59.9</v>
       </c>
-      <c r="K152" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
-        <v>44733.315972222197</v>
-      </c>
-      <c r="B153" s="6">
+      <c r="K153" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="5">
+        <v>44733.3159722222</v>
+      </c>
+      <c r="B154" s="6">
         <v>7.3</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C154" s="6">
         <v>7.6</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D154" s="6">
         <v>5.2</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E154" s="6">
         <v>0.8</v>
       </c>
-      <c r="F153" s="6">
-        <v>0</v>
-      </c>
-      <c r="G153" s="6">
+      <c r="F154" s="6">
+        <v>0</v>
+      </c>
+      <c r="G154" s="6">
         <v>3.2</v>
       </c>
-      <c r="H153" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I153" s="6">
+      <c r="H154" s="6">
+        <v>9.3</v>
+      </c>
+      <c r="I154" s="6">
         <v>24.2</v>
       </c>
-      <c r="J153" s="13">
+      <c r="J154" s="13">
         <v>61.4</v>
       </c>
-      <c r="K153" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>44734.316064814797</v>
-      </c>
-      <c r="B154" s="6">
+      <c r="K154" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="5">
+        <v>44734.3160648148</v>
+      </c>
+      <c r="B155" s="6">
         <v>7.5</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C155" s="6">
         <v>8</v>
       </c>
-      <c r="D154" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E154" s="6">
+      <c r="D155" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E155" s="6">
         <v>1</v>
-      </c>
-      <c r="F154" s="6">
-        <v>0</v>
-      </c>
-      <c r="G154" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H154" s="6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I154" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="J154" s="13">
-        <v>62.4</v>
-      </c>
-      <c r="K154" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>44735.316550925898</v>
-      </c>
-      <c r="B155" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="C155" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D155" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E155" s="6">
-        <v>0.8</v>
       </c>
       <c r="F155" s="6">
         <v>0</v>
@@ -5535,421 +6497,483 @@
         <v>3.5</v>
       </c>
       <c r="H155" s="6">
+        <v>9.8</v>
+      </c>
+      <c r="I155" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="J155" s="13">
+        <v>62.4</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="5">
+        <v>44735.3165509259</v>
+      </c>
+      <c r="B156" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="C156" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="D156" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F156" s="6">
+        <v>0</v>
+      </c>
+      <c r="G156" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H156" s="6">
         <v>9.6</v>
       </c>
-      <c r="I155" s="6">
+      <c r="I156" s="6">
         <v>24.1</v>
       </c>
-      <c r="J155" s="13">
+      <c r="J156" s="13">
         <v>63.5</v>
       </c>
-      <c r="K155" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>44736.317118055602</v>
-      </c>
-      <c r="B156" s="6">
+      <c r="K156" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" spans="1:11">
+      <c r="A157" s="5">
+        <v>44736.3171180556</v>
+      </c>
+      <c r="B157" s="6">
         <v>7.5</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C157" s="6">
         <v>5.8</v>
       </c>
-      <c r="D156" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E156" s="6">
+      <c r="D157" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E157" s="6">
         <v>1</v>
       </c>
-      <c r="F156" s="6">
-        <v>0</v>
-      </c>
-      <c r="G156" s="6">
+      <c r="F157" s="6">
+        <v>0</v>
+      </c>
+      <c r="G157" s="6">
         <v>3.4</v>
       </c>
-      <c r="H156" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I156" s="6">
+      <c r="H157" s="6">
+        <v>9.7</v>
+      </c>
+      <c r="I157" s="6">
         <v>23</v>
       </c>
-      <c r="J156" s="13">
+      <c r="J157" s="13">
         <v>61.2</v>
       </c>
-      <c r="K156" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>44737.035416666702</v>
-      </c>
-      <c r="B157" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="C157" s="6">
-        <v>24.3</v>
-      </c>
-      <c r="D157" s="6">
-        <v>15.3</v>
-      </c>
-      <c r="E157" s="6">
+      <c r="K157" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" spans="1:12">
+      <c r="A158" s="5">
+        <v>44737.0354166667</v>
+      </c>
+      <c r="B158" s="6">
         <v>7.3</v>
       </c>
-      <c r="F157" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="G157" s="6">
-        <v>15.6</v>
-      </c>
-      <c r="H157" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="I157" s="6">
-        <v>215.3</v>
-      </c>
-      <c r="J157" s="15">
-        <v>72.5</v>
-      </c>
-      <c r="K157" t="s">
+      <c r="C158" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="D158" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E158" s="6">
+        <v>1</v>
+      </c>
+      <c r="F158" s="6">
+        <v>0</v>
+      </c>
+      <c r="G158" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="H158" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="I158" s="6">
         <v>21</v>
       </c>
-      <c r="L157" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>44738.035208333298</v>
-      </c>
-      <c r="B158" s="6">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="C158" s="6">
-        <v>79.3</v>
-      </c>
-      <c r="D158" s="6">
-        <v>65.3</v>
-      </c>
-      <c r="E158" s="6">
-        <v>42.1</v>
-      </c>
-      <c r="F158" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="G158" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="H158" s="6">
-        <v>135.19999999999999</v>
-      </c>
-      <c r="I158" s="6">
-        <v>566.29999999999995</v>
-      </c>
       <c r="J158" s="15">
-        <v>86.7</v>
+        <v>62.4</v>
       </c>
       <c r="K158" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L158" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" spans="1:11">
       <c r="A159" s="5">
-        <v>44739.035081018497</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B159" s="6">
-        <v>195.3</v>
+        <v>6.9</v>
       </c>
       <c r="C159" s="6">
-        <v>210.6</v>
+        <v>6.1</v>
       </c>
       <c r="D159" s="6">
-        <v>195.4</v>
+        <v>4.2</v>
       </c>
       <c r="E159" s="6">
-        <v>121.5</v>
+        <v>0.9</v>
       </c>
       <c r="F159" s="6">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="G159" s="6">
-        <v>113.6</v>
-      </c>
-      <c r="H159" s="6">
-        <v>512.29999999999995</v>
+        <v>2.5</v>
+      </c>
+      <c r="H159" s="20">
+        <v>9</v>
       </c>
       <c r="I159" s="6">
-        <v>842.3</v>
+        <v>18</v>
       </c>
       <c r="J159" s="15">
-        <v>89.4</v>
+        <v>61.2</v>
       </c>
       <c r="K159" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" ht="14.25" spans="1:11">
       <c r="A160" s="5">
-        <v>44740.825601851902</v>
+        <v>44739.0350810185</v>
       </c>
       <c r="B160" s="6">
-        <v>256.3</v>
+        <v>5.7</v>
       </c>
       <c r="C160" s="6">
-        <v>246.3</v>
+        <v>5.2</v>
       </c>
       <c r="D160" s="6">
-        <v>351.3</v>
+        <v>3.1</v>
       </c>
       <c r="E160" s="6">
-        <v>174.3</v>
+        <v>0.8</v>
       </c>
       <c r="F160" s="6">
-        <v>81.3</v>
+        <v>0</v>
       </c>
       <c r="G160" s="6">
-        <v>180.3</v>
-      </c>
-      <c r="H160" s="6">
-        <v>958.1</v>
+        <v>1.1</v>
+      </c>
+      <c r="H160" s="20">
+        <v>7.2</v>
       </c>
       <c r="I160" s="6">
-        <v>1545.3</v>
+        <v>13</v>
       </c>
       <c r="J160" s="15">
-        <v>91.3</v>
+        <v>63.4</v>
       </c>
       <c r="K160" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="7">
-        <v>44742.2793634259</v>
+    <row r="161" ht="14.25" spans="1:11">
+      <c r="A161" s="5">
+        <v>44740.8256018519</v>
       </c>
       <c r="B161" s="6">
-        <v>452.3</v>
+        <v>3.1</v>
       </c>
       <c r="C161" s="6">
-        <v>482.3</v>
+        <v>3.2</v>
       </c>
       <c r="D161" s="6">
-        <v>542.29999999999995</v>
+        <v>1.9</v>
       </c>
       <c r="E161" s="6">
-        <v>284.3</v>
+        <v>0.5</v>
       </c>
       <c r="F161" s="6">
-        <v>155.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="G161" s="6">
-        <v>315.60000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="H161" s="6">
-        <v>1243.2</v>
+        <v>4.2</v>
       </c>
       <c r="I161" s="6">
-        <v>2834.1</v>
+        <v>9</v>
       </c>
       <c r="J161" s="15">
-        <v>96.7</v>
+        <v>60.2</v>
       </c>
       <c r="K161" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="9" t="s">
+    <row r="162" ht="14.25" spans="1:11">
+      <c r="A162" s="7">
+        <v>44742.2793634259</v>
+      </c>
+      <c r="B162" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="C162" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D162" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F162" s="6">
+        <v>0</v>
+      </c>
+      <c r="G162" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H162" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="I162" s="6">
+        <v>8</v>
+      </c>
+      <c r="J162" s="15">
+        <v>63.7</v>
+      </c>
+      <c r="K162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="19"/>
+      <c r="B163" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="C163" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D163" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E163" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F163" s="6">
+        <v>0</v>
+      </c>
+      <c r="G163" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="H163" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="I163" s="15">
+        <v>6</v>
+      </c>
+      <c r="J163">
+        <v>61.4</v>
+      </c>
+      <c r="K163" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="2:11">
+      <c r="B164" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="C164">
+        <v>0.4</v>
+      </c>
+      <c r="D164">
+        <v>0.3</v>
+      </c>
+      <c r="E164">
+        <v>0.2</v>
+      </c>
+      <c r="F164" s="6">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.3</v>
+      </c>
+      <c r="H164">
+        <v>0.9</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <v>62.5</v>
+      </c>
+      <c r="K164" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" spans="2:11">
+      <c r="B165">
+        <v>0.1</v>
+      </c>
+      <c r="C165">
+        <v>0.4</v>
+      </c>
+      <c r="D165">
+        <v>0.3</v>
+      </c>
+      <c r="E165">
+        <v>0.1</v>
+      </c>
+      <c r="F165" s="6">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.2</v>
+      </c>
+      <c r="H165" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="I165">
+        <v>6</v>
+      </c>
+      <c r="J165">
+        <v>63.1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" spans="1:11">
+      <c r="A166" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C166" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D166" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E166" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F166" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="9" t="s">
+      <c r="G166" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="9" t="s">
+      <c r="H166" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I164" s="9" t="s">
+      <c r="I166" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J166" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K164" s="17" t="s">
+      <c r="K166" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
-        <v>44714.734953703701</v>
-      </c>
-      <c r="B165" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C165" s="4">
+    <row r="167" ht="14.25" spans="1:11">
+      <c r="A167" s="3">
+        <v>44714.7349537037</v>
+      </c>
+      <c r="B167" s="4">
+        <v>9.7</v>
+      </c>
+      <c r="C167" s="4">
         <v>7.2</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D167" s="4">
         <v>6.2</v>
       </c>
-      <c r="E165" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F165" s="4">
-        <v>0</v>
-      </c>
-      <c r="G165" s="4">
+      <c r="E167" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0</v>
+      </c>
+      <c r="G167" s="4">
         <v>4</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H167" s="4">
         <v>11.3</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I167" s="4">
         <v>28.1</v>
       </c>
-      <c r="J165" s="11">
+      <c r="J167" s="11">
         <v>60.4</v>
       </c>
-      <c r="K165" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
-        <v>44715.356354166703</v>
-      </c>
-      <c r="B166" s="6">
+      <c r="K167" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" spans="1:11">
+      <c r="A168" s="5">
+        <v>44715.3563541667</v>
+      </c>
+      <c r="B168" s="6">
         <v>8.6</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C168" s="6">
         <v>7</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D168" s="6">
         <v>5.8</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E168" s="6">
         <v>0.9</v>
       </c>
-      <c r="F166" s="6">
-        <v>0</v>
-      </c>
-      <c r="G166" s="6">
+      <c r="F168" s="6">
+        <v>0</v>
+      </c>
+      <c r="G168" s="6">
         <v>3.7</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H168" s="6">
         <v>10.4</v>
       </c>
-      <c r="I166" s="6">
+      <c r="I168" s="6">
         <v>25.9</v>
       </c>
-      <c r="J166" s="13">
+      <c r="J168" s="13">
         <v>64.5</v>
       </c>
-      <c r="K166" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="K168" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" spans="1:11">
+      <c r="A169" s="5">
         <v>44716.3581134259</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B169" s="6">
         <v>8.1</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C169" s="6">
         <v>7.7</v>
-      </c>
-      <c r="D167" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E167" s="6">
-        <v>1</v>
-      </c>
-      <c r="F167" s="6">
-        <v>0</v>
-      </c>
-      <c r="G167" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H167" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I167" s="6">
-        <v>26</v>
-      </c>
-      <c r="J167" s="13">
-        <v>63.4</v>
-      </c>
-      <c r="K167" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
-        <v>44717.358414351896</v>
-      </c>
-      <c r="B168" s="6">
-        <v>8</v>
-      </c>
-      <c r="C168" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D168" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E168" s="6">
-        <v>1</v>
-      </c>
-      <c r="F168" s="6">
-        <v>0</v>
-      </c>
-      <c r="G168" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H168" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="I168" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="J168" s="13">
-        <v>62.3</v>
-      </c>
-      <c r="K168" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
-        <v>44718.358506944402</v>
-      </c>
-      <c r="B169" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C169" s="6">
-        <v>7.3</v>
       </c>
       <c r="D169" s="6">
         <v>5.6</v>
       </c>
       <c r="E169" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F169" s="6">
         <v>0</v>
@@ -5958,30 +6982,30 @@
         <v>3.6</v>
       </c>
       <c r="H169" s="6">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="I169" s="6">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="J169" s="13">
-        <v>64.3</v>
+        <v>63.4</v>
       </c>
       <c r="K169" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" ht="14.25" spans="1:11">
       <c r="A170" s="5">
-        <v>44719.358668981498</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B170" s="6">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="C170" s="6">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="D170" s="6">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="E170" s="6">
         <v>1</v>
@@ -5990,135 +7014,135 @@
         <v>0</v>
       </c>
       <c r="G170" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H170" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="I170" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="J170" s="13">
+        <v>62.3</v>
+      </c>
+      <c r="K170" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" spans="1:11">
+      <c r="A171" s="5">
+        <v>44718.3585069444</v>
+      </c>
+      <c r="B171" s="6">
+        <v>8.3</v>
+      </c>
+      <c r="C171" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="D171" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E171" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F171" s="6">
+        <v>0</v>
+      </c>
+      <c r="G171" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H171" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="I171" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="J171" s="13">
+        <v>64.3</v>
+      </c>
+      <c r="K171" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:11">
+      <c r="A172" s="5">
+        <v>44719.3586689815</v>
+      </c>
+      <c r="B172" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="C172" s="6">
+        <v>8.2</v>
+      </c>
+      <c r="D172" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E172" s="6">
+        <v>1</v>
+      </c>
+      <c r="F172" s="6">
+        <v>0</v>
+      </c>
+      <c r="G172" s="6">
         <v>3.7</v>
       </c>
-      <c r="H170" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I170" s="6">
+      <c r="H172" s="6">
+        <v>10.2</v>
+      </c>
+      <c r="I172" s="6">
         <v>26.3</v>
       </c>
-      <c r="J170" s="13">
+      <c r="J172" s="13">
         <v>62.1</v>
       </c>
-      <c r="K170" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
-        <v>44720.357962962997</v>
-      </c>
-      <c r="B171" s="6">
+      <c r="K172" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" spans="1:11">
+      <c r="A173" s="5">
+        <v>44720.357962963</v>
+      </c>
+      <c r="B173" s="6">
         <v>7.8</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C173" s="6">
         <v>7.6</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D173" s="6">
         <v>5.5</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E173" s="6">
         <v>2.1</v>
       </c>
-      <c r="F171" s="6">
-        <v>0</v>
-      </c>
-      <c r="G171" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H171" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I171" s="6">
+      <c r="F173" s="6">
+        <v>0</v>
+      </c>
+      <c r="G173" s="6">
+        <v>8.8</v>
+      </c>
+      <c r="H173" s="6">
+        <v>16.4</v>
+      </c>
+      <c r="I173" s="6">
         <v>31.7</v>
       </c>
-      <c r="J171" s="13">
+      <c r="J173" s="13">
         <v>61.2</v>
       </c>
-      <c r="K171" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
-        <v>44721.357453703698</v>
-      </c>
-      <c r="B172" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C172" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D172" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E172" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F172" s="6">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="H172" s="6">
-        <v>12</v>
-      </c>
-      <c r="I172" s="6">
-        <v>27.9</v>
-      </c>
-      <c r="J172" s="13">
-        <v>59.2</v>
-      </c>
-      <c r="K172" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
-        <v>44722.357881944401</v>
-      </c>
-      <c r="B173" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="C173" s="6">
-        <v>8</v>
-      </c>
-      <c r="D173" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="E173" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="F173" s="6">
-        <v>0</v>
-      </c>
-      <c r="G173" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="H173" s="6">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="I173" s="6">
-        <v>32</v>
-      </c>
-      <c r="J173" s="13">
-        <v>60.1</v>
-      </c>
       <c r="K173" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" ht="14.25" spans="1:11">
       <c r="A174" s="5">
-        <v>44723.316273148099</v>
+        <v>44721.3574537037</v>
       </c>
       <c r="B174" s="6">
         <v>7.8</v>
       </c>
       <c r="C174" s="6">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="D174" s="6">
         <v>5.3</v>
@@ -6130,176 +7154,176 @@
         <v>0</v>
       </c>
       <c r="G174" s="6">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H174" s="6">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="I174" s="6">
-        <v>25.2</v>
+        <v>27.9</v>
       </c>
       <c r="J174" s="13">
-        <v>62.4</v>
+        <v>59.2</v>
       </c>
       <c r="K174" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" ht="14.25" spans="1:11">
       <c r="A175" s="5">
-        <v>44724.316481481503</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B175" s="6">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C175" s="6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D175" s="6">
         <v>5.4</v>
       </c>
       <c r="E175" s="6">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="F175" s="6">
         <v>0</v>
       </c>
       <c r="G175" s="6">
-        <v>3.3</v>
+        <v>8.9</v>
       </c>
       <c r="H175" s="6">
-        <v>9.6999999999999993</v>
+        <v>16.1</v>
       </c>
       <c r="I175" s="6">
-        <v>25.1</v>
+        <v>32</v>
       </c>
       <c r="J175" s="13">
-        <v>61.2</v>
+        <v>60.1</v>
       </c>
       <c r="K175" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" ht="14.25" spans="1:11">
       <c r="A176" s="5">
-        <v>44725.316238425898</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B176" s="6">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="C176" s="6">
         <v>7.8</v>
       </c>
       <c r="D176" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F176" s="6">
+        <v>0</v>
+      </c>
+      <c r="G176" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="H176" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="I176" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="J176" s="13">
+        <v>62.4</v>
+      </c>
+      <c r="K176" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" spans="1:11">
+      <c r="A177" s="5">
+        <v>44724.3164814815</v>
+      </c>
+      <c r="B177" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="C177" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="D177" s="6">
         <v>5.4</v>
       </c>
-      <c r="E176" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F176" s="6">
-        <v>0</v>
-      </c>
-      <c r="G176" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H176" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="I176" s="6">
-        <v>25.6</v>
-      </c>
-      <c r="J176" s="13">
-        <v>63.1</v>
-      </c>
-      <c r="K176" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
-        <v>44726.317523148202</v>
-      </c>
-      <c r="B177" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C177" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="D177" s="6">
-        <v>5.5</v>
-      </c>
       <c r="E177" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F177" s="6">
         <v>0</v>
       </c>
       <c r="G177" s="6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H177" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I177" s="6">
-        <v>25.7</v>
+        <v>25.1</v>
       </c>
       <c r="J177" s="13">
-        <v>62.1</v>
+        <v>61.2</v>
       </c>
       <c r="K177" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" ht="14.25" spans="1:11">
       <c r="A178" s="5">
-        <v>44727.314282407402</v>
+        <v>44725.3162384259</v>
       </c>
       <c r="B178" s="6">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C178" s="6">
         <v>7.8</v>
       </c>
       <c r="D178" s="6">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E178" s="6">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="F178" s="6">
         <v>0</v>
       </c>
       <c r="G178" s="6">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H178" s="6">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="I178" s="6">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
       <c r="J178" s="13">
-        <v>63.2</v>
+        <v>63.1</v>
       </c>
       <c r="K178" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" ht="14.25" spans="1:11">
       <c r="A179" s="5">
-        <v>44728.316527777803</v>
+        <v>44726.3175231482</v>
       </c>
       <c r="B179" s="6">
         <v>7.6</v>
       </c>
       <c r="C179" s="6">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="D179" s="6">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="E179" s="6">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F179" s="6">
         <v>0</v>
@@ -6308,33 +7332,33 @@
         <v>3.4</v>
       </c>
       <c r="H179" s="6">
-        <v>9.6</v>
+        <v>9.7</v>
       </c>
       <c r="I179" s="6">
-        <v>24.7</v>
+        <v>25.7</v>
       </c>
       <c r="J179" s="13">
-        <v>61.2</v>
+        <v>62.1</v>
       </c>
       <c r="K179" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" ht="14.25" spans="1:11">
       <c r="A180" s="5">
-        <v>44729.315520833297</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B180" s="6">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="C180" s="6">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="D180" s="6">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="E180" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F180" s="6">
         <v>0</v>
@@ -6346,30 +7370,30 @@
         <v>9.6</v>
       </c>
       <c r="I180" s="6">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="J180" s="13">
-        <v>62.8</v>
+        <v>63.2</v>
       </c>
       <c r="K180" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" ht="14.25" spans="1:11">
       <c r="A181" s="5">
-        <v>44730.317164351902</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B181" s="6">
         <v>7.6</v>
       </c>
       <c r="C181" s="6">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="D181" s="6">
         <v>5.3</v>
       </c>
       <c r="E181" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F181" s="6">
         <v>0</v>
@@ -6381,59 +7405,59 @@
         <v>9.6</v>
       </c>
       <c r="I181" s="6">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="J181" s="13">
-        <v>58.7</v>
+        <v>61.2</v>
       </c>
       <c r="K181" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" ht="14.25" spans="1:11">
       <c r="A182" s="5">
-        <v>44731.316828703697</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B182" s="6">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="C182" s="6">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="D182" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="E182" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F182" s="6">
         <v>0</v>
       </c>
       <c r="G182" s="6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H182" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I182" s="6">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="J182" s="13">
-        <v>59.8</v>
+        <v>62.8</v>
       </c>
       <c r="K182" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" ht="14.25" spans="1:11">
       <c r="A183" s="5">
-        <v>44732.316273148099</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B183" s="6">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="C183" s="6">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="D183" s="6">
         <v>5.3</v>
@@ -6445,65 +7469,65 @@
         <v>0</v>
       </c>
       <c r="G183" s="6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H183" s="6">
         <v>9.6</v>
       </c>
       <c r="I183" s="6">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="J183" s="13">
-        <v>59.9</v>
+        <v>58.7</v>
       </c>
       <c r="K183" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" ht="14.25" spans="1:11">
       <c r="A184" s="5">
-        <v>44733.315972222197</v>
+        <v>44731.3168287037</v>
       </c>
       <c r="B184" s="6">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="C184" s="6">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D184" s="6">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="E184" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F184" s="6">
         <v>0</v>
       </c>
       <c r="G184" s="6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H184" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I184" s="6">
         <v>24.2</v>
       </c>
       <c r="J184" s="13">
-        <v>61.4</v>
+        <v>59.8</v>
       </c>
       <c r="K184" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" ht="14.25" spans="1:11">
       <c r="A185" s="5">
-        <v>44734.316064814797</v>
+        <v>44732.3162731481</v>
       </c>
       <c r="B185" s="6">
         <v>7.5</v>
       </c>
       <c r="C185" s="6">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D185" s="6">
         <v>5.3</v>
@@ -6515,33 +7539,33 @@
         <v>0</v>
       </c>
       <c r="G185" s="6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H185" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I185" s="6">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="J185" s="13">
-        <v>62.4</v>
+        <v>59.9</v>
       </c>
       <c r="K185" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" ht="14.25" spans="1:11">
       <c r="A186" s="5">
-        <v>44735.316550925898</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B186" s="6">
         <v>7.3</v>
       </c>
       <c r="C186" s="6">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="D186" s="6">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="E186" s="6">
         <v>0.8</v>
@@ -6550,30 +7574,30 @@
         <v>0</v>
       </c>
       <c r="G186" s="6">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H186" s="6">
-        <v>9.6</v>
+        <v>9.3</v>
       </c>
       <c r="I186" s="6">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="J186" s="13">
-        <v>63.5</v>
+        <v>61.4</v>
       </c>
       <c r="K186" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" ht="14.25" spans="1:11">
       <c r="A187" s="5">
-        <v>44736.317118055602</v>
+        <v>44734.3160648148</v>
       </c>
       <c r="B187" s="6">
         <v>7.5</v>
       </c>
       <c r="C187" s="6">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="D187" s="6">
         <v>5.3</v>
@@ -6585,36 +7609,36 @@
         <v>0</v>
       </c>
       <c r="G187" s="6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H187" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.8</v>
       </c>
       <c r="I187" s="6">
-        <v>23</v>
+        <v>25.3</v>
       </c>
       <c r="J187" s="13">
-        <v>61.2</v>
+        <v>62.4</v>
       </c>
       <c r="K187" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" ht="14.25" spans="1:11">
       <c r="A188" s="5">
-        <v>44737.035416666702</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B188" s="6">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="C188" s="6">
-        <v>13.2</v>
+        <v>7.2</v>
       </c>
       <c r="D188" s="6">
         <v>5.3</v>
       </c>
       <c r="E188" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F188" s="6">
         <v>0</v>
@@ -6623,348 +7647,409 @@
         <v>3.5</v>
       </c>
       <c r="H188" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="I188" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="J188" s="13">
+        <v>63.5</v>
+      </c>
+      <c r="K188" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" spans="1:11">
+      <c r="A189" s="5">
+        <v>44736.3171180556</v>
+      </c>
+      <c r="B189" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C189" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="D189" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E189" s="6">
+        <v>1</v>
+      </c>
+      <c r="F189" s="6">
+        <v>0</v>
+      </c>
+      <c r="G189" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="H189" s="6">
+        <v>9.7</v>
+      </c>
+      <c r="I189" s="6">
+        <v>23</v>
+      </c>
+      <c r="J189" s="13">
+        <v>61.2</v>
+      </c>
+      <c r="K189" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="5">
+        <v>44737.0354166667</v>
+      </c>
+      <c r="B190" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="C190" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="D190" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E190" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F190" s="6">
+        <v>0</v>
+      </c>
+      <c r="G190" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H190" s="6">
+        <v>9.7</v>
+      </c>
+      <c r="I190" s="6">
         <v>31.5</v>
       </c>
-      <c r="J188" s="15">
+      <c r="J190" s="15">
         <v>72.5</v>
-      </c>
-      <c r="K188" t="s">
-        <v>23</v>
-      </c>
-      <c r="L188" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
-        <v>44738.035208333298</v>
-      </c>
-      <c r="B189" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="C189" s="6">
-        <v>32.5</v>
-      </c>
-      <c r="D189" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E189" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F189" s="6">
-        <v>0</v>
-      </c>
-      <c r="G189" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H189" s="6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I189" s="6">
-        <v>49.5</v>
-      </c>
-      <c r="J189" s="15">
-        <v>86.7</v>
-      </c>
-      <c r="K189" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
-        <v>44739.035081018497</v>
-      </c>
-      <c r="B190" s="6">
-        <v>21.5</v>
-      </c>
-      <c r="C190" s="6">
-        <v>76.5</v>
-      </c>
-      <c r="D190" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E190" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F190" s="6">
-        <v>0</v>
-      </c>
-      <c r="G190" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H190" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I190" s="6">
-        <v>146.30000000000001</v>
-      </c>
-      <c r="J190" s="15">
-        <v>89.4</v>
       </c>
       <c r="K190" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L190" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" spans="1:11">
       <c r="A191" s="5">
-        <v>44740.825601851902</v>
+        <v>44738.0352083333</v>
       </c>
       <c r="B191" s="6">
-        <v>38.6</v>
+        <v>12.4</v>
       </c>
       <c r="C191" s="6">
-        <v>96.2</v>
+        <v>32.5</v>
       </c>
       <c r="D191" s="6">
         <v>5.3</v>
       </c>
       <c r="E191" s="6">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="F191" s="6">
         <v>0</v>
       </c>
       <c r="G191" s="6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H191" s="6">
-        <v>9.9</v>
+        <v>9.8</v>
       </c>
       <c r="I191" s="6">
-        <v>192.3</v>
+        <v>49.5</v>
       </c>
       <c r="J191" s="15">
-        <v>91.3</v>
+        <v>86.7</v>
       </c>
       <c r="K191" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="7">
-        <v>44742.2793634259</v>
+    <row r="192" spans="1:11">
+      <c r="A192" s="5">
+        <v>44739.0350810185</v>
       </c>
       <c r="B192" s="6">
-        <v>68.2</v>
+        <v>21.5</v>
       </c>
       <c r="C192" s="6">
-        <v>130.30000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D192" s="6">
         <v>5.3</v>
       </c>
       <c r="E192" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
       </c>
       <c r="G192" s="6">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H192" s="6">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="I192" s="6">
-        <v>225.1</v>
+        <v>146.3</v>
       </c>
       <c r="J192" s="15">
-        <v>96.7</v>
+        <v>89.4</v>
       </c>
       <c r="K192" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="9" t="s">
+    <row r="193" spans="1:11">
+      <c r="A193" s="5">
+        <v>44740.8256018519</v>
+      </c>
+      <c r="B193" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="C193" s="6">
+        <v>96.2</v>
+      </c>
+      <c r="D193" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E193" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F193" s="6">
+        <v>0</v>
+      </c>
+      <c r="G193" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H193" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="I193" s="6">
+        <v>192.3</v>
+      </c>
+      <c r="J193" s="15">
+        <v>91.3</v>
+      </c>
+      <c r="K193" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" spans="1:11">
+      <c r="A194" s="7">
+        <v>44742.2793634259</v>
+      </c>
+      <c r="B194" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="C194" s="6">
+        <v>130.3</v>
+      </c>
+      <c r="D194" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E194" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F194" s="6">
+        <v>0</v>
+      </c>
+      <c r="G194" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="H194" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="I194" s="6">
+        <v>225.1</v>
+      </c>
+      <c r="J194" s="15">
+        <v>96.7</v>
+      </c>
+      <c r="K194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" spans="2:11">
+      <c r="B195">
+        <v>72.3</v>
+      </c>
+      <c r="C195" s="15">
+        <v>178.3</v>
+      </c>
+      <c r="D195">
+        <v>5.3</v>
+      </c>
+      <c r="E195">
+        <v>1.2</v>
+      </c>
+      <c r="F195" s="6">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>3.7</v>
+      </c>
+      <c r="H195">
+        <v>9.8</v>
+      </c>
+      <c r="I195">
+        <v>315.6</v>
+      </c>
+      <c r="J195">
+        <v>109.3</v>
+      </c>
+      <c r="K195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" spans="2:11">
+      <c r="B196">
+        <v>75.3</v>
+      </c>
+      <c r="C196">
+        <v>179.2</v>
+      </c>
+      <c r="D196" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E196">
+        <v>1.1</v>
+      </c>
+      <c r="F196" s="6">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>3.6</v>
+      </c>
+      <c r="H196">
+        <v>9.7</v>
+      </c>
+      <c r="I196">
+        <v>326.1</v>
+      </c>
+      <c r="J196">
+        <v>108.6</v>
+      </c>
+      <c r="K196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" spans="2:11">
+      <c r="B197">
+        <v>74.2</v>
+      </c>
+      <c r="C197">
+        <v>184.3</v>
+      </c>
+      <c r="D197" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E197">
+        <v>1.3</v>
+      </c>
+      <c r="F197" s="6">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>3.7</v>
+      </c>
+      <c r="H197">
+        <v>9.9</v>
+      </c>
+      <c r="I197">
+        <v>317.2</v>
+      </c>
+      <c r="J197">
+        <v>109.3</v>
+      </c>
+      <c r="K197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" spans="1:11">
+      <c r="A198" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C198" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D198" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E198" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F195" s="9" t="s">
+      <c r="F198" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="9" t="s">
+      <c r="G198" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H195" s="9" t="s">
+      <c r="H198" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I195" s="9" t="s">
+      <c r="I198" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J195" s="2" t="s">
+      <c r="J198" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K195" s="17" t="s">
+      <c r="K198" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
-        <v>44714.734953703701</v>
-      </c>
-      <c r="B196" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C196" s="4">
+    <row r="199" ht="14.25" spans="1:11">
+      <c r="A199" s="3">
+        <v>44714.7349537037</v>
+      </c>
+      <c r="B199" s="4">
+        <v>9.7</v>
+      </c>
+      <c r="C199" s="4">
         <v>7.2</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D199" s="4">
         <v>6.2</v>
       </c>
-      <c r="E196" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F196" s="4">
-        <v>0</v>
-      </c>
-      <c r="G196" s="4">
+      <c r="E199" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="F199" s="4">
+        <v>0</v>
+      </c>
+      <c r="G199" s="4">
         <v>4</v>
       </c>
-      <c r="H196" s="4">
+      <c r="H199" s="4">
         <v>11.3</v>
       </c>
-      <c r="I196" s="4">
+      <c r="I199" s="4">
         <v>28.1</v>
       </c>
-      <c r="J196" s="11">
+      <c r="J199" s="11">
         <v>60.4</v>
       </c>
-      <c r="K196" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
-        <v>44715.356354166703</v>
-      </c>
-      <c r="B197" s="6">
+      <c r="K199" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" spans="1:11">
+      <c r="A200" s="5">
+        <v>44715.3563541667</v>
+      </c>
+      <c r="B200" s="6">
         <v>8.6</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C200" s="6">
         <v>7</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D200" s="6">
         <v>5.8</v>
-      </c>
-      <c r="E197" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F197" s="6">
-        <v>0</v>
-      </c>
-      <c r="G197" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H197" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="I197" s="6">
-        <v>25.9</v>
-      </c>
-      <c r="J197" s="13">
-        <v>64.5</v>
-      </c>
-      <c r="K197" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="5">
-        <v>44716.3581134259</v>
-      </c>
-      <c r="B198" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="C198" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="D198" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E198" s="6">
-        <v>1</v>
-      </c>
-      <c r="F198" s="6">
-        <v>0</v>
-      </c>
-      <c r="G198" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H198" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I198" s="6">
-        <v>26</v>
-      </c>
-      <c r="J198" s="13">
-        <v>63.4</v>
-      </c>
-      <c r="K198" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
-        <v>44717.358414351896</v>
-      </c>
-      <c r="B199" s="6">
-        <v>8</v>
-      </c>
-      <c r="C199" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D199" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="E199" s="6">
-        <v>1</v>
-      </c>
-      <c r="F199" s="6">
-        <v>0</v>
-      </c>
-      <c r="G199" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H199" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="I199" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="J199" s="13">
-        <v>62.3</v>
-      </c>
-      <c r="K199" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
-        <v>44718.358506944402</v>
-      </c>
-      <c r="B200" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C200" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="D200" s="6">
-        <v>5.6</v>
       </c>
       <c r="E200" s="6">
         <v>0.9</v>
@@ -6973,30 +8058,30 @@
         <v>0</v>
       </c>
       <c r="G200" s="6">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H200" s="6">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="I200" s="6">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="J200" s="13">
-        <v>64.3</v>
+        <v>64.5</v>
       </c>
       <c r="K200" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" ht="14.25" spans="1:11">
       <c r="A201" s="5">
-        <v>44719.358668981498</v>
+        <v>44716.3581134259</v>
       </c>
       <c r="B201" s="6">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="C201" s="6">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="D201" s="6">
         <v>5.6</v>
@@ -7008,68 +8093,68 @@
         <v>0</v>
       </c>
       <c r="G201" s="6">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H201" s="6">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I201" s="6">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="J201" s="13">
-        <v>62.1</v>
+        <v>63.4</v>
       </c>
       <c r="K201" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" ht="14.25" spans="1:11">
       <c r="A202" s="5">
-        <v>44720.357962962997</v>
+        <v>44717.3584143519</v>
       </c>
       <c r="B202" s="6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="C202" s="6">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D202" s="6">
         <v>5.5</v>
       </c>
       <c r="E202" s="6">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="F202" s="6">
         <v>0</v>
       </c>
       <c r="G202" s="6">
-        <v>8.8000000000000007</v>
+        <v>3.5</v>
       </c>
       <c r="H202" s="6">
-        <v>16.399999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="I202" s="6">
-        <v>31.7</v>
+        <v>25.4</v>
       </c>
       <c r="J202" s="13">
-        <v>61.2</v>
+        <v>62.3</v>
       </c>
       <c r="K202" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" ht="14.25" spans="1:11">
       <c r="A203" s="5">
-        <v>44721.357453703698</v>
+        <v>44718.3585069444</v>
       </c>
       <c r="B203" s="6">
-        <v>7.8</v>
+        <v>8.3</v>
       </c>
       <c r="C203" s="6">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="D203" s="6">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="E203" s="6">
         <v>0.9</v>
@@ -7078,103 +8163,103 @@
         <v>0</v>
       </c>
       <c r="G203" s="6">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="H203" s="6">
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="I203" s="6">
-        <v>27.9</v>
+        <v>25.7</v>
       </c>
       <c r="J203" s="13">
-        <v>59.2</v>
+        <v>64.3</v>
       </c>
       <c r="K203" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" ht="14.25" spans="1:11">
       <c r="A204" s="5">
-        <v>44722.357881944401</v>
+        <v>44719.3586689815</v>
       </c>
       <c r="B204" s="6">
         <v>7.9</v>
       </c>
       <c r="C204" s="6">
-        <v>8</v>
+        <v>8.2</v>
       </c>
       <c r="D204" s="6">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="E204" s="6">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F204" s="6">
         <v>0</v>
       </c>
       <c r="G204" s="6">
-        <v>8.9</v>
+        <v>3.7</v>
       </c>
       <c r="H204" s="6">
-        <v>16.100000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="I204" s="6">
-        <v>32</v>
+        <v>26.3</v>
       </c>
       <c r="J204" s="13">
-        <v>60.1</v>
+        <v>62.1</v>
       </c>
       <c r="K204" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" ht="14.25" spans="1:11">
       <c r="A205" s="5">
-        <v>44723.316273148099</v>
+        <v>44720.357962963</v>
       </c>
       <c r="B205" s="6">
         <v>7.8</v>
       </c>
       <c r="C205" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="D205" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E205" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F205" s="6">
+        <v>0</v>
+      </c>
+      <c r="G205" s="6">
+        <v>8.8</v>
+      </c>
+      <c r="H205" s="6">
+        <v>16.4</v>
+      </c>
+      <c r="I205" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="J205" s="13">
+        <v>61.2</v>
+      </c>
+      <c r="K205" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" spans="1:11">
+      <c r="A206" s="5">
+        <v>44721.3574537037</v>
+      </c>
+      <c r="B206" s="6">
         <v>7.8</v>
       </c>
-      <c r="D205" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E205" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F205" s="6">
-        <v>0</v>
-      </c>
-      <c r="G205" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H205" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I205" s="6">
-        <v>25.2</v>
-      </c>
-      <c r="J205" s="13">
-        <v>62.4</v>
-      </c>
-      <c r="K205" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
-        <v>44724.316481481503</v>
-      </c>
-      <c r="B206" s="6">
-        <v>7.7</v>
-      </c>
       <c r="C206" s="6">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="D206" s="6">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E206" s="6">
         <v>0.9</v>
@@ -7183,71 +8268,71 @@
         <v>0</v>
       </c>
       <c r="G206" s="6">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="H206" s="6">
-        <v>9.6999999999999993</v>
+        <v>12</v>
       </c>
       <c r="I206" s="6">
-        <v>25.1</v>
+        <v>27.9</v>
       </c>
       <c r="J206" s="13">
-        <v>61.2</v>
+        <v>59.2</v>
       </c>
       <c r="K206" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" ht="14.25" spans="1:11">
       <c r="A207" s="5">
-        <v>44725.316238425898</v>
+        <v>44722.3578819444</v>
       </c>
       <c r="B207" s="6">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C207" s="6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D207" s="6">
         <v>5.4</v>
       </c>
       <c r="E207" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F207" s="6">
         <v>0</v>
       </c>
       <c r="G207" s="6">
-        <v>3.7</v>
+        <v>8.9</v>
       </c>
       <c r="H207" s="6">
-        <v>10.1</v>
+        <v>16.1</v>
       </c>
       <c r="I207" s="6">
-        <v>25.6</v>
+        <v>32</v>
       </c>
       <c r="J207" s="13">
-        <v>63.1</v>
+        <v>60.1</v>
       </c>
       <c r="K207" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" ht="14.25" spans="1:11">
       <c r="A208" s="5">
-        <v>44726.317523148202</v>
+        <v>44723.3162731481</v>
       </c>
       <c r="B208" s="6">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="C208" s="6">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="D208" s="6">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="E208" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F208" s="6">
         <v>0</v>
@@ -7256,103 +8341,103 @@
         <v>3.4</v>
       </c>
       <c r="H208" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="I208" s="6">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
       <c r="J208" s="13">
-        <v>62.1</v>
+        <v>62.4</v>
       </c>
       <c r="K208" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" ht="14.25" spans="1:11">
       <c r="A209" s="5">
-        <v>44727.314282407402</v>
+        <v>44724.3164814815</v>
       </c>
       <c r="B209" s="6">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C209" s="6">
         <v>7.8</v>
       </c>
       <c r="D209" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E209" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F209" s="6">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H209" s="6">
+        <v>9.7</v>
+      </c>
+      <c r="I209" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="J209" s="13">
+        <v>61.2</v>
+      </c>
+      <c r="K209" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" spans="1:11">
+      <c r="A210" s="5">
+        <v>44725.3162384259</v>
+      </c>
+      <c r="B210" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="C210" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="D210" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E210" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F210" s="6">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="H210" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="I210" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="J210" s="13">
+        <v>63.1</v>
+      </c>
+      <c r="K210" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" spans="1:11">
+      <c r="A211" s="5">
+        <v>44726.3175231482</v>
+      </c>
+      <c r="B211" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="C211" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="D211" s="6">
         <v>5.5</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E211" s="6">
         <v>0.7</v>
-      </c>
-      <c r="F209" s="6">
-        <v>0</v>
-      </c>
-      <c r="G209" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H209" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I209" s="6">
-        <v>24.9</v>
-      </c>
-      <c r="J209" s="13">
-        <v>63.2</v>
-      </c>
-      <c r="K209" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
-        <v>44728.316527777803</v>
-      </c>
-      <c r="B210" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="C210" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D210" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E210" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="F210" s="6">
-        <v>0</v>
-      </c>
-      <c r="G210" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H210" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I210" s="6">
-        <v>24.7</v>
-      </c>
-      <c r="J210" s="13">
-        <v>61.2</v>
-      </c>
-      <c r="K210" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
-        <v>44729.315520833297</v>
-      </c>
-      <c r="B211" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="C211" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D211" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E211" s="6">
-        <v>1</v>
       </c>
       <c r="F211" s="6">
         <v>0</v>
@@ -7361,33 +8446,33 @@
         <v>3.4</v>
       </c>
       <c r="H211" s="6">
-        <v>9.6</v>
+        <v>9.7</v>
       </c>
       <c r="I211" s="6">
-        <v>24.6</v>
+        <v>25.7</v>
       </c>
       <c r="J211" s="13">
-        <v>62.8</v>
+        <v>62.1</v>
       </c>
       <c r="K211" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" ht="14.25" spans="1:11">
       <c r="A212" s="5">
-        <v>44730.317164351902</v>
+        <v>44727.3142824074</v>
       </c>
       <c r="B212" s="6">
         <v>7.6</v>
       </c>
       <c r="C212" s="6">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D212" s="6">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="E212" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F212" s="6">
         <v>0</v>
@@ -7402,24 +8487,24 @@
         <v>24.9</v>
       </c>
       <c r="J212" s="13">
-        <v>58.7</v>
+        <v>63.2</v>
       </c>
       <c r="K212" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" ht="14.25" spans="1:11">
       <c r="A213" s="5">
-        <v>44731.316828703697</v>
+        <v>44728.3165277778</v>
       </c>
       <c r="B213" s="6">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C213" s="6">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D213" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="E213" s="6">
         <v>0.9</v>
@@ -7428,30 +8513,30 @@
         <v>0</v>
       </c>
       <c r="G213" s="6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H213" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I213" s="6">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="J213" s="13">
-        <v>59.8</v>
+        <v>61.2</v>
       </c>
       <c r="K213" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" ht="14.25" spans="1:11">
       <c r="A214" s="5">
-        <v>44732.316273148099</v>
+        <v>44729.3155208333</v>
       </c>
       <c r="B214" s="6">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="C214" s="6">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="D214" s="6">
         <v>5.3</v>
@@ -7463,176 +8548,176 @@
         <v>0</v>
       </c>
       <c r="G214" s="6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H214" s="6">
         <v>9.6</v>
       </c>
       <c r="I214" s="6">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="J214" s="13">
-        <v>59.9</v>
+        <v>62.8</v>
       </c>
       <c r="K214" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" ht="14.25" spans="1:11">
       <c r="A215" s="5">
-        <v>44733.315972222197</v>
+        <v>44730.3171643519</v>
       </c>
       <c r="B215" s="6">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C215" s="6">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D215" s="6">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E215" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F215" s="6">
         <v>0</v>
       </c>
       <c r="G215" s="6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H215" s="6">
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I215" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="J215" s="13">
+        <v>58.7</v>
+      </c>
+      <c r="K215" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" spans="1:11">
+      <c r="A216" s="5">
+        <v>44731.3168287037</v>
+      </c>
+      <c r="B216" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C216" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="D216" s="6">
+        <v>5.1</v>
+      </c>
+      <c r="E216" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F216" s="6">
+        <v>0</v>
+      </c>
+      <c r="G216" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H216" s="6">
+        <v>9.3</v>
+      </c>
+      <c r="I216" s="6">
         <v>24.2</v>
       </c>
-      <c r="J215" s="13">
-        <v>61.4</v>
-      </c>
-      <c r="K215" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
-        <v>44734.316064814797</v>
-      </c>
-      <c r="B216" s="6">
+      <c r="J216" s="13">
+        <v>59.8</v>
+      </c>
+      <c r="K216" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" spans="1:11">
+      <c r="A217" s="5">
+        <v>44732.3162731481</v>
+      </c>
+      <c r="B217" s="6">
         <v>7.5</v>
       </c>
-      <c r="C216" s="6">
-        <v>8</v>
-      </c>
-      <c r="D216" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E216" s="6">
+      <c r="C217" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="D217" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E217" s="6">
         <v>1</v>
       </c>
-      <c r="F216" s="6">
-        <v>0</v>
-      </c>
-      <c r="G216" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H216" s="6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I216" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="J216" s="13">
-        <v>62.4</v>
-      </c>
-      <c r="K216" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
-        <v>44735.316550925898</v>
-      </c>
-      <c r="B217" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="C217" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D217" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E217" s="6">
-        <v>0.8</v>
-      </c>
       <c r="F217" s="6">
         <v>0</v>
       </c>
       <c r="G217" s="6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H217" s="6">
         <v>9.6</v>
       </c>
       <c r="I217" s="6">
-        <v>24.1</v>
+        <v>25.2</v>
       </c>
       <c r="J217" s="13">
-        <v>63.5</v>
+        <v>59.9</v>
       </c>
       <c r="K217" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" ht="14.25" spans="1:11">
       <c r="A218" s="5">
-        <v>44736.317118055602</v>
+        <v>44733.3159722222</v>
       </c>
       <c r="B218" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="C218" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="D218" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F218" s="6">
+        <v>0</v>
+      </c>
+      <c r="G218" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="H218" s="6">
+        <v>9.3</v>
+      </c>
+      <c r="I218" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="J218" s="13">
+        <v>61.4</v>
+      </c>
+      <c r="K218" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25" spans="1:11">
+      <c r="A219" s="5">
+        <v>44734.3160648148</v>
+      </c>
+      <c r="B219" s="6">
         <v>7.5</v>
       </c>
-      <c r="C218" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="D218" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E218" s="6">
+      <c r="C219" s="6">
+        <v>8</v>
+      </c>
+      <c r="D219" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E219" s="6">
         <v>1</v>
-      </c>
-      <c r="F218" s="6">
-        <v>0</v>
-      </c>
-      <c r="G218" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H218" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I218" s="6">
-        <v>23</v>
-      </c>
-      <c r="J218" s="13">
-        <v>61.2</v>
-      </c>
-      <c r="K218" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="5">
-        <v>44737.035416666702</v>
-      </c>
-      <c r="B219" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="C219" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="D219" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E219" s="6">
-        <v>1.1000000000000001</v>
       </c>
       <c r="F219" s="6">
         <v>0</v>
@@ -7641,30 +8726,33 @@
         <v>3.5</v>
       </c>
       <c r="H219" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.8</v>
       </c>
       <c r="I219" s="6">
-        <v>23.2</v>
-      </c>
-      <c r="J219" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="J219" s="13">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K219" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25" spans="1:11">
       <c r="A220" s="5">
-        <v>44738.035208333298</v>
+        <v>44735.3165509259</v>
       </c>
       <c r="B220" s="6">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C220" s="6">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="D220" s="6">
         <v>5.3</v>
       </c>
       <c r="E220" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F220" s="6">
         <v>0</v>
@@ -7673,114 +8761,216 @@
         <v>3.5</v>
       </c>
       <c r="H220" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I220" s="6">
-        <v>22.5</v>
-      </c>
-      <c r="J220" s="15">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24.1</v>
+      </c>
+      <c r="J220" s="13">
+        <v>63.5</v>
+      </c>
+      <c r="K220" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25" spans="1:11">
       <c r="A221" s="5">
-        <v>44739.035081018497</v>
+        <v>44736.3171180556</v>
       </c>
       <c r="B221" s="6">
         <v>7.5</v>
       </c>
       <c r="C221" s="6">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="D221" s="6">
         <v>5.3</v>
       </c>
       <c r="E221" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F221" s="6">
         <v>0</v>
       </c>
       <c r="G221" s="6">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H221" s="6">
-        <v>9.6</v>
+        <v>9.7</v>
       </c>
       <c r="I221" s="6">
-        <v>22.1</v>
-      </c>
-      <c r="J221" s="15">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J221" s="13">
+        <v>61.2</v>
+      </c>
+      <c r="K221" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25" spans="1:10">
       <c r="A222" s="5">
-        <v>44740.825601851902</v>
+        <v>44737.0354166667</v>
       </c>
       <c r="B222" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C222" s="6">
         <v>7.6</v>
       </c>
-      <c r="C222" s="6">
-        <v>7.4</v>
-      </c>
       <c r="D222" s="6">
         <v>5.3</v>
       </c>
       <c r="E222" s="6">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F222" s="6">
         <v>0</v>
       </c>
       <c r="G222" s="6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H222" s="6">
-        <v>9.9</v>
+        <v>9.7</v>
       </c>
       <c r="I222" s="6">
-        <v>21.6</v>
+        <v>23.2</v>
       </c>
       <c r="J222" s="15">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="7">
-        <v>44742.2793634259</v>
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25" spans="1:10">
+      <c r="A223" s="5">
+        <v>44738.0352083333</v>
       </c>
       <c r="B223" s="6">
         <v>7.4</v>
       </c>
       <c r="C223" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D223" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E223" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H223" s="6">
+        <v>9.8</v>
+      </c>
+      <c r="I223" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="J223" s="15">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25" spans="1:10">
+      <c r="A224" s="5">
+        <v>44739.0350810185</v>
+      </c>
+      <c r="B224" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C224" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D224" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E224" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F224" s="6">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H224" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="I224" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="J224" s="15">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25" spans="1:10">
+      <c r="A225" s="5">
+        <v>44740.8256018519</v>
+      </c>
+      <c r="B225" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="C225" s="6">
         <v>7.4</v>
       </c>
-      <c r="D223" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="E223" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F223" s="6">
-        <v>0</v>
-      </c>
-      <c r="G223" s="6">
+      <c r="D225" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E225" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="H225" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="I225" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="J225" s="15">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25" spans="1:10">
+      <c r="A226" s="7">
+        <v>44742.2793634259</v>
+      </c>
+      <c r="B226" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C226" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="D226" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E226" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F226" s="6">
+        <v>0</v>
+      </c>
+      <c r="G226" s="6">
         <v>3.7</v>
       </c>
-      <c r="H223" s="6">
+      <c r="H226" s="6">
         <v>9.9</v>
       </c>
-      <c r="I223" s="6">
+      <c r="I226" s="6">
         <v>21.2</v>
       </c>
-      <c r="J223" s="15">
+      <c r="J226" s="15">
         <v>63.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/故障样本.xlsx
+++ b/故障样本.xlsx
@@ -1272,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="K190" sqref="K190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2121,7 +2121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" ht="14.25" spans="1:12">
       <c r="A25" s="5">
         <v>44737.0354166667</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" ht="14.25" spans="1:11">
       <c r="A26" s="5">
         <v>44738.0352083333</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" ht="14.25" spans="1:12">
       <c r="A61" s="5">
         <v>44737.0354166667</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" ht="14.25" spans="1:11">
       <c r="A62" s="5">
         <v>44738.0352083333</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" ht="14.25" spans="1:11">
       <c r="A63" s="5">
         <v>44739.0350810185</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" ht="14.25" spans="1:11">
       <c r="A64" s="5">
         <v>44740.8256018519</v>
       </c>
@@ -3510,7 +3510,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="69" ht="14.25"/>
+    <row r="70" ht="14.25" spans="1:11">
       <c r="A70" s="8" t="s">
         <v>0</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" ht="14.25" spans="1:11">
       <c r="A71" s="3">
         <v>44714.7349537037</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" ht="14.25" spans="1:11">
       <c r="A72" s="5">
         <v>44715.3563541667</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" ht="14.25" spans="1:11">
       <c r="A73" s="5">
         <v>44716.3581134259</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" ht="14.25" spans="1:11">
       <c r="A74" s="5">
         <v>44717.3584143519</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" ht="14.25" spans="1:11">
       <c r="A95" s="5">
         <v>44738.0352083333</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" ht="14.25" spans="1:11">
       <c r="A96" s="5">
         <v>44739.0350810185</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" ht="14.25" spans="1:11">
       <c r="A97" s="5">
         <v>44740.8256018519</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" ht="14.25" spans="1:11">
       <c r="A103" s="3">
         <v>44714.7349537037</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:12">
+    <row r="126" spans="1:12">
       <c r="A126" s="5">
         <v>44737.0354166667</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" ht="14.25" spans="1:11">
       <c r="A128" s="5">
         <v>44739.0350810185</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" ht="14.25" spans="1:11">
       <c r="A129" s="5">
         <v>44740.8256018519</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" ht="14.25" spans="1:11">
       <c r="A154" s="5">
         <v>44733.3159722222</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" ht="14.25" spans="1:11">
       <c r="A155" s="5">
         <v>44734.3160648148</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" ht="14.25" spans="1:11">
       <c r="A156" s="5">
         <v>44735.3165509259</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" ht="14.25" spans="1:11">
       <c r="A163" s="19"/>
       <c r="B163" s="15">
         <v>0.2</v>
@@ -7767,7 +7768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" ht="14.25" spans="1:11">
       <c r="A192" s="5">
         <v>44739.0350810185</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" ht="14.25" spans="1:11">
       <c r="A193" s="5">
         <v>44740.8256018519</v>
       </c>
